--- a/raw_dataset.xlsx
+++ b/raw_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maike/Dropbox/Mac/Documents/PhD_TUBS/2024/Projects/AbbVie/Github/jn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FE6711-E5CE-B647-A10F-C8E481A0EC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302E5DA1-4D0C-E542-9314-CBD36589892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50020" yWindow="500" windowWidth="17140" windowHeight="19080" activeTab="1" xr2:uid="{AF99F99A-49D0-0845-9E6F-676CB28C6C68}"/>
+    <workbookView xWindow="50020" yWindow="500" windowWidth="17140" windowHeight="19080" activeTab="2" xr2:uid="{AF99F99A-49D0-0845-9E6F-676CB28C6C68}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="853">
   <si>
     <t>Compound_Name</t>
   </si>
@@ -2327,9 +2327,6 @@
   </si>
   <si>
     <t>N29</t>
-  </si>
-  <si>
-    <t>N31</t>
   </si>
   <si>
     <t>N32</t>
@@ -3046,7 +3043,7 @@
         <v>585</v>
       </c>
       <c r="B3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C3" t="s">
         <v>741</v>
@@ -3063,10 +3060,10 @@
         <v>593</v>
       </c>
       <c r="B4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3080,7 +3077,7 @@
         <v>685</v>
       </c>
       <c r="B5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C5" t="s">
         <v>741</v>
@@ -3097,7 +3094,7 @@
         <v>686</v>
       </c>
       <c r="B6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C6" t="s">
         <v>741</v>
@@ -3114,7 +3111,7 @@
         <v>687</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C7" t="s">
         <v>741</v>
@@ -3131,7 +3128,7 @@
         <v>688</v>
       </c>
       <c r="B8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C8" t="s">
         <v>741</v>
@@ -3148,7 +3145,7 @@
         <v>689</v>
       </c>
       <c r="B9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C9" t="s">
         <v>741</v>
@@ -3165,7 +3162,7 @@
         <v>690</v>
       </c>
       <c r="B10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C10" t="s">
         <v>741</v>
@@ -3182,7 +3179,7 @@
         <v>691</v>
       </c>
       <c r="B11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C11" t="s">
         <v>741</v>
@@ -3199,7 +3196,7 @@
         <v>692</v>
       </c>
       <c r="B12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C12" t="s">
         <v>748</v>
@@ -3216,7 +3213,7 @@
         <v>693</v>
       </c>
       <c r="B13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C13" t="s">
         <v>741</v>
@@ -3233,7 +3230,7 @@
         <v>694</v>
       </c>
       <c r="B14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C14" t="s">
         <v>744</v>
@@ -3250,7 +3247,7 @@
         <v>594</v>
       </c>
       <c r="B15" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C15" t="s">
         <v>741</v>
@@ -3267,7 +3264,7 @@
         <v>695</v>
       </c>
       <c r="B16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C16" t="s">
         <v>741</v>
@@ -3284,7 +3281,7 @@
         <v>696</v>
       </c>
       <c r="B17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C17" t="s">
         <v>741</v>
@@ -3301,7 +3298,7 @@
         <v>734</v>
       </c>
       <c r="B18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C18" t="s">
         <v>762</v>
@@ -3318,7 +3315,7 @@
         <v>697</v>
       </c>
       <c r="B19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C19" t="s">
         <v>761</v>
@@ -3335,7 +3332,7 @@
         <v>698</v>
       </c>
       <c r="B20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C20" t="s">
         <v>747</v>
@@ -3352,7 +3349,7 @@
         <v>699</v>
       </c>
       <c r="B21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C21" t="s">
         <v>748</v>
@@ -3369,10 +3366,10 @@
         <v>700</v>
       </c>
       <c r="B22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3386,7 +3383,7 @@
         <v>701</v>
       </c>
       <c r="B23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C23" t="s">
         <v>741</v>
@@ -3403,7 +3400,7 @@
         <v>702</v>
       </c>
       <c r="B24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C24" t="s">
         <v>741</v>
@@ -3420,7 +3417,7 @@
         <v>703</v>
       </c>
       <c r="B25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C25" t="s">
         <v>741</v>
@@ -3437,7 +3434,7 @@
         <v>595</v>
       </c>
       <c r="B26" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C26" t="s">
         <v>756</v>
@@ -3454,7 +3451,7 @@
         <v>735</v>
       </c>
       <c r="B27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C27" t="s">
         <v>761</v>
@@ -3471,7 +3468,7 @@
         <v>704</v>
       </c>
       <c r="B28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C28" t="s">
         <v>741</v>
@@ -3488,7 +3485,7 @@
         <v>705</v>
       </c>
       <c r="B29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C29" t="s">
         <v>741</v>
@@ -3505,7 +3502,7 @@
         <v>706</v>
       </c>
       <c r="B30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C30" t="s">
         <v>748</v>
@@ -3522,7 +3519,7 @@
         <v>707</v>
       </c>
       <c r="B31" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C31" t="s">
         <v>753</v>
@@ -3539,7 +3536,7 @@
         <v>708</v>
       </c>
       <c r="B32" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C32" t="s">
         <v>741</v>
@@ -3556,7 +3553,7 @@
         <v>709</v>
       </c>
       <c r="B33" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C33" t="s">
         <v>753</v>
@@ -3573,7 +3570,7 @@
         <v>710</v>
       </c>
       <c r="B34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C34" t="s">
         <v>756</v>
@@ -3590,7 +3587,7 @@
         <v>711</v>
       </c>
       <c r="B35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C35" t="s">
         <v>741</v>
@@ -3607,10 +3604,10 @@
         <v>712</v>
       </c>
       <c r="B36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3624,7 +3621,7 @@
         <v>596</v>
       </c>
       <c r="B37" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C37" t="s">
         <v>746</v>
@@ -3641,7 +3638,7 @@
         <v>713</v>
       </c>
       <c r="B38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C38" t="s">
         <v>749</v>
@@ -3658,10 +3655,10 @@
         <v>714</v>
       </c>
       <c r="B39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3675,7 +3672,7 @@
         <v>715</v>
       </c>
       <c r="B40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C40" t="s">
         <v>741</v>
@@ -3692,7 +3689,7 @@
         <v>716</v>
       </c>
       <c r="B41" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C41" t="s">
         <v>752</v>
@@ -3709,7 +3706,7 @@
         <v>717</v>
       </c>
       <c r="B42" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C42" t="s">
         <v>753</v>
@@ -3726,10 +3723,10 @@
         <v>718</v>
       </c>
       <c r="B43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C43" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3743,7 +3740,7 @@
         <v>719</v>
       </c>
       <c r="B44" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C44" t="s">
         <v>761</v>
@@ -3760,7 +3757,7 @@
         <v>720</v>
       </c>
       <c r="B45" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C45" t="s">
         <v>757</v>
@@ -3777,7 +3774,7 @@
         <v>721</v>
       </c>
       <c r="B46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C46" t="s">
         <v>739</v>
@@ -3794,7 +3791,7 @@
         <v>722</v>
       </c>
       <c r="B47" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C47" t="s">
         <v>745</v>
@@ -3811,7 +3808,7 @@
         <v>597</v>
       </c>
       <c r="B48" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C48" t="s">
         <v>741</v>
@@ -3828,7 +3825,7 @@
         <v>723</v>
       </c>
       <c r="B49" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C49" t="s">
         <v>743</v>
@@ -3845,7 +3842,7 @@
         <v>724</v>
       </c>
       <c r="B50" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C50" t="s">
         <v>762</v>
@@ -3862,7 +3859,7 @@
         <v>725</v>
       </c>
       <c r="B51" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C51" t="s">
         <v>749</v>
@@ -3879,7 +3876,7 @@
         <v>726</v>
       </c>
       <c r="B52" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C52" t="s">
         <v>761</v>
@@ -3896,7 +3893,7 @@
         <v>727</v>
       </c>
       <c r="B53" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C53" t="s">
         <v>739</v>
@@ -3913,10 +3910,10 @@
         <v>728</v>
       </c>
       <c r="B54" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3930,7 +3927,7 @@
         <v>729</v>
       </c>
       <c r="B55" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C55" t="s">
         <v>739</v>
@@ -3947,7 +3944,7 @@
         <v>730</v>
       </c>
       <c r="B56" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C56" t="s">
         <v>739</v>
@@ -3964,7 +3961,7 @@
         <v>731</v>
       </c>
       <c r="B57" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C57" t="s">
         <v>745</v>
@@ -3981,10 +3978,10 @@
         <v>732</v>
       </c>
       <c r="B58" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3998,10 +3995,10 @@
         <v>598</v>
       </c>
       <c r="B59" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C59" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4015,7 +4012,7 @@
         <v>736</v>
       </c>
       <c r="B60" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C60" t="s">
         <v>741</v>
@@ -4032,7 +4029,7 @@
         <v>733</v>
       </c>
       <c r="B61" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C61" t="s">
         <v>739</v>
@@ -4049,7 +4046,7 @@
         <v>737</v>
       </c>
       <c r="B62" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C62" t="s">
         <v>743</v>
@@ -4066,10 +4063,10 @@
         <v>738</v>
       </c>
       <c r="B63" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C63" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4080,13 +4077,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B64" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C64" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4097,10 +4094,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B65" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C65" t="s">
         <v>759</v>
@@ -4114,10 +4111,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B66" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C66" t="s">
         <v>741</v>
@@ -4131,10 +4128,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B67" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C67" t="s">
         <v>741</v>
@@ -4148,10 +4145,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B68" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C68" t="s">
         <v>741</v>
@@ -4165,10 +4162,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B69" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C69" t="s">
         <v>762</v>
@@ -4185,7 +4182,7 @@
         <v>599</v>
       </c>
       <c r="B70" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C70" t="s">
         <v>741</v>
@@ -4199,10 +4196,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B71" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C71" t="s">
         <v>761</v>
@@ -4216,10 +4213,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B72" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C72" t="s">
         <v>742</v>
@@ -4233,10 +4230,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B73" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C73" t="s">
         <v>760</v>
@@ -4250,13 +4247,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B74" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C74" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4267,10 +4264,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B75" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C75" t="s">
         <v>758</v>
@@ -4284,13 +4281,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B76" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C76" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4301,10 +4298,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B77" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C77" t="s">
         <v>750</v>
@@ -4318,10 +4315,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B78" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C78" t="s">
         <v>762</v>
@@ -4338,10 +4335,10 @@
         <v>600</v>
       </c>
       <c r="B79" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C79" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4355,7 +4352,7 @@
         <v>601</v>
       </c>
       <c r="B80" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C80" t="s">
         <v>749</v>
@@ -4372,10 +4369,10 @@
         <v>602</v>
       </c>
       <c r="B81" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C81" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4389,7 +4386,7 @@
         <v>586</v>
       </c>
       <c r="B82" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C82" t="s">
         <v>743</v>
@@ -4406,7 +4403,7 @@
         <v>603</v>
       </c>
       <c r="B83" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C83" t="s">
         <v>741</v>
@@ -4423,7 +4420,7 @@
         <v>604</v>
       </c>
       <c r="B84" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C84" t="s">
         <v>754</v>
@@ -4440,7 +4437,7 @@
         <v>605</v>
       </c>
       <c r="B85" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C85" t="s">
         <v>756</v>
@@ -4457,10 +4454,10 @@
         <v>606</v>
       </c>
       <c r="B86" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C86" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4474,7 +4471,7 @@
         <v>607</v>
       </c>
       <c r="B87" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C87" t="s">
         <v>741</v>
@@ -4491,7 +4488,7 @@
         <v>608</v>
       </c>
       <c r="B88" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C88" t="s">
         <v>741</v>
@@ -4508,10 +4505,10 @@
         <v>609</v>
       </c>
       <c r="B89" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C89" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -4525,7 +4522,7 @@
         <v>610</v>
       </c>
       <c r="B90" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C90" t="s">
         <v>741</v>
@@ -4542,10 +4539,10 @@
         <v>611</v>
       </c>
       <c r="B91" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C91" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -4559,7 +4556,7 @@
         <v>612</v>
       </c>
       <c r="B92" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C92" t="s">
         <v>748</v>
@@ -4576,7 +4573,7 @@
         <v>587</v>
       </c>
       <c r="B93" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C93" t="s">
         <v>747</v>
@@ -4593,7 +4590,7 @@
         <v>613</v>
       </c>
       <c r="B94" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C94" t="s">
         <v>751</v>
@@ -4610,7 +4607,7 @@
         <v>614</v>
       </c>
       <c r="B95" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C95" t="s">
         <v>741</v>
@@ -4627,7 +4624,7 @@
         <v>615</v>
       </c>
       <c r="B96" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C96" t="s">
         <v>744</v>
@@ -4644,7 +4641,7 @@
         <v>616</v>
       </c>
       <c r="B97" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C97" t="s">
         <v>749</v>
@@ -4661,7 +4658,7 @@
         <v>617</v>
       </c>
       <c r="B98" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C98" t="s">
         <v>740</v>
@@ -4678,7 +4675,7 @@
         <v>618</v>
       </c>
       <c r="B99" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C99" t="s">
         <v>745</v>
@@ -4695,7 +4692,7 @@
         <v>619</v>
       </c>
       <c r="B100" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C100" t="s">
         <v>747</v>
@@ -4712,7 +4709,7 @@
         <v>620</v>
       </c>
       <c r="B101" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C101" t="s">
         <v>748</v>
@@ -4729,7 +4726,7 @@
         <v>621</v>
       </c>
       <c r="B102" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C102" t="s">
         <v>751</v>
@@ -4746,7 +4743,7 @@
         <v>622</v>
       </c>
       <c r="B103" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C103" t="s">
         <v>752</v>
@@ -4763,7 +4760,7 @@
         <v>588</v>
       </c>
       <c r="B104" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C104" t="s">
         <v>756</v>
@@ -4780,7 +4777,7 @@
         <v>623</v>
       </c>
       <c r="B105" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C105" t="s">
         <v>753</v>
@@ -4797,7 +4794,7 @@
         <v>624</v>
       </c>
       <c r="B106" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C106" t="s">
         <v>754</v>
@@ -4814,7 +4811,7 @@
         <v>625</v>
       </c>
       <c r="B107" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C107" t="s">
         <v>755</v>
@@ -4831,7 +4828,7 @@
         <v>626</v>
       </c>
       <c r="B108" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C108" t="s">
         <v>756</v>
@@ -4848,10 +4845,10 @@
         <v>627</v>
       </c>
       <c r="B109" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C109" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4865,10 +4862,10 @@
         <v>628</v>
       </c>
       <c r="B110" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C110" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -4882,10 +4879,10 @@
         <v>629</v>
       </c>
       <c r="B111" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C111" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4899,7 +4896,7 @@
         <v>630</v>
       </c>
       <c r="B112" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C112" t="s">
         <v>746</v>
@@ -4916,7 +4913,7 @@
         <v>631</v>
       </c>
       <c r="B113" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C113" t="s">
         <v>741</v>
@@ -4933,10 +4930,10 @@
         <v>632</v>
       </c>
       <c r="B114" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C114" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4950,10 +4947,10 @@
         <v>589</v>
       </c>
       <c r="B115" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C115" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4967,7 +4964,7 @@
         <v>633</v>
       </c>
       <c r="B116" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C116" t="s">
         <v>752</v>
@@ -4984,7 +4981,7 @@
         <v>634</v>
       </c>
       <c r="B117" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C117" t="s">
         <v>741</v>
@@ -5001,7 +4998,7 @@
         <v>635</v>
       </c>
       <c r="B118" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C118" t="s">
         <v>741</v>
@@ -5018,10 +5015,10 @@
         <v>636</v>
       </c>
       <c r="B119" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C119" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5035,7 +5032,7 @@
         <v>637</v>
       </c>
       <c r="B120" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C120" t="s">
         <v>740</v>
@@ -5052,7 +5049,7 @@
         <v>638</v>
       </c>
       <c r="B121" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C121" t="s">
         <v>752</v>
@@ -5069,7 +5066,7 @@
         <v>639</v>
       </c>
       <c r="B122" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C122" t="s">
         <v>741</v>
@@ -5086,7 +5083,7 @@
         <v>640</v>
       </c>
       <c r="B123" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C123" t="s">
         <v>739</v>
@@ -5103,10 +5100,10 @@
         <v>641</v>
       </c>
       <c r="B124" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C124" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -5120,7 +5117,7 @@
         <v>642</v>
       </c>
       <c r="B125" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C125" t="s">
         <v>741</v>
@@ -5137,7 +5134,7 @@
         <v>675</v>
       </c>
       <c r="B126" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C126" t="s">
         <v>741</v>
@@ -5154,7 +5151,7 @@
         <v>643</v>
       </c>
       <c r="B127" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C127" t="s">
         <v>750</v>
@@ -5171,7 +5168,7 @@
         <v>644</v>
       </c>
       <c r="B128" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C128" t="s">
         <v>741</v>
@@ -5188,7 +5185,7 @@
         <v>645</v>
       </c>
       <c r="B129" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C129" t="s">
         <v>753</v>
@@ -5205,7 +5202,7 @@
         <v>646</v>
       </c>
       <c r="B130" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C130" t="s">
         <v>741</v>
@@ -5222,7 +5219,7 @@
         <v>647</v>
       </c>
       <c r="B131" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C131" t="s">
         <v>741</v>
@@ -5239,10 +5236,10 @@
         <v>676</v>
       </c>
       <c r="B132" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C132" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5256,7 +5253,7 @@
         <v>677</v>
       </c>
       <c r="B133" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C133" t="s">
         <v>754</v>
@@ -5273,7 +5270,7 @@
         <v>678</v>
       </c>
       <c r="B134" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C134" t="s">
         <v>741</v>
@@ -5290,7 +5287,7 @@
         <v>679</v>
       </c>
       <c r="B135" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C135" t="s">
         <v>741</v>
@@ -5307,7 +5304,7 @@
         <v>648</v>
       </c>
       <c r="B136" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C136" t="s">
         <v>745</v>
@@ -5324,7 +5321,7 @@
         <v>590</v>
       </c>
       <c r="B137" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C137" t="s">
         <v>741</v>
@@ -5341,7 +5338,7 @@
         <v>649</v>
       </c>
       <c r="B138" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C138" t="s">
         <v>753</v>
@@ -5358,7 +5355,7 @@
         <v>650</v>
       </c>
       <c r="B139" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C139" t="s">
         <v>741</v>
@@ -5375,7 +5372,7 @@
         <v>651</v>
       </c>
       <c r="B140" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C140" t="s">
         <v>739</v>
@@ -5392,7 +5389,7 @@
         <v>652</v>
       </c>
       <c r="B141" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C141" t="s">
         <v>743</v>
@@ -5409,7 +5406,7 @@
         <v>653</v>
       </c>
       <c r="B142" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C142" t="s">
         <v>752</v>
@@ -5426,7 +5423,7 @@
         <v>654</v>
       </c>
       <c r="B143" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C143" t="s">
         <v>754</v>
@@ -5443,7 +5440,7 @@
         <v>655</v>
       </c>
       <c r="B144" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C144" t="s">
         <v>756</v>
@@ -5460,10 +5457,10 @@
         <v>656</v>
       </c>
       <c r="B145" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C145" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -5477,7 +5474,7 @@
         <v>657</v>
       </c>
       <c r="B146" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C146" t="s">
         <v>741</v>
@@ -5494,7 +5491,7 @@
         <v>658</v>
       </c>
       <c r="B147" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C147" t="s">
         <v>741</v>
@@ -5511,10 +5508,10 @@
         <v>591</v>
       </c>
       <c r="B148" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C148" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -5528,7 +5525,7 @@
         <v>659</v>
       </c>
       <c r="B149" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C149" t="s">
         <v>744</v>
@@ -5545,7 +5542,7 @@
         <v>660</v>
       </c>
       <c r="B150" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C150" t="s">
         <v>747</v>
@@ -5562,7 +5559,7 @@
         <v>661</v>
       </c>
       <c r="B151" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C151" t="s">
         <v>741</v>
@@ -5579,7 +5576,7 @@
         <v>662</v>
       </c>
       <c r="B152" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C152" t="s">
         <v>741</v>
@@ -5596,7 +5593,7 @@
         <v>663</v>
       </c>
       <c r="B153" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C153" t="s">
         <v>739</v>
@@ -5613,7 +5610,7 @@
         <v>664</v>
       </c>
       <c r="B154" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C154" t="s">
         <v>749</v>
@@ -5630,7 +5627,7 @@
         <v>665</v>
       </c>
       <c r="B155" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C155" t="s">
         <v>740</v>
@@ -5647,10 +5644,10 @@
         <v>666</v>
       </c>
       <c r="B156" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C156" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -5664,7 +5661,7 @@
         <v>667</v>
       </c>
       <c r="B157" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C157" t="s">
         <v>741</v>
@@ -5681,7 +5678,7 @@
         <v>668</v>
       </c>
       <c r="B158" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C158" t="s">
         <v>741</v>
@@ -5698,7 +5695,7 @@
         <v>592</v>
       </c>
       <c r="B159" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C159" t="s">
         <v>751</v>
@@ -5715,7 +5712,7 @@
         <v>669</v>
       </c>
       <c r="B160" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C160" t="s">
         <v>761</v>
@@ -5732,7 +5729,7 @@
         <v>670</v>
       </c>
       <c r="B161" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C161" t="s">
         <v>740</v>
@@ -5749,7 +5746,7 @@
         <v>671</v>
       </c>
       <c r="B162" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C162" t="s">
         <v>747</v>
@@ -5766,7 +5763,7 @@
         <v>672</v>
       </c>
       <c r="B163" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C163" t="s">
         <v>746</v>
@@ -5783,7 +5780,7 @@
         <v>673</v>
       </c>
       <c r="B164" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C164" t="s">
         <v>741</v>
@@ -5800,7 +5797,7 @@
         <v>680</v>
       </c>
       <c r="B165" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C165" t="s">
         <v>751</v>
@@ -5817,10 +5814,10 @@
         <v>681</v>
       </c>
       <c r="B166" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C166" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5834,7 +5831,7 @@
         <v>682</v>
       </c>
       <c r="B167" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C167" t="s">
         <v>750</v>
@@ -5851,7 +5848,7 @@
         <v>683</v>
       </c>
       <c r="B168" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C168" t="s">
         <v>741</v>
@@ -5868,7 +5865,7 @@
         <v>684</v>
       </c>
       <c r="B169" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C169" t="s">
         <v>741</v>
@@ -5893,7 +5890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A3C627-8A9E-944B-AED2-95118E822B80}">
   <dimension ref="A1:ES71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
@@ -6796,7 +6793,7 @@
     </row>
     <row r="3" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B3">
         <v>-0.22095000000000001</v>
@@ -7245,7 +7242,7 @@
     </row>
     <row r="4" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B4">
         <v>-0.22572999999999999</v>
@@ -7694,7 +7691,7 @@
     </row>
     <row r="5" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B5">
         <v>-0.23960999999999999</v>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="6" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B6">
         <v>-0.26189000000000001</v>
@@ -8592,7 +8589,7 @@
     </row>
     <row r="7" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B7">
         <v>-0.26722000000000001</v>
@@ -9041,7 +9038,7 @@
     </row>
     <row r="8" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B8">
         <v>-0.22583</v>
@@ -9490,7 +9487,7 @@
     </row>
     <row r="9" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B9">
         <v>-0.21043000000000001</v>
@@ -9939,7 +9936,7 @@
     </row>
     <row r="10" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B10">
         <v>-0.2440895504743196</v>
@@ -10388,7 +10385,7 @@
     </row>
     <row r="11" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B11">
         <v>-0.26550000000000012</v>
@@ -10837,7 +10834,7 @@
     </row>
     <row r="12" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B12">
         <v>-0.21903</v>
@@ -11286,7 +11283,7 @@
     </row>
     <row r="13" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B13">
         <v>-0.25581999999999999</v>
@@ -11735,7 +11732,7 @@
     </row>
     <row r="14" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B14">
         <v>-0.25018000000000001</v>
@@ -12184,7 +12181,7 @@
     </row>
     <row r="15" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B15">
         <v>-0.23211999999999999</v>
@@ -12633,7 +12630,7 @@
     </row>
     <row r="16" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B16">
         <v>-0.24740000000000001</v>
@@ -13082,7 +13079,7 @@
     </row>
     <row r="17" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B17">
         <v>-0.21074999999999999</v>
@@ -13531,7 +13528,7 @@
     </row>
     <row r="18" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B18">
         <v>-0.22625000000000001</v>
@@ -13980,7 +13977,7 @@
     </row>
     <row r="19" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B19">
         <v>-0.27783000000000002</v>
@@ -14429,7 +14426,7 @@
     </row>
     <row r="20" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B20">
         <v>-0.222</v>
@@ -14878,7 +14875,7 @@
     </row>
     <row r="21" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B21">
         <v>-0.24646999999999999</v>
@@ -15327,7 +15324,7 @@
     </row>
     <row r="22" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B22">
         <v>-0.23079</v>
@@ -15776,7 +15773,7 @@
     </row>
     <row r="23" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B23">
         <v>-0.24198</v>
@@ -16225,7 +16222,7 @@
     </row>
     <row r="24" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B24">
         <v>-0.25333</v>
@@ -16674,7 +16671,7 @@
     </row>
     <row r="25" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B25">
         <v>-0.24514</v>
@@ -17123,7 +17120,7 @@
     </row>
     <row r="26" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B26">
         <v>-0.22036</v>
@@ -17572,7 +17569,7 @@
     </row>
     <row r="27" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B27">
         <v>-0.24854345176074541</v>
@@ -18021,7 +18018,7 @@
     </row>
     <row r="28" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B28">
         <v>-0.23966999999999999</v>
@@ -18452,7 +18449,7 @@
     </row>
     <row r="29" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B29">
         <v>-0.25226999999999999</v>
@@ -18901,7 +18898,7 @@
     </row>
     <row r="30" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B30">
         <v>-0.25474999999999998</v>
@@ -19350,7 +19347,7 @@
     </row>
     <row r="31" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B31">
         <v>-0.23735999999999999</v>
@@ -19799,7 +19796,7 @@
     </row>
     <row r="32" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B32">
         <v>-0.24567</v>
@@ -20248,7 +20245,7 @@
     </row>
     <row r="33" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B33">
         <v>-0.26566654546387042</v>
@@ -20697,7 +20694,7 @@
     </row>
     <row r="34" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B34">
         <v>-0.27231109139056048</v>
@@ -21146,7 +21143,7 @@
     </row>
     <row r="35" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B35">
         <v>-0.22459999999999999</v>
@@ -21595,7 +21592,7 @@
     </row>
     <row r="36" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B36">
         <v>-0.26107999999999998</v>
@@ -22044,7 +22041,7 @@
     </row>
     <row r="37" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B37">
         <v>-0.21982255849221891</v>
@@ -22493,7 +22490,7 @@
     </row>
     <row r="38" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B38">
         <v>-0.2280659532323463</v>
@@ -22942,7 +22939,7 @@
     </row>
     <row r="39" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B39">
         <v>-0.2346157473958958</v>
@@ -23391,7 +23388,7 @@
     </row>
     <row r="40" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B40">
         <v>-0.22158</v>
@@ -23840,7 +23837,7 @@
     </row>
     <row r="41" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B41">
         <v>-0.21194200137845839</v>
@@ -24289,7 +24286,7 @@
     </row>
     <row r="42" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B42">
         <v>-0.22034000000000001</v>
@@ -24738,7 +24735,7 @@
     </row>
     <row r="43" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B43">
         <v>-0.21803</v>
@@ -25187,7 +25184,7 @@
     </row>
     <row r="44" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B44">
         <v>-0.25980999999999999</v>
@@ -25636,7 +25633,7 @@
     </row>
     <row r="45" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B45">
         <v>-0.26238</v>
@@ -26085,7 +26082,7 @@
     </row>
     <row r="46" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B46">
         <v>-0.22333</v>
@@ -26534,7 +26531,7 @@
     </row>
     <row r="47" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B47">
         <v>-0.26473999999999998</v>
@@ -26983,7 +26980,7 @@
     </row>
     <row r="48" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B48">
         <v>-0.27299000000000001</v>
@@ -27432,7 +27429,7 @@
     </row>
     <row r="49" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B49">
         <v>-0.22098000000000001</v>
@@ -27881,7 +27878,7 @@
     </row>
     <row r="50" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B50">
         <v>-0.21759000000000001</v>
@@ -28330,7 +28327,7 @@
     </row>
     <row r="51" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B51">
         <v>-0.21859000000000001</v>
@@ -28779,7 +28776,7 @@
     </row>
     <row r="52" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B52">
         <v>-0.21823000000000001</v>
@@ -29228,7 +29225,7 @@
     </row>
     <row r="53" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B53">
         <v>-0.2225</v>
@@ -29677,7 +29674,7 @@
     </row>
     <row r="54" spans="1:149" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B54">
         <v>-0.21587999999999999</v>
@@ -30126,7 +30123,7 @@
     </row>
     <row r="55" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B55">
         <v>-0.24029</v>
@@ -30575,7 +30572,7 @@
     </row>
     <row r="56" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B56">
         <v>-0.23943</v>
@@ -31024,7 +31021,7 @@
     </row>
     <row r="57" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B57">
         <v>-0.25345000000000001</v>
@@ -31473,7 +31470,7 @@
     </row>
     <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B58">
         <v>-0.22661000000000001</v>
@@ -31922,7 +31919,7 @@
     </row>
     <row r="59" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B59">
         <v>-0.2427</v>
@@ -32371,7 +32368,7 @@
     </row>
     <row r="60" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B60">
         <v>-0.23798</v>
@@ -32820,7 +32817,7 @@
     </row>
     <row r="61" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B61">
         <v>-0.20734</v>
@@ -33269,7 +33266,7 @@
     </row>
     <row r="62" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B62">
         <v>-0.24499000000000001</v>
@@ -33718,7 +33715,7 @@
     </row>
     <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B63">
         <v>-0.22139</v>
@@ -34167,7 +34164,7 @@
     </row>
     <row r="64" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B64">
         <v>-0.27485999999999999</v>
@@ -34616,7 +34613,7 @@
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B65">
         <v>-0.25838</v>
@@ -35065,7 +35062,7 @@
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B66">
         <v>-0.22824</v>
@@ -35514,7 +35511,7 @@
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B67">
         <v>-0.27754643160753362</v>
@@ -35963,7 +35960,7 @@
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B68">
         <v>-0.27748</v>
@@ -36412,7 +36409,7 @@
     </row>
     <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B69">
         <v>-0.26566000000000001</v>
@@ -36861,7 +36858,7 @@
     </row>
     <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B70">
         <v>-0.27953</v>
@@ -37310,7 +37307,7 @@
     </row>
     <row r="71" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B71">
         <v>-0.23516999999999999</v>
@@ -37767,10 +37764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087AECFC-644B-B147-B11F-D3063696B8CB}">
-  <dimension ref="A1:FQ34"/>
+  <dimension ref="A1:FQ33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45068,7 +45065,7 @@
     </row>
     <row r="15" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B15">
         <v>-0.2434775594846878</v>
@@ -46110,7 +46107,7 @@
     </row>
     <row r="17" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B17">
         <v>-0.24298</v>
@@ -49236,7 +49233,7 @@
     </row>
     <row r="23" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B23">
         <v>-0.2255539542685992</v>
@@ -49760,520 +49757,520 @@
         <v>763</v>
       </c>
       <c r="B24">
-        <v>-0.23951</v>
+        <v>-0.23744875950071581</v>
       </c>
       <c r="C24">
-        <v>-0.23951</v>
+        <v>-0.23863999999999999</v>
       </c>
       <c r="D24">
-        <v>-0.23951</v>
+        <v>-0.23305999999999999</v>
       </c>
       <c r="E24">
-        <v>-0.23951</v>
+        <v>-0.23798</v>
       </c>
       <c r="F24">
-        <v>1.435E-2</v>
+        <v>1.5868956925979269E-2</v>
       </c>
       <c r="G24">
-        <v>1.435E-2</v>
+        <v>1.321E-2</v>
       </c>
       <c r="H24">
-        <v>1.435E-2</v>
+        <v>2.197E-2</v>
       </c>
       <c r="I24">
-        <v>1.435E-2</v>
+        <v>1.508E-2</v>
       </c>
       <c r="J24">
-        <v>0.25385999999999997</v>
+        <v>0.25331771642669498</v>
       </c>
       <c r="K24">
-        <v>0.25385999999999997</v>
+        <v>0.24809999999999999</v>
       </c>
       <c r="L24">
-        <v>0.25385999999999997</v>
+        <v>0.26024000000000003</v>
       </c>
       <c r="M24">
-        <v>0.25385999999999997</v>
+        <v>0.25306000000000001</v>
       </c>
       <c r="N24">
-        <v>-0.11258</v>
+        <v>-0.11078990128736819</v>
       </c>
       <c r="O24">
-        <v>-0.11258</v>
+        <v>-0.112175</v>
       </c>
       <c r="P24">
-        <v>-0.11258</v>
+        <v>-0.107625</v>
       </c>
       <c r="Q24">
-        <v>-0.11258</v>
+        <v>-0.11144999999999999</v>
       </c>
       <c r="R24">
-        <v>2.496E-2</v>
+        <v>2.423044947950791E-2</v>
       </c>
       <c r="S24">
-        <v>2.496E-2</v>
+        <v>2.247E-2</v>
       </c>
       <c r="T24">
-        <v>2.496E-2</v>
+        <v>2.5049999999999999E-2</v>
       </c>
       <c r="U24">
-        <v>2.496E-2</v>
+        <v>2.4539999999999999E-2</v>
       </c>
       <c r="V24">
-        <v>15.2264</v>
+        <v>21.158297552004061</v>
       </c>
       <c r="W24">
-        <v>15.2264</v>
+        <v>11.1021</v>
       </c>
       <c r="X24">
-        <v>15.2264</v>
+        <v>29.235199999999999</v>
       </c>
       <c r="Y24">
-        <v>15.2264</v>
+        <v>25.9604</v>
       </c>
       <c r="Z24">
-        <v>40.6004</v>
+        <v>128.6392644061294</v>
       </c>
       <c r="AA24">
-        <v>40.6004</v>
+        <v>127.967</v>
       </c>
       <c r="AB24">
-        <v>40.6004</v>
+        <v>130.03899999999999</v>
       </c>
       <c r="AC24">
-        <v>40.6004</v>
+        <v>129.06100000000001</v>
       </c>
       <c r="AD24">
-        <v>2.0430000000000001</v>
+        <v>2.2690821302758182</v>
       </c>
       <c r="AE24">
-        <v>2.0430000000000001</v>
+        <v>2.1278000000000001</v>
       </c>
       <c r="AF24">
-        <v>2.0430000000000001</v>
+        <v>2.4460000000000002</v>
       </c>
       <c r="AG24">
-        <v>2.0430000000000001</v>
+        <v>2.3007</v>
       </c>
       <c r="AH24">
-        <v>465.5831003686755</v>
+        <v>1292.1968687523549</v>
       </c>
       <c r="AI24">
-        <v>450.06400000000002</v>
+        <v>969.72900000000004</v>
       </c>
       <c r="AJ24">
-        <v>481.10300000000001</v>
+        <v>1641.981</v>
       </c>
       <c r="AK24">
-        <v>450.06400000000002</v>
+        <v>1113.433</v>
       </c>
       <c r="AL24">
-        <v>0.96457632114413139</v>
+        <v>0.88878658258033594</v>
       </c>
       <c r="AM24">
-        <v>0.96452633049620407</v>
+        <v>0.87616123712623251</v>
       </c>
       <c r="AN24">
-        <v>0.96462630921757953</v>
+        <v>0.92250897011131672</v>
       </c>
       <c r="AO24">
-        <v>0.96462630921757953</v>
+        <v>0.87754450232332049</v>
       </c>
       <c r="AP24">
-        <v>176.98005145398659</v>
+        <v>323.68583346814131</v>
       </c>
       <c r="AQ24">
-        <v>176.9400516654882</v>
+        <v>302.56016546897899</v>
       </c>
       <c r="AR24">
-        <v>177.0200533025488</v>
+        <v>332.22994708681023</v>
       </c>
       <c r="AS24">
-        <v>176.9400516654882</v>
+        <v>331.72995320324242</v>
       </c>
       <c r="AT24">
-        <v>209.7322330229465</v>
+        <v>459.34811997660529</v>
       </c>
       <c r="AU24">
-        <v>209.67743341569749</v>
+        <v>438.44142415894157</v>
       </c>
       <c r="AV24">
-        <v>209.7870354524776</v>
+        <v>467.04052852418459</v>
       </c>
       <c r="AW24">
-        <v>209.67743341569749</v>
+        <v>467.04052852418459</v>
       </c>
       <c r="AX24">
-        <v>-0.71916999999999986</v>
+        <v>-0.48575248968159729</v>
       </c>
       <c r="AY24">
-        <v>-0.71916999999999998</v>
+        <v>-0.49782999999999999</v>
       </c>
       <c r="AZ24">
-        <v>-0.71916999999999998</v>
+        <v>-0.47438999999999998</v>
       </c>
       <c r="BA24">
-        <v>-0.71916999999999998</v>
+        <v>-0.48420000000000002</v>
       </c>
       <c r="BB24">
-        <v>-9.3259999999999996E-2</v>
+        <v>-0.1043648576325252</v>
       </c>
       <c r="BC24">
-        <v>-9.3259999999999996E-2</v>
+        <v>-0.11965000000000001</v>
       </c>
       <c r="BD24">
-        <v>-9.3259999999999996E-2</v>
+        <v>-9.7250000000000003E-2</v>
       </c>
       <c r="BE24">
-        <v>-9.3259999999999996E-2</v>
+        <v>-9.8610000000000003E-2</v>
       </c>
       <c r="BF24">
-        <v>169.4929499987125</v>
+        <v>148.35221899740631</v>
       </c>
       <c r="BG24">
-        <v>169.49289999999999</v>
+        <v>144.1643</v>
       </c>
       <c r="BH24">
-        <v>169.49299999999999</v>
+        <v>152.25640000000001</v>
       </c>
       <c r="BI24">
-        <v>169.49289999999999</v>
+        <v>147.73050000000001</v>
       </c>
       <c r="BJ24">
-        <v>1.82873</v>
+        <v>1.836861323220522</v>
       </c>
       <c r="BK24">
-        <v>1.82873</v>
+        <v>1.83396</v>
       </c>
       <c r="BL24">
-        <v>1.82873</v>
+        <v>1.8469800000000001</v>
       </c>
       <c r="BM24">
-        <v>1.82873</v>
+        <v>1.83525</v>
       </c>
       <c r="BN24">
-        <v>1.352904999871249</v>
+        <v>1.3521707459159309</v>
       </c>
       <c r="BO24">
-        <v>1.3529</v>
+        <v>1.3498300000000001</v>
       </c>
       <c r="BP24">
-        <v>1.3529100000000001</v>
+        <v>1.3542099999999999</v>
       </c>
       <c r="BQ24">
-        <v>1.3529</v>
+        <v>1.35362</v>
       </c>
       <c r="BR24">
-        <v>96.817999999999984</v>
+        <v>96.58797621808543</v>
       </c>
       <c r="BS24">
-        <v>96.817999999999998</v>
+        <v>96.144000000000005</v>
       </c>
       <c r="BT24">
-        <v>96.817999999999998</v>
+        <v>97.956999999999994</v>
       </c>
       <c r="BU24">
-        <v>96.817999999999998</v>
+        <v>96.466999999999999</v>
       </c>
       <c r="BV24">
-        <v>53.417161299469853</v>
+        <v>53.906007760377591</v>
       </c>
       <c r="BW24">
-        <v>53.402634297520663</v>
+        <v>53.483341942148769</v>
       </c>
       <c r="BX24">
-        <v>53.431689049586772</v>
+        <v>57.547778925619831</v>
       </c>
       <c r="BY24">
-        <v>53.402634297520663</v>
+        <v>53.525309917355372</v>
       </c>
       <c r="BZ24">
-        <v>43.228285729351377</v>
+        <v>45.727352095398842</v>
       </c>
       <c r="CA24">
-        <v>43.19735642661805</v>
+        <v>44.734014845683028</v>
       </c>
       <c r="CB24">
-        <v>43.259213439249898</v>
+        <v>52.068954290923287</v>
       </c>
       <c r="CC24">
-        <v>43.259213439249898</v>
+        <v>44.753548639145727</v>
       </c>
       <c r="CD24">
-        <v>33.096040877232277</v>
+        <v>37.583774472234637</v>
       </c>
       <c r="CE24">
-        <v>33.088125744934437</v>
+        <v>36.061345351609063</v>
       </c>
       <c r="CF24">
-        <v>33.103955601907032</v>
+        <v>45.529462157330151</v>
       </c>
       <c r="CG24">
-        <v>33.103955601907032</v>
+        <v>36.063207687723477</v>
       </c>
       <c r="CH24">
-        <v>25.387276309750579</v>
+        <v>31.442145526701641</v>
       </c>
       <c r="CI24">
-        <v>25.384946887812148</v>
+        <v>29.514535967200899</v>
       </c>
       <c r="CJ24">
-        <v>25.38960585165859</v>
+        <v>40.334397130078273</v>
       </c>
       <c r="CK24">
-        <v>25.384946887812148</v>
+        <v>29.514535967200899</v>
       </c>
       <c r="CL24">
-        <v>18.06161163679905</v>
+        <v>25.703481897391491</v>
       </c>
       <c r="CM24">
-        <v>18.06141766494941</v>
+        <v>23.51266215629073</v>
       </c>
       <c r="CN24">
-        <v>18.061805598659301</v>
+        <v>34.807352119669787</v>
       </c>
       <c r="CO24">
-        <v>18.061805598659301</v>
+        <v>23.51266215629073</v>
       </c>
       <c r="CP24">
-        <v>1.8</v>
+        <v>1.838803533231667</v>
       </c>
       <c r="CQ24">
         <v>1.8</v>
       </c>
       <c r="CR24">
-        <v>1.8</v>
+        <v>2.075483162666838</v>
       </c>
       <c r="CS24">
         <v>1.8</v>
       </c>
       <c r="CT24">
-        <v>1.1000000000000001</v>
+        <v>1.0993428024647429</v>
       </c>
       <c r="CU24">
         <v>1.1000000000000001</v>
       </c>
       <c r="CV24">
-        <v>1.1000000000000001</v>
+        <v>1.301186922555448</v>
       </c>
       <c r="CW24">
         <v>1.1000000000000001</v>
       </c>
       <c r="CX24">
-        <v>2.4433384345745179</v>
+        <v>6.410378546478003</v>
       </c>
       <c r="CY24">
-        <v>2.443336495046001</v>
+        <v>3.538300500413063</v>
       </c>
       <c r="CZ24">
-        <v>2.443340374202926</v>
+        <v>8.3695175525174825</v>
       </c>
       <c r="DA24">
-        <v>2.443336495046001</v>
+        <v>5.8894281299022389</v>
       </c>
       <c r="DB24">
-        <v>3.5490537735854151</v>
+        <v>8.0013162328181195</v>
       </c>
       <c r="DC24">
-        <v>3.5490511643373739</v>
+        <v>4.3984368999849819</v>
       </c>
       <c r="DD24">
-        <v>3.549056382699082</v>
+        <v>9.9469154937840383</v>
       </c>
       <c r="DE24">
-        <v>3.549056382699082</v>
+        <v>9.9469154937840383</v>
       </c>
       <c r="DF24">
-        <v>4.0287290499259854</v>
+        <v>4.0373069916079238</v>
       </c>
       <c r="DG24">
-        <v>4.0287286501609483</v>
+        <v>4.0339575106250134</v>
       </c>
       <c r="DH24">
-        <v>4.0287294496704362</v>
+        <v>5.0757748874212929</v>
       </c>
       <c r="DI24">
-        <v>4.0287294496704362</v>
+        <v>4.0352488360010597</v>
       </c>
       <c r="DJ24">
-        <v>2.8529059647858461</v>
+        <v>4.0085977366073582</v>
       </c>
       <c r="DK24">
-        <v>2.852904023377727</v>
+        <v>2.8523542218279738</v>
       </c>
       <c r="DL24">
-        <v>2.852907906293952</v>
+        <v>7.5997418964701877</v>
       </c>
       <c r="DM24">
-        <v>2.852904023377727</v>
+        <v>3.5195348512312932</v>
       </c>
       <c r="DN24">
-        <v>1.8</v>
+        <v>1.83877092037392</v>
       </c>
       <c r="DO24">
         <v>1.8</v>
       </c>
       <c r="DP24">
-        <v>1.8</v>
+        <v>2.075483162666838</v>
       </c>
       <c r="DQ24">
         <v>1.8</v>
       </c>
       <c r="DR24">
-        <v>1.1000000000000001</v>
+        <v>1.0993428024647429</v>
       </c>
       <c r="DS24">
         <v>1.1000000000000001</v>
       </c>
       <c r="DT24">
-        <v>1.1000000000000001</v>
+        <v>1.301186922555448</v>
       </c>
       <c r="DU24">
         <v>1.1000000000000001</v>
       </c>
       <c r="DV24">
-        <v>2.4433384345745179</v>
+        <v>5.6352780188473268</v>
       </c>
       <c r="DW24">
-        <v>2.443336495046001</v>
+        <v>3.538300500413063</v>
       </c>
       <c r="DX24">
-        <v>2.443340374202926</v>
+        <v>7.4166129093046793</v>
       </c>
       <c r="DY24">
-        <v>2.443336495046001</v>
+        <v>4.5445586962486013</v>
       </c>
       <c r="DZ24">
-        <v>3.5490537735854151</v>
+        <v>6.4330678057184247</v>
       </c>
       <c r="EA24">
-        <v>3.5490511643373739</v>
+        <v>4.3984368999849819</v>
       </c>
       <c r="EB24">
-        <v>3.549056382699082</v>
+        <v>7.5366274173808634</v>
       </c>
       <c r="EC24">
-        <v>3.549056382699082</v>
+        <v>7.0510551046771797</v>
       </c>
       <c r="ED24">
-        <v>4.0287290499259854</v>
+        <v>4.0361774592613671</v>
       </c>
       <c r="EE24">
-        <v>4.0287286501609483</v>
+        <v>4.0339575106250134</v>
       </c>
       <c r="EF24">
-        <v>4.0287294496704362</v>
+        <v>5.0271262352613331</v>
       </c>
       <c r="EG24">
-        <v>4.0287294496704362</v>
+        <v>4.0352488360010597</v>
       </c>
       <c r="EH24">
-        <v>2.8529059647858461</v>
+        <v>3.7170037809080561</v>
       </c>
       <c r="EI24">
-        <v>2.852904023377727</v>
+        <v>2.8523542218279738</v>
       </c>
       <c r="EJ24">
-        <v>2.852907906293952</v>
+        <v>7.1836694904961513</v>
       </c>
       <c r="EK24">
-        <v>2.852904023377727</v>
+        <v>3.2178311643885902</v>
       </c>
       <c r="EL24">
-        <v>1.99999536957934</v>
+        <v>1.890112951386774</v>
       </c>
       <c r="EM24">
-        <v>1.999991130968783</v>
+        <v>1.626221315161591</v>
       </c>
       <c r="EN24">
-        <v>1.9999996079716129</v>
+        <v>1.996088415726001</v>
       </c>
       <c r="EO24">
-        <v>1.9999996079716129</v>
+        <v>1.9651687239193401</v>
       </c>
       <c r="EP24">
-        <v>10.665959598335091</v>
+        <v>10.94271028596682</v>
       </c>
       <c r="EQ24">
-        <v>10.665956657247531</v>
+        <v>10.486908758188241</v>
       </c>
       <c r="ER24">
-        <v>10.665962539271179</v>
+        <v>12.610135834895299</v>
       </c>
       <c r="ES24">
-        <v>10.665962539271179</v>
+        <v>10.646683655005519</v>
       </c>
       <c r="ET24">
-        <v>-0.20896999999999999</v>
+        <v>-0.133771985064502</v>
       </c>
       <c r="EU24">
-        <v>-0.20896999999999999</v>
+        <v>-0.13725200000000001</v>
       </c>
       <c r="EV24">
-        <v>-0.20896999999999999</v>
+        <v>-0.13145000000000001</v>
       </c>
       <c r="EW24">
-        <v>-0.20896999999999999</v>
+        <v>-0.13400799999999999</v>
       </c>
       <c r="EX24">
-        <v>-0.20442749998712481</v>
+        <v>-0.20240055727694811</v>
       </c>
       <c r="EY24">
-        <v>-0.204428</v>
+        <v>-0.209704</v>
       </c>
       <c r="EZ24">
-        <v>-0.204427</v>
+        <v>-0.17574899999999999</v>
       </c>
       <c r="FA24">
-        <v>-0.204427</v>
+        <v>-0.20521700000000001</v>
       </c>
       <c r="FB24">
-        <v>0.2106863465263468</v>
+        <v>0.13772891957918079</v>
       </c>
       <c r="FC24">
-        <v>0.21068631161041279</v>
+        <v>0.13465319656807259</v>
       </c>
       <c r="FD24">
-        <v>0.210686381444079</v>
+        <v>0.14006958121590851</v>
       </c>
       <c r="FE24">
-        <v>0.21068631161041279</v>
+        <v>0.1379772398368658</v>
       </c>
       <c r="FF24">
-        <v>0.29643089185665172</v>
+        <v>0.3021838114199471</v>
       </c>
       <c r="FG24">
-        <v>0.29642990326045038</v>
+        <v>0.26227656434763669</v>
       </c>
       <c r="FH24">
-        <v>0.29643188050376768</v>
+        <v>0.30911279445373979</v>
       </c>
       <c r="FI24">
-        <v>0.29642990326045038</v>
+        <v>0.30256948562768188</v>
       </c>
       <c r="FJ24">
-        <v>-7.7840500012875125E-2</v>
+        <v>-4.1153189325736472E-2</v>
       </c>
       <c r="FK24">
-        <v>-7.7840999999999994E-2</v>
+        <v>-4.3820999999999999E-2</v>
       </c>
       <c r="FL24">
-        <v>-7.7840000000000006E-2</v>
+        <v>-3.8818999999999999E-2</v>
       </c>
       <c r="FM24">
-        <v>-7.7840999999999994E-2</v>
+        <v>-4.1612000000000003E-2</v>
       </c>
       <c r="FN24">
-        <v>-0.1172564999871249</v>
+        <v>-0.1156159007312578</v>
       </c>
       <c r="FO24">
-        <v>-0.117257</v>
+        <v>-0.12315</v>
       </c>
       <c r="FP24">
-        <v>-0.117256</v>
+        <v>-8.7084999999999996E-2</v>
       </c>
       <c r="FQ24">
-        <v>-0.117256</v>
+        <v>-0.118781</v>
       </c>
     </row>
     <row r="25" spans="1:173" x14ac:dyDescent="0.2">
@@ -50281,520 +50278,520 @@
         <v>764</v>
       </c>
       <c r="B25">
-        <v>-0.23744875950071581</v>
+        <v>-0.23654768189020589</v>
       </c>
       <c r="C25">
-        <v>-0.23863999999999999</v>
+        <v>-0.23688999999999999</v>
       </c>
       <c r="D25">
-        <v>-0.23305999999999999</v>
+        <v>-0.23422000000000001</v>
       </c>
       <c r="E25">
-        <v>-0.23798</v>
+        <v>-0.23654</v>
       </c>
       <c r="F25">
-        <v>1.5868956925979269E-2</v>
+        <v>1.4746935131443459E-2</v>
       </c>
       <c r="G25">
-        <v>1.321E-2</v>
+        <v>1.362E-2</v>
       </c>
       <c r="H25">
-        <v>2.197E-2</v>
+        <v>2.053E-2</v>
       </c>
       <c r="I25">
-        <v>1.508E-2</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="J25">
-        <v>0.25331771642669498</v>
+        <v>0.25129461702164951</v>
       </c>
       <c r="K25">
-        <v>0.24809999999999999</v>
+        <v>0.24912000000000001</v>
       </c>
       <c r="L25">
-        <v>0.26024000000000003</v>
+        <v>0.25730999999999998</v>
       </c>
       <c r="M25">
-        <v>0.25306000000000001</v>
+        <v>0.25170999999999999</v>
       </c>
       <c r="N25">
-        <v>-0.11078990128736819</v>
+        <v>-0.1109003733793812</v>
       </c>
       <c r="O25">
-        <v>-0.112175</v>
+        <v>-0.111635</v>
       </c>
       <c r="P25">
-        <v>-0.107625</v>
+        <v>-0.108125</v>
       </c>
       <c r="Q25">
-        <v>-0.11144999999999999</v>
+        <v>-0.11068500000000001</v>
       </c>
       <c r="R25">
-        <v>2.423044947950791E-2</v>
+        <v>2.447588792269461E-2</v>
       </c>
       <c r="S25">
-        <v>2.247E-2</v>
+        <v>2.2720000000000001E-2</v>
       </c>
       <c r="T25">
-        <v>2.5049999999999999E-2</v>
+        <v>2.487E-2</v>
       </c>
       <c r="U25">
-        <v>2.4539999999999999E-2</v>
+        <v>2.4340000000000001E-2</v>
       </c>
       <c r="V25">
-        <v>21.158297552004061</v>
+        <v>23.19316317097724</v>
       </c>
       <c r="W25">
-        <v>11.1021</v>
+        <v>15.744899999999999</v>
       </c>
       <c r="X25">
-        <v>29.235199999999999</v>
+        <v>25.319500000000001</v>
       </c>
       <c r="Y25">
-        <v>25.9604</v>
+        <v>22.928000000000001</v>
       </c>
       <c r="Z25">
-        <v>128.6392644061294</v>
+        <v>125.5886973405093</v>
       </c>
       <c r="AA25">
-        <v>127.967</v>
+        <v>124.613</v>
       </c>
       <c r="AB25">
-        <v>130.03899999999999</v>
+        <v>125.913</v>
       </c>
       <c r="AC25">
-        <v>129.06100000000001</v>
+        <v>125.913</v>
       </c>
       <c r="AD25">
-        <v>2.2690821302758182</v>
+        <v>2.4944471176011831</v>
       </c>
       <c r="AE25">
-        <v>2.1278000000000001</v>
+        <v>2.3574000000000002</v>
       </c>
       <c r="AF25">
-        <v>2.4460000000000002</v>
+        <v>2.5114000000000001</v>
       </c>
       <c r="AG25">
-        <v>2.3007</v>
+        <v>2.5114000000000001</v>
       </c>
       <c r="AH25">
-        <v>1292.1968687523549</v>
+        <v>1139.240726573687</v>
       </c>
       <c r="AI25">
-        <v>969.72900000000004</v>
+        <v>1036.5650000000001</v>
       </c>
       <c r="AJ25">
-        <v>1641.981</v>
+        <v>1314.9369999999999</v>
       </c>
       <c r="AK25">
-        <v>1113.433</v>
+        <v>1150.1300000000001</v>
       </c>
       <c r="AL25">
-        <v>0.88878658258033594</v>
+        <v>0.9286652391470378</v>
       </c>
       <c r="AM25">
-        <v>0.87616123712623251</v>
+        <v>0.92705781727773073</v>
       </c>
       <c r="AN25">
-        <v>0.92250897011131672</v>
+        <v>0.9378568640379813</v>
       </c>
       <c r="AO25">
-        <v>0.87754450232332049</v>
+        <v>0.92790237395878428</v>
       </c>
       <c r="AP25">
-        <v>323.68583346814131</v>
+        <v>286.77764217612719</v>
       </c>
       <c r="AQ25">
-        <v>302.56016546897899</v>
+        <v>281.10995238418582</v>
       </c>
       <c r="AR25">
-        <v>332.22994708681023</v>
+        <v>287.70986243255533</v>
       </c>
       <c r="AS25">
-        <v>331.72995320324242</v>
+        <v>287.41986553388512</v>
       </c>
       <c r="AT25">
-        <v>459.34811997660529</v>
+        <v>408.68457187610647</v>
       </c>
       <c r="AU25">
-        <v>438.44142415894157</v>
+        <v>402.52511949343329</v>
       </c>
       <c r="AV25">
-        <v>467.04052852418459</v>
+        <v>409.60586629214549</v>
       </c>
       <c r="AW25">
-        <v>467.04052852418459</v>
+        <v>409.54574184437013</v>
       </c>
       <c r="AX25">
-        <v>-0.48575248968159729</v>
+        <v>-0.28150599631934398</v>
       </c>
       <c r="AY25">
-        <v>-0.49782999999999999</v>
+        <v>-0.28502</v>
       </c>
       <c r="AZ25">
-        <v>-0.47438999999999998</v>
+        <v>-0.27213999999999999</v>
       </c>
       <c r="BA25">
-        <v>-0.48420000000000002</v>
+        <v>-0.28502</v>
       </c>
       <c r="BB25">
-        <v>-0.1043648576325252</v>
+        <v>-0.1035963348290499</v>
       </c>
       <c r="BC25">
-        <v>-0.11965000000000001</v>
+        <v>-0.12687999999999999</v>
       </c>
       <c r="BD25">
-        <v>-9.7250000000000003E-2</v>
+        <v>-9.6409999999999996E-2</v>
       </c>
       <c r="BE25">
-        <v>-9.8610000000000003E-2</v>
+        <v>-9.6409999999999996E-2</v>
       </c>
       <c r="BF25">
-        <v>148.35221899740631</v>
+        <v>132.54878175475821</v>
       </c>
       <c r="BG25">
-        <v>144.1643</v>
+        <v>131.62799999999999</v>
       </c>
       <c r="BH25">
-        <v>152.25640000000001</v>
+        <v>133.6447</v>
       </c>
       <c r="BI25">
-        <v>147.73050000000001</v>
+        <v>131.62799999999999</v>
       </c>
       <c r="BJ25">
-        <v>1.836861323220522</v>
+        <v>1.8443448782611209</v>
       </c>
       <c r="BK25">
-        <v>1.83396</v>
+        <v>1.8409500000000001</v>
       </c>
       <c r="BL25">
-        <v>1.8469800000000001</v>
+        <v>1.8569100000000001</v>
       </c>
       <c r="BM25">
-        <v>1.83525</v>
+        <v>1.8409500000000001</v>
       </c>
       <c r="BN25">
-        <v>1.3521707459159309</v>
+        <v>1.3535040886114189</v>
       </c>
       <c r="BO25">
-        <v>1.3498300000000001</v>
+        <v>1.3509599999999999</v>
       </c>
       <c r="BP25">
-        <v>1.3542099999999999</v>
+        <v>1.35433</v>
       </c>
       <c r="BQ25">
-        <v>1.35362</v>
+        <v>1.35433</v>
       </c>
       <c r="BR25">
-        <v>96.58797621808543</v>
+        <v>96.350240162490437</v>
       </c>
       <c r="BS25">
-        <v>96.144000000000005</v>
+        <v>96.027000000000001</v>
       </c>
       <c r="BT25">
-        <v>97.956999999999994</v>
+        <v>97.85</v>
       </c>
       <c r="BU25">
-        <v>96.466999999999999</v>
+        <v>96.027000000000001</v>
       </c>
       <c r="BV25">
-        <v>53.906007760377591</v>
+        <v>54.280556424852868</v>
       </c>
       <c r="BW25">
-        <v>53.483341942148769</v>
+        <v>53.896565082644628</v>
       </c>
       <c r="BX25">
-        <v>57.547778925619831</v>
+        <v>55.71732954545454</v>
       </c>
       <c r="BY25">
-        <v>53.525309917355372</v>
+        <v>53.896565082644628</v>
       </c>
       <c r="BZ25">
-        <v>45.727352095398842</v>
+        <v>47.22377895003212</v>
       </c>
       <c r="CA25">
-        <v>44.734014845683028</v>
+        <v>46.640187524417243</v>
       </c>
       <c r="CB25">
-        <v>52.068954290923287</v>
+        <v>50.457416330251327</v>
       </c>
       <c r="CC25">
-        <v>44.753548639145727</v>
+        <v>46.640187524417243</v>
       </c>
       <c r="CD25">
-        <v>37.583774472234637</v>
+        <v>40.13000681459782</v>
       </c>
       <c r="CE25">
-        <v>36.061345351609063</v>
+        <v>39.395858164481517</v>
       </c>
       <c r="CF25">
-        <v>45.529462157330151</v>
+        <v>44.18578665077473</v>
       </c>
       <c r="CG25">
-        <v>36.063207687723477</v>
+        <v>39.395858164481517</v>
       </c>
       <c r="CH25">
-        <v>31.442145526701641</v>
+        <v>34.722615746764518</v>
       </c>
       <c r="CI25">
-        <v>29.514535967200899</v>
+        <v>33.915509690644797</v>
       </c>
       <c r="CJ25">
-        <v>40.334397130078273</v>
+        <v>39.224398993663812</v>
       </c>
       <c r="CK25">
-        <v>29.514535967200899</v>
+        <v>33.915509690644797</v>
       </c>
       <c r="CL25">
-        <v>25.703481897391491</v>
+        <v>29.6247487949604</v>
       </c>
       <c r="CM25">
-        <v>23.51266215629073</v>
+        <v>28.840543727887781</v>
       </c>
       <c r="CN25">
-        <v>34.807352119669787</v>
+        <v>34.196744460306618</v>
       </c>
       <c r="CO25">
-        <v>23.51266215629073</v>
+        <v>28.840543727887781</v>
       </c>
       <c r="CP25">
-        <v>1.838803533231667</v>
+        <v>2.055201048555519</v>
       </c>
       <c r="CQ25">
-        <v>1.8</v>
+        <v>2.0188907445602049</v>
       </c>
       <c r="CR25">
-        <v>2.075483162666838</v>
+        <v>2.0851406510619088</v>
       </c>
       <c r="CS25">
-        <v>1.8</v>
+        <v>2.0851406510619088</v>
       </c>
       <c r="CT25">
-        <v>1.0993428024647429</v>
+        <v>1.099974821634528</v>
       </c>
       <c r="CU25">
         <v>1.1000000000000001</v>
       </c>
       <c r="CV25">
-        <v>1.301186922555448</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CW25">
         <v>1.1000000000000001</v>
       </c>
       <c r="CX25">
-        <v>6.410378546478003</v>
+        <v>3.7898559088740971</v>
       </c>
       <c r="CY25">
-        <v>3.538300500413063</v>
+        <v>3.5119702377683519</v>
       </c>
       <c r="CZ25">
-        <v>8.3695175525174825</v>
+        <v>5.0368181751624572</v>
       </c>
       <c r="DA25">
-        <v>5.8894281299022389</v>
+        <v>3.5119702377683519</v>
       </c>
       <c r="DB25">
-        <v>8.0013162328181195</v>
+        <v>6.5612845453572257</v>
       </c>
       <c r="DC25">
-        <v>4.3984368999849819</v>
+        <v>5.4320621023654594</v>
       </c>
       <c r="DD25">
-        <v>9.9469154937840383</v>
+        <v>6.8347184677861614</v>
       </c>
       <c r="DE25">
-        <v>9.9469154937840383</v>
+        <v>6.8347184677861614</v>
       </c>
       <c r="DF25">
-        <v>4.0373069916079238</v>
+        <v>4.0442970766365303</v>
       </c>
       <c r="DG25">
-        <v>4.0339575106250134</v>
+        <v>4.0409500498333069</v>
       </c>
       <c r="DH25">
-        <v>5.0757748874212929</v>
+        <v>4.0569143676663044</v>
       </c>
       <c r="DI25">
-        <v>4.0352488360010597</v>
+        <v>4.0409500498333069</v>
       </c>
       <c r="DJ25">
-        <v>4.0085977366073582</v>
+        <v>3.25138995064408</v>
       </c>
       <c r="DK25">
-        <v>2.8523542218279738</v>
+        <v>2.993346710385044</v>
       </c>
       <c r="DL25">
-        <v>7.5997418964701877</v>
+        <v>4.9366945009940197</v>
       </c>
       <c r="DM25">
-        <v>3.5195348512312932</v>
+        <v>3.3175870554077349</v>
       </c>
       <c r="DN25">
-        <v>1.83877092037392</v>
+        <v>2.055201048555519</v>
       </c>
       <c r="DO25">
-        <v>1.8</v>
+        <v>2.0188907445602049</v>
       </c>
       <c r="DP25">
-        <v>2.075483162666838</v>
+        <v>2.0851406510619088</v>
       </c>
       <c r="DQ25">
-        <v>1.8</v>
+        <v>2.0851406510619088</v>
       </c>
       <c r="DR25">
-        <v>1.0993428024647429</v>
+        <v>1.099974821634528</v>
       </c>
       <c r="DS25">
         <v>1.1000000000000001</v>
       </c>
       <c r="DT25">
-        <v>1.301186922555448</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="DU25">
         <v>1.1000000000000001</v>
       </c>
       <c r="DV25">
-        <v>5.6352780188473268</v>
+        <v>3.7898559088740971</v>
       </c>
       <c r="DW25">
-        <v>3.538300500413063</v>
+        <v>3.5119702377683519</v>
       </c>
       <c r="DX25">
-        <v>7.4166129093046793</v>
+        <v>5.0368181751624572</v>
       </c>
       <c r="DY25">
-        <v>4.5445586962486013</v>
+        <v>3.5119702377683519</v>
       </c>
       <c r="DZ25">
-        <v>6.4330678057184247</v>
+        <v>6.1538749440450102</v>
       </c>
       <c r="EA25">
-        <v>4.3984368999849819</v>
+        <v>5.4320621023654594</v>
       </c>
       <c r="EB25">
-        <v>7.5366274173808634</v>
+        <v>6.3515525071711698</v>
       </c>
       <c r="EC25">
-        <v>7.0510551046771797</v>
+        <v>6.3515525071711698</v>
       </c>
       <c r="ED25">
-        <v>4.0361774592613671</v>
+        <v>4.0442970766365303</v>
       </c>
       <c r="EE25">
-        <v>4.0339575106250134</v>
+        <v>4.0409500498333069</v>
       </c>
       <c r="EF25">
-        <v>5.0271262352613331</v>
+        <v>4.0569143676663044</v>
       </c>
       <c r="EG25">
-        <v>4.0352488360010597</v>
+        <v>4.0409500498333069</v>
       </c>
       <c r="EH25">
-        <v>3.7170037809080561</v>
+        <v>3.25138995064408</v>
       </c>
       <c r="EI25">
-        <v>2.8523542218279738</v>
+        <v>2.993346710385044</v>
       </c>
       <c r="EJ25">
-        <v>7.1836694904961513</v>
+        <v>4.9366945009940197</v>
       </c>
       <c r="EK25">
-        <v>3.2178311643885902</v>
+        <v>3.3175870554077349</v>
       </c>
       <c r="EL25">
-        <v>1.890112951386774</v>
+        <v>1.79964671991601</v>
       </c>
       <c r="EM25">
-        <v>1.626221315161591</v>
+        <v>1.6226461847177771</v>
       </c>
       <c r="EN25">
-        <v>1.996088415726001</v>
+        <v>1.9999999833780511</v>
       </c>
       <c r="EO25">
-        <v>1.9651687239193401</v>
+        <v>1.9999999833780511</v>
       </c>
       <c r="EP25">
-        <v>10.94271028596682</v>
+        <v>11.57077309414923</v>
       </c>
       <c r="EQ25">
-        <v>10.486908758188241</v>
+        <v>10.44119514199377</v>
       </c>
       <c r="ER25">
-        <v>12.610135834895299</v>
+        <v>12.45397306211148</v>
       </c>
       <c r="ES25">
-        <v>10.646683655005519</v>
+        <v>10.63825574458872</v>
       </c>
       <c r="ET25">
-        <v>-0.133771985064502</v>
+        <v>-6.2628521642475912E-2</v>
       </c>
       <c r="EU25">
-        <v>-0.13725200000000001</v>
+        <v>-6.3874E-2</v>
       </c>
       <c r="EV25">
-        <v>-0.13145000000000001</v>
+        <v>-5.9587000000000001E-2</v>
       </c>
       <c r="EW25">
-        <v>-0.13400799999999999</v>
+        <v>-6.1990000000000003E-2</v>
       </c>
       <c r="EX25">
-        <v>-0.20240055727694811</v>
+        <v>-0.20279855848638939</v>
       </c>
       <c r="EY25">
-        <v>-0.209704</v>
+        <v>-0.20477799999999999</v>
       </c>
       <c r="EZ25">
-        <v>-0.17574899999999999</v>
+        <v>-0.19343099999999999</v>
       </c>
       <c r="FA25">
-        <v>-0.20521700000000001</v>
+        <v>-0.20204</v>
       </c>
       <c r="FB25">
-        <v>0.13772891957918079</v>
+        <v>6.7428124105964549E-2</v>
       </c>
       <c r="FC25">
-        <v>0.13465319656807259</v>
+        <v>6.6008673180120797E-2</v>
       </c>
       <c r="FD25">
-        <v>0.14006958121590851</v>
+        <v>6.7854756841359304E-2</v>
       </c>
       <c r="FE25">
-        <v>0.1379772398368658</v>
+        <v>6.7371714227856705E-2</v>
       </c>
       <c r="FF25">
-        <v>0.3021838114199471</v>
+        <v>0.30404884621411837</v>
       </c>
       <c r="FG25">
-        <v>0.26227656434763669</v>
+        <v>0.3009425116064528</v>
       </c>
       <c r="FH25">
-        <v>0.30911279445373979</v>
+        <v>0.3110736256644076</v>
       </c>
       <c r="FI25">
-        <v>0.30256948562768188</v>
+        <v>0.30425935841811008</v>
       </c>
       <c r="FJ25">
-        <v>-4.1153189325736472E-2</v>
+        <v>-9.7103045371750539E-3</v>
       </c>
       <c r="FK25">
-        <v>-4.3820999999999999E-2</v>
+        <v>-1.0944000000000001E-2</v>
       </c>
       <c r="FL25">
-        <v>-3.8818999999999999E-2</v>
+        <v>-6.4320000000000002E-3</v>
       </c>
       <c r="FM25">
-        <v>-4.1612000000000003E-2</v>
+        <v>-9.2309999999999996E-3</v>
       </c>
       <c r="FN25">
-        <v>-0.1156159007312578</v>
+        <v>-0.11723030860443601</v>
       </c>
       <c r="FO25">
-        <v>-0.12315</v>
+        <v>-0.119338</v>
       </c>
       <c r="FP25">
-        <v>-8.7084999999999996E-2</v>
+        <v>-0.107297</v>
       </c>
       <c r="FQ25">
-        <v>-0.118781</v>
+        <v>-0.116531</v>
       </c>
     </row>
     <row r="26" spans="1:173" x14ac:dyDescent="0.2">
@@ -50802,295 +50799,295 @@
         <v>765</v>
       </c>
       <c r="B26">
-        <v>-0.23654768189020589</v>
+        <v>-0.23706999999999989</v>
       </c>
       <c r="C26">
-        <v>-0.23688999999999999</v>
+        <v>-0.23707</v>
       </c>
       <c r="D26">
-        <v>-0.23422000000000001</v>
+        <v>-0.23707</v>
       </c>
       <c r="E26">
-        <v>-0.23654</v>
+        <v>-0.23707</v>
       </c>
       <c r="F26">
-        <v>1.4746935131443459E-2</v>
+        <v>1.1780000000000001E-2</v>
       </c>
       <c r="G26">
-        <v>1.362E-2</v>
+        <v>1.1780000000000001E-2</v>
       </c>
       <c r="H26">
-        <v>2.053E-2</v>
+        <v>1.1780000000000001E-2</v>
       </c>
       <c r="I26">
-        <v>1.5169999999999999E-2</v>
+        <v>1.1780000000000001E-2</v>
       </c>
       <c r="J26">
-        <v>0.25129461702164951</v>
+        <v>0.24884999999999999</v>
       </c>
       <c r="K26">
-        <v>0.24912000000000001</v>
+        <v>0.24884999999999999</v>
       </c>
       <c r="L26">
-        <v>0.25730999999999998</v>
+        <v>0.24884999999999999</v>
       </c>
       <c r="M26">
-        <v>0.25170999999999999</v>
+        <v>0.24884999999999999</v>
       </c>
       <c r="N26">
-        <v>-0.1109003733793812</v>
+        <v>-0.112645</v>
       </c>
       <c r="O26">
-        <v>-0.111635</v>
+        <v>-0.112645</v>
       </c>
       <c r="P26">
-        <v>-0.108125</v>
+        <v>-0.112645</v>
       </c>
       <c r="Q26">
-        <v>-0.11068500000000001</v>
+        <v>-0.112645</v>
       </c>
       <c r="R26">
-        <v>2.447588792269461E-2</v>
+        <v>2.5499999999999991E-2</v>
       </c>
       <c r="S26">
-        <v>2.2720000000000001E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="T26">
-        <v>2.487E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="U26">
-        <v>2.4340000000000001E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="V26">
-        <v>23.19316317097724</v>
+        <v>17.8721</v>
       </c>
       <c r="W26">
-        <v>15.744899999999999</v>
+        <v>17.8721</v>
       </c>
       <c r="X26">
-        <v>25.319500000000001</v>
+        <v>17.8721</v>
       </c>
       <c r="Y26">
-        <v>22.928000000000001</v>
+        <v>17.8721</v>
       </c>
       <c r="Z26">
-        <v>125.5886973405093</v>
+        <v>97.569466656437925</v>
       </c>
       <c r="AA26">
-        <v>124.613</v>
+        <v>97.569400000000002</v>
       </c>
       <c r="AB26">
-        <v>125.913</v>
+        <v>97.569500000000005</v>
       </c>
       <c r="AC26">
-        <v>125.913</v>
+        <v>97.569400000000002</v>
       </c>
       <c r="AD26">
-        <v>2.4944471176011831</v>
+        <v>2.3654000000000002</v>
       </c>
       <c r="AE26">
-        <v>2.3574000000000002</v>
+        <v>2.3654000000000002</v>
       </c>
       <c r="AF26">
-        <v>2.5114000000000001</v>
+        <v>2.3654000000000002</v>
       </c>
       <c r="AG26">
-        <v>2.5114000000000001</v>
+        <v>2.3654000000000002</v>
       </c>
       <c r="AH26">
-        <v>1139.240726573687</v>
+        <v>940.03779186084671</v>
       </c>
       <c r="AI26">
-        <v>1036.5650000000001</v>
+        <v>671.44200000000001</v>
       </c>
       <c r="AJ26">
-        <v>1314.9369999999999</v>
+        <v>1091.096</v>
       </c>
       <c r="AK26">
-        <v>1150.1300000000001</v>
+        <v>1057.5229999999999</v>
       </c>
       <c r="AL26">
-        <v>0.9286652391470378</v>
+        <v>0.94515037555973247</v>
       </c>
       <c r="AM26">
-        <v>0.92705781727773073</v>
+        <v>0.94503815096070409</v>
       </c>
       <c r="AN26">
-        <v>0.9378568640379813</v>
+        <v>0.94531405209684638</v>
       </c>
       <c r="AO26">
-        <v>0.92790237395878428</v>
+        <v>0.94531405209684638</v>
       </c>
       <c r="AP26">
-        <v>286.77764217612719</v>
+        <v>254.28365932167571</v>
       </c>
       <c r="AQ26">
-        <v>281.10995238418582</v>
+        <v>254.1703422370768</v>
       </c>
       <c r="AR26">
-        <v>287.70986243255533</v>
+        <v>254.36034486231219</v>
       </c>
       <c r="AS26">
-        <v>287.41986553388512</v>
+        <v>254.1703422370768</v>
       </c>
       <c r="AT26">
-        <v>408.68457187610647</v>
+        <v>350.35057861438958</v>
       </c>
       <c r="AU26">
-        <v>402.52511949343329</v>
+        <v>350.20738047091072</v>
       </c>
       <c r="AV26">
-        <v>409.60586629214549</v>
+        <v>350.44666612540362</v>
       </c>
       <c r="AW26">
-        <v>409.54574184437013</v>
+        <v>350.20738047091072</v>
       </c>
       <c r="AX26">
-        <v>-0.28150599631934398</v>
+        <v>-7.3449999999999988E-2</v>
       </c>
       <c r="AY26">
-        <v>-0.28502</v>
+        <v>-7.3450000000000001E-2</v>
       </c>
       <c r="AZ26">
-        <v>-0.27213999999999999</v>
+        <v>-7.3450000000000001E-2</v>
       </c>
       <c r="BA26">
-        <v>-0.28502</v>
+        <v>-7.3450000000000001E-2</v>
       </c>
       <c r="BB26">
-        <v>-0.1035963348290499</v>
+        <v>-0.11567</v>
       </c>
       <c r="BC26">
-        <v>-0.12687999999999999</v>
+        <v>-0.11567</v>
       </c>
       <c r="BD26">
-        <v>-9.6409999999999996E-2</v>
+        <v>-0.11567</v>
       </c>
       <c r="BE26">
-        <v>-9.6409999999999996E-2</v>
+        <v>-0.11567</v>
       </c>
       <c r="BF26">
-        <v>132.54878175475821</v>
+        <v>128.24829996904211</v>
       </c>
       <c r="BG26">
-        <v>131.62799999999999</v>
+        <v>128.24809999999999</v>
       </c>
       <c r="BH26">
-        <v>133.6447</v>
+        <v>128.24850000000001</v>
       </c>
       <c r="BI26">
-        <v>131.62799999999999</v>
+        <v>128.24809999999999</v>
       </c>
       <c r="BJ26">
-        <v>1.8443448782611209</v>
+        <v>1.8658600000000001</v>
       </c>
       <c r="BK26">
-        <v>1.8409500000000001</v>
+        <v>1.8658600000000001</v>
       </c>
       <c r="BL26">
-        <v>1.8569100000000001</v>
+        <v>1.8658600000000001</v>
       </c>
       <c r="BM26">
-        <v>1.8409500000000001</v>
+        <v>1.8658600000000001</v>
       </c>
       <c r="BN26">
-        <v>1.3535040886114189</v>
+        <v>1.353466665643793</v>
       </c>
       <c r="BO26">
-        <v>1.3509599999999999</v>
+        <v>1.3534600000000001</v>
       </c>
       <c r="BP26">
-        <v>1.35433</v>
+        <v>1.35347</v>
       </c>
       <c r="BQ26">
-        <v>1.35433</v>
+        <v>1.3534600000000001</v>
       </c>
       <c r="BR26">
-        <v>96.350240162490437</v>
+        <v>96.338666716451996</v>
       </c>
       <c r="BS26">
-        <v>96.027000000000001</v>
+        <v>96.337999999999994</v>
       </c>
       <c r="BT26">
-        <v>97.85</v>
+        <v>96.338999999999999</v>
       </c>
       <c r="BU26">
-        <v>96.027000000000001</v>
+        <v>96.338999999999999</v>
       </c>
       <c r="BV26">
-        <v>54.280556424852868</v>
+        <v>55.009256197821657</v>
       </c>
       <c r="BW26">
-        <v>53.896565082644628</v>
+        <v>54.978047520661157</v>
       </c>
       <c r="BX26">
-        <v>55.71732954545454</v>
+        <v>55.029700413223139</v>
       </c>
       <c r="BY26">
-        <v>53.896565082644628</v>
+        <v>55.020015495867767</v>
       </c>
       <c r="BZ26">
-        <v>47.22377895003212</v>
+        <v>49.264227638954253</v>
       </c>
       <c r="CA26">
-        <v>46.640187524417243</v>
+        <v>49.252832400052093</v>
       </c>
       <c r="CB26">
-        <v>50.457416330251327</v>
+        <v>49.272366193514777</v>
       </c>
       <c r="CC26">
-        <v>46.640187524417243</v>
+        <v>49.26748274514911</v>
       </c>
       <c r="CD26">
-        <v>40.13000681459782</v>
+        <v>43.311733482914697</v>
       </c>
       <c r="CE26">
-        <v>39.395858164481517</v>
+        <v>43.297452324195483</v>
       </c>
       <c r="CF26">
-        <v>44.18578665077473</v>
+        <v>43.332836710369477</v>
       </c>
       <c r="CG26">
-        <v>39.395858164481517</v>
+        <v>43.332836710369477</v>
       </c>
       <c r="CH26">
-        <v>34.722615746764518</v>
+        <v>38.785488797903291</v>
       </c>
       <c r="CI26">
-        <v>33.915509690644797</v>
+        <v>38.77015001863586</v>
       </c>
       <c r="CJ26">
-        <v>39.224398993663812</v>
+        <v>38.805092247484147</v>
       </c>
       <c r="CK26">
-        <v>33.915509690644797</v>
+        <v>38.805092247484147</v>
       </c>
       <c r="CL26">
-        <v>29.6247487949604</v>
+        <v>34.210066493390997</v>
       </c>
       <c r="CM26">
-        <v>28.840543727887781</v>
+        <v>34.193253056917627</v>
       </c>
       <c r="CN26">
-        <v>34.196744460306618</v>
+        <v>34.229330891937188</v>
       </c>
       <c r="CO26">
-        <v>28.840543727887781</v>
+        <v>34.229330891937188</v>
       </c>
       <c r="CP26">
-        <v>2.055201048555519</v>
+        <v>2.8559934798264348</v>
       </c>
       <c r="CQ26">
-        <v>2.0188907445602049</v>
+        <v>2.8556954952311591</v>
       </c>
       <c r="CR26">
-        <v>2.0851406510619088</v>
+        <v>2.8564363482234931</v>
       </c>
       <c r="CS26">
-        <v>2.0851406510619088</v>
+        <v>2.8556954952311591</v>
       </c>
       <c r="CT26">
-        <v>1.099974821634528</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CU26">
         <v>1.1000000000000001</v>
@@ -51102,67 +51099,67 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CX26">
-        <v>3.7898559088740971</v>
+        <v>3.288277561424334</v>
       </c>
       <c r="CY26">
-        <v>3.5119702377683519</v>
+        <v>3.2882763856671779</v>
       </c>
       <c r="CZ26">
-        <v>5.0368181751624572</v>
+        <v>3.2882788927922388</v>
       </c>
       <c r="DA26">
-        <v>3.5119702377683519</v>
+        <v>3.2882788927922388</v>
       </c>
       <c r="DB26">
-        <v>6.5612845453572257</v>
+        <v>4.8668155664950534</v>
       </c>
       <c r="DC26">
-        <v>5.4320621023654594</v>
+        <v>4.8668129096919071</v>
       </c>
       <c r="DD26">
-        <v>6.8347184677861614</v>
+        <v>4.8668172929640967</v>
       </c>
       <c r="DE26">
-        <v>6.8347184677861614</v>
+        <v>4.8668164964189158</v>
       </c>
       <c r="DF26">
-        <v>4.0442970766365303</v>
+        <v>4.0658621007396683</v>
       </c>
       <c r="DG26">
-        <v>4.0409500498333069</v>
+        <v>4.0658607087842578</v>
       </c>
       <c r="DH26">
-        <v>4.0569143676663044</v>
+        <v>4.0658631537936891</v>
       </c>
       <c r="DI26">
-        <v>4.0409500498333069</v>
+        <v>4.0658631537936891</v>
       </c>
       <c r="DJ26">
-        <v>3.25138995064408</v>
+        <v>3.0149096834755449</v>
       </c>
       <c r="DK26">
-        <v>2.993346710385044</v>
+        <v>3.014886393911024</v>
       </c>
       <c r="DL26">
-        <v>4.9366945009940197</v>
+        <v>3.014954256414577</v>
       </c>
       <c r="DM26">
-        <v>3.3175870554077349</v>
+        <v>3.014886393911024</v>
       </c>
       <c r="DN26">
-        <v>2.055201048555519</v>
+        <v>2.8559934798264348</v>
       </c>
       <c r="DO26">
-        <v>2.0188907445602049</v>
+        <v>2.8556954952311591</v>
       </c>
       <c r="DP26">
-        <v>2.0851406510619088</v>
+        <v>2.8564363482234931</v>
       </c>
       <c r="DQ26">
-        <v>2.0851406510619088</v>
+        <v>2.8556954952311591</v>
       </c>
       <c r="DR26">
-        <v>1.099974821634528</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="DS26">
         <v>1.1000000000000001</v>
@@ -51174,148 +51171,148 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="DV26">
-        <v>3.7898559088740971</v>
+        <v>3.288277561424334</v>
       </c>
       <c r="DW26">
-        <v>3.5119702377683519</v>
+        <v>3.2882763856671779</v>
       </c>
       <c r="DX26">
-        <v>5.0368181751624572</v>
+        <v>3.2882788927922388</v>
       </c>
       <c r="DY26">
-        <v>3.5119702377683519</v>
+        <v>3.2882788927922388</v>
       </c>
       <c r="DZ26">
-        <v>6.1538749440450102</v>
+        <v>4.8668155664950534</v>
       </c>
       <c r="EA26">
-        <v>5.4320621023654594</v>
+        <v>4.8668129096919071</v>
       </c>
       <c r="EB26">
-        <v>6.3515525071711698</v>
+        <v>4.8668172929640967</v>
       </c>
       <c r="EC26">
-        <v>6.3515525071711698</v>
+        <v>4.8668164964189158</v>
       </c>
       <c r="ED26">
-        <v>4.0442970766365303</v>
+        <v>4.0658621007396683</v>
       </c>
       <c r="EE26">
-        <v>4.0409500498333069</v>
+        <v>4.0658607087842578</v>
       </c>
       <c r="EF26">
-        <v>4.0569143676663044</v>
+        <v>4.0658631537936891</v>
       </c>
       <c r="EG26">
-        <v>4.0409500498333069</v>
+        <v>4.0658631537936891</v>
       </c>
       <c r="EH26">
-        <v>3.25138995064408</v>
+        <v>3.0149096834755449</v>
       </c>
       <c r="EI26">
-        <v>2.993346710385044</v>
+        <v>3.014886393911024</v>
       </c>
       <c r="EJ26">
-        <v>4.9366945009940197</v>
+        <v>3.014954256414577</v>
       </c>
       <c r="EK26">
-        <v>3.3175870554077349</v>
+        <v>3.014886393911024</v>
       </c>
       <c r="EL26">
-        <v>1.79964671991601</v>
+        <v>1.999994522014634</v>
       </c>
       <c r="EM26">
-        <v>1.6226461847177771</v>
+        <v>1.9999859579208961</v>
       </c>
       <c r="EN26">
-        <v>1.9999999833780511</v>
+        <v>1.999999451642501</v>
       </c>
       <c r="EO26">
-        <v>1.9999999833780511</v>
+        <v>1.999999451642501</v>
       </c>
       <c r="EP26">
-        <v>11.57077309414923</v>
+        <v>10.054864090303271</v>
       </c>
       <c r="EQ26">
-        <v>10.44119514199377</v>
+        <v>10.054825584130381</v>
       </c>
       <c r="ER26">
-        <v>12.45397306211148</v>
+        <v>10.054937592745951</v>
       </c>
       <c r="ES26">
-        <v>10.63825574458872</v>
+        <v>10.05482910968078</v>
       </c>
       <c r="ET26">
-        <v>-6.2628521642475912E-2</v>
+        <v>1.0533333435620729E-2</v>
       </c>
       <c r="EU26">
-        <v>-6.3874E-2</v>
+        <v>1.0533000000000001E-2</v>
       </c>
       <c r="EV26">
-        <v>-5.9587000000000001E-2</v>
+        <v>1.0534E-2</v>
       </c>
       <c r="EW26">
-        <v>-6.1990000000000003E-2</v>
+        <v>1.0534E-2</v>
       </c>
       <c r="EX26">
-        <v>-0.20279855848638939</v>
+        <v>-0.19999200015478941</v>
       </c>
       <c r="EY26">
-        <v>-0.20477799999999999</v>
+        <v>-0.199993</v>
       </c>
       <c r="EZ26">
-        <v>-0.19343099999999999</v>
+        <v>-0.199991</v>
       </c>
       <c r="FA26">
-        <v>-0.20204</v>
+        <v>-0.199993</v>
       </c>
       <c r="FB26">
-        <v>6.7428124105964549E-2</v>
+        <v>2.3608204672472911E-2</v>
       </c>
       <c r="FC26">
-        <v>6.6008673180120797E-2</v>
+        <v>2.3607307745695999E-2</v>
       </c>
       <c r="FD26">
-        <v>6.7854756841359304E-2</v>
+        <v>2.36097297104392E-2</v>
       </c>
       <c r="FE26">
-        <v>6.7371714227856705E-2</v>
+        <v>2.36097297104392E-2</v>
       </c>
       <c r="FF26">
-        <v>0.30404884621411837</v>
+        <v>0.30366651303835179</v>
       </c>
       <c r="FG26">
-        <v>0.3009425116064528</v>
+        <v>0.30366527801676629</v>
       </c>
       <c r="FH26">
-        <v>0.3110736256644076</v>
+        <v>0.30366836745864723</v>
       </c>
       <c r="FI26">
-        <v>0.30425935841811008</v>
+        <v>0.30366836745864723</v>
       </c>
       <c r="FJ26">
-        <v>-9.7103045371750539E-3</v>
+        <v>3.132433343562073E-2</v>
       </c>
       <c r="FK26">
-        <v>-1.0944000000000001E-2</v>
+        <v>3.1323999999999998E-2</v>
       </c>
       <c r="FL26">
-        <v>-6.4320000000000002E-3</v>
+        <v>3.1324999999999999E-2</v>
       </c>
       <c r="FM26">
-        <v>-9.2309999999999996E-3</v>
+        <v>3.1324999999999999E-2</v>
       </c>
       <c r="FN26">
-        <v>-0.11723030860443601</v>
+        <v>-0.1159663334356207</v>
       </c>
       <c r="FO26">
-        <v>-0.119338</v>
+        <v>-0.115967</v>
       </c>
       <c r="FP26">
-        <v>-0.107297</v>
+        <v>-0.115966</v>
       </c>
       <c r="FQ26">
-        <v>-0.116531</v>
+        <v>-0.115967</v>
       </c>
     </row>
     <row r="27" spans="1:173" x14ac:dyDescent="0.2">
@@ -51323,292 +51320,292 @@
         <v>766</v>
       </c>
       <c r="B27">
-        <v>-0.23706999999999989</v>
+        <v>-0.23550854360901791</v>
       </c>
       <c r="C27">
-        <v>-0.23707</v>
+        <v>-0.23558000000000001</v>
       </c>
       <c r="D27">
-        <v>-0.23707</v>
+        <v>-0.23541999999999999</v>
       </c>
       <c r="E27">
-        <v>-0.23707</v>
+        <v>-0.23558000000000001</v>
       </c>
       <c r="F27">
-        <v>1.1780000000000001E-2</v>
+        <v>-3.8371844830837047E-2</v>
       </c>
       <c r="G27">
-        <v>1.1780000000000001E-2</v>
+        <v>-3.8559999999999997E-2</v>
       </c>
       <c r="H27">
-        <v>1.1780000000000001E-2</v>
+        <v>-3.8219999999999997E-2</v>
       </c>
       <c r="I27">
-        <v>1.1780000000000001E-2</v>
+        <v>-3.8219999999999997E-2</v>
       </c>
       <c r="J27">
-        <v>0.24884999999999999</v>
+        <v>0.1971366987781808</v>
       </c>
       <c r="K27">
-        <v>0.24884999999999999</v>
+        <v>0.19686000000000001</v>
       </c>
       <c r="L27">
-        <v>0.24884999999999999</v>
+        <v>0.19736000000000001</v>
       </c>
       <c r="M27">
-        <v>0.24884999999999999</v>
+        <v>0.19736000000000001</v>
       </c>
       <c r="N27">
-        <v>-0.112645</v>
+        <v>-0.13694019421992751</v>
       </c>
       <c r="O27">
-        <v>-0.112645</v>
+        <v>-0.13699</v>
       </c>
       <c r="P27">
-        <v>-0.112645</v>
+        <v>-0.13689999999999999</v>
       </c>
       <c r="Q27">
-        <v>-0.112645</v>
+        <v>-0.13689999999999999</v>
       </c>
       <c r="R27">
-        <v>2.5499999999999991E-2</v>
+        <v>4.7560388439854911E-2</v>
       </c>
       <c r="S27">
-        <v>2.5499999999999998E-2</v>
+        <v>4.7480000000000001E-2</v>
       </c>
       <c r="T27">
-        <v>2.5499999999999998E-2</v>
+        <v>4.7660000000000001E-2</v>
       </c>
       <c r="U27">
-        <v>2.5499999999999998E-2</v>
+        <v>4.7480000000000001E-2</v>
       </c>
       <c r="V27">
-        <v>17.8721</v>
+        <v>88.042200901311702</v>
       </c>
       <c r="W27">
-        <v>17.8721</v>
+        <v>87.965500000000006</v>
       </c>
       <c r="X27">
-        <v>17.8721</v>
+        <v>88.104100000000003</v>
       </c>
       <c r="Y27">
-        <v>17.8721</v>
+        <v>88.104100000000003</v>
       </c>
       <c r="Z27">
-        <v>97.569466656437925</v>
+        <v>117.99644670583309</v>
       </c>
       <c r="AA27">
-        <v>97.569400000000002</v>
+        <v>117.904</v>
       </c>
       <c r="AB27">
-        <v>97.569500000000005</v>
+        <v>118.111</v>
       </c>
       <c r="AC27">
-        <v>97.569400000000002</v>
+        <v>117.904</v>
       </c>
       <c r="AD27">
-        <v>2.3654000000000002</v>
+        <v>3.7341565168724862</v>
       </c>
       <c r="AE27">
-        <v>2.3654000000000002</v>
+        <v>2.891</v>
       </c>
       <c r="AF27">
-        <v>2.3654000000000002</v>
+        <v>4.4146000000000001</v>
       </c>
       <c r="AG27">
-        <v>2.3654000000000002</v>
+        <v>4.4146000000000001</v>
       </c>
       <c r="AH27">
-        <v>940.03779186084671</v>
+        <v>854.02572150891046</v>
       </c>
       <c r="AI27">
-        <v>671.44200000000001</v>
+        <v>704.43399999999997</v>
       </c>
       <c r="AJ27">
-        <v>1091.096</v>
+        <v>1039.3889999999999</v>
       </c>
       <c r="AK27">
-        <v>1057.5229999999999</v>
+        <v>704.43399999999997</v>
       </c>
       <c r="AL27">
-        <v>0.94515037555973247</v>
+        <v>0.9291162252175138</v>
       </c>
       <c r="AM27">
-        <v>0.94503815096070409</v>
+        <v>0.92858397421392558</v>
       </c>
       <c r="AN27">
-        <v>0.94531405209684638</v>
+        <v>0.92954576198741645</v>
       </c>
       <c r="AO27">
-        <v>0.94531405209684638</v>
+        <v>0.92954576198741645</v>
       </c>
       <c r="AP27">
-        <v>254.28365932167571</v>
+        <v>261.59187673914198</v>
       </c>
       <c r="AQ27">
-        <v>254.1703422370768</v>
+        <v>261.43109552232949</v>
       </c>
       <c r="AR27">
-        <v>254.36034486231219</v>
+        <v>261.79110523365711</v>
       </c>
       <c r="AS27">
-        <v>254.1703422370768</v>
+        <v>261.43109552232949</v>
       </c>
       <c r="AT27">
-        <v>350.35057861438958</v>
+        <v>356.29935438942817</v>
       </c>
       <c r="AU27">
-        <v>350.20738047091072</v>
+        <v>356.2179830005702</v>
       </c>
       <c r="AV27">
-        <v>350.44666612540362</v>
+        <v>356.40018394912551</v>
       </c>
       <c r="AW27">
-        <v>350.20738047091072</v>
+        <v>356.2179830005702</v>
       </c>
       <c r="AX27">
-        <v>-7.3449999999999988E-2</v>
+        <v>6.3744466541383965E-2</v>
       </c>
       <c r="AY27">
-        <v>-7.3450000000000001E-2</v>
+        <v>6.3280000000000003E-2</v>
       </c>
       <c r="AZ27">
-        <v>-7.3450000000000001E-2</v>
+        <v>6.4320000000000002E-2</v>
       </c>
       <c r="BA27">
-        <v>-7.3450000000000001E-2</v>
+        <v>6.3280000000000003E-2</v>
       </c>
       <c r="BB27">
-        <v>-0.11567</v>
+        <v>9.2375668229571321E-3</v>
       </c>
       <c r="BC27">
-        <v>-0.11567</v>
+        <v>2.63E-3</v>
       </c>
       <c r="BD27">
-        <v>-0.11567</v>
+        <v>1.457E-2</v>
       </c>
       <c r="BE27">
-        <v>-0.11567</v>
+        <v>1.457E-2</v>
       </c>
       <c r="BF27">
-        <v>128.24829996904211</v>
+        <v>12.29306962269084</v>
       </c>
       <c r="BG27">
-        <v>128.24809999999999</v>
+        <v>11.6785</v>
       </c>
       <c r="BH27">
-        <v>128.24850000000001</v>
+        <v>13.054600000000001</v>
       </c>
       <c r="BI27">
-        <v>128.24809999999999</v>
+        <v>11.6785</v>
       </c>
       <c r="BJ27">
-        <v>1.8658600000000001</v>
+        <v>1.778650970065742</v>
       </c>
       <c r="BK27">
-        <v>1.8658600000000001</v>
+        <v>1.77776</v>
       </c>
       <c r="BL27">
-        <v>1.8658600000000001</v>
+        <v>1.7793699999999999</v>
       </c>
       <c r="BM27">
-        <v>1.8658600000000001</v>
+        <v>1.7793699999999999</v>
       </c>
       <c r="BN27">
-        <v>1.353466665643793</v>
+        <v>1.352007475140943</v>
       </c>
       <c r="BO27">
-        <v>1.3534600000000001</v>
+        <v>1.3513599999999999</v>
       </c>
       <c r="BP27">
-        <v>1.35347</v>
+        <v>1.35253</v>
       </c>
       <c r="BQ27">
-        <v>1.3534600000000001</v>
+        <v>1.35253</v>
       </c>
       <c r="BR27">
-        <v>96.338666716451996</v>
+        <v>95.358853016838054</v>
       </c>
       <c r="BS27">
-        <v>96.337999999999994</v>
+        <v>93.867999999999995</v>
       </c>
       <c r="BT27">
-        <v>96.338999999999999</v>
+        <v>96.561999999999998</v>
       </c>
       <c r="BU27">
-        <v>96.338999999999999</v>
+        <v>96.561999999999998</v>
       </c>
       <c r="BV27">
-        <v>55.009256197821657</v>
+        <v>54.354169402422187</v>
       </c>
       <c r="BW27">
-        <v>54.978047520661157</v>
+        <v>54.145144628099168</v>
       </c>
       <c r="BX27">
-        <v>55.029700413223139</v>
+        <v>54.522856404958667</v>
       </c>
       <c r="BY27">
-        <v>55.020015495867767</v>
+        <v>54.522856404958667</v>
       </c>
       <c r="BZ27">
-        <v>49.264227638954253</v>
+        <v>45.148222892942812</v>
       </c>
       <c r="CA27">
-        <v>49.252832400052093</v>
+        <v>45.106784737596037</v>
       </c>
       <c r="CB27">
-        <v>49.272366193514777</v>
+        <v>45.181664279203019</v>
       </c>
       <c r="CC27">
-        <v>49.26748274514911</v>
+        <v>45.181664279203019</v>
       </c>
       <c r="CD27">
-        <v>43.311733482914697</v>
+        <v>36.203796027359587</v>
       </c>
       <c r="CE27">
-        <v>43.297452324195483</v>
+        <v>36.164705005959483</v>
       </c>
       <c r="CF27">
-        <v>43.332836710369477</v>
+        <v>36.252234803337309</v>
       </c>
       <c r="CG27">
-        <v>43.332836710369477</v>
+        <v>36.164705005959483</v>
       </c>
       <c r="CH27">
-        <v>38.785488797903291</v>
+        <v>29.57525520799329</v>
       </c>
       <c r="CI27">
-        <v>38.77015001863586</v>
+        <v>29.53025997018263</v>
       </c>
       <c r="CJ27">
-        <v>38.805092247484147</v>
+        <v>29.631010063361909</v>
       </c>
       <c r="CK27">
-        <v>38.805092247484147</v>
+        <v>29.53025997018263</v>
       </c>
       <c r="CL27">
-        <v>34.210066493390997</v>
+        <v>24.4571301111156</v>
       </c>
       <c r="CM27">
-        <v>34.193253056917627</v>
+        <v>24.434780584693691</v>
       </c>
       <c r="CN27">
-        <v>34.229330891937188</v>
+        <v>24.484824033269199</v>
       </c>
       <c r="CO27">
-        <v>34.229330891937188</v>
+        <v>24.434780584693691</v>
       </c>
       <c r="CP27">
-        <v>2.8559934798264348</v>
+        <v>1.8</v>
       </c>
       <c r="CQ27">
-        <v>2.8556954952311591</v>
+        <v>1.8</v>
       </c>
       <c r="CR27">
-        <v>2.8564363482234931</v>
+        <v>1.8</v>
       </c>
       <c r="CS27">
-        <v>2.8556954952311591</v>
+        <v>1.8</v>
       </c>
       <c r="CT27">
         <v>1.1000000000000001</v>
@@ -51623,64 +51620,64 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CX27">
-        <v>3.288277561424334</v>
+        <v>3.3663608242812222</v>
       </c>
       <c r="CY27">
-        <v>3.2882763856671779</v>
+        <v>3.273969729922837</v>
       </c>
       <c r="CZ27">
-        <v>3.2882788927922388</v>
+        <v>3.4409222097383081</v>
       </c>
       <c r="DA27">
-        <v>3.2882788927922388</v>
+        <v>3.4409222097383081</v>
       </c>
       <c r="DB27">
-        <v>4.8668155664950534</v>
+        <v>6.6504269828667271</v>
       </c>
       <c r="DC27">
-        <v>4.8668129096919071</v>
+        <v>6.6132278303291567</v>
       </c>
       <c r="DD27">
-        <v>4.8668172929640967</v>
+        <v>6.696521491318812</v>
       </c>
       <c r="DE27">
-        <v>4.8668164964189158</v>
+        <v>6.6132278303291567</v>
       </c>
       <c r="DF27">
-        <v>4.0658621007396683</v>
+        <v>3.9786519784208672</v>
       </c>
       <c r="DG27">
-        <v>4.0658607087842578</v>
+        <v>3.9777630036932878</v>
       </c>
       <c r="DH27">
-        <v>4.0658631537936891</v>
+        <v>3.9793693980789522</v>
       </c>
       <c r="DI27">
-        <v>4.0658631537936891</v>
+        <v>3.9793693980789522</v>
       </c>
       <c r="DJ27">
-        <v>3.0149096834755449</v>
+        <v>3.3914947221367568</v>
       </c>
       <c r="DK27">
-        <v>3.014886393911024</v>
+        <v>3.3682751794638079</v>
       </c>
       <c r="DL27">
-        <v>3.014954256414577</v>
+        <v>3.4102333384871542</v>
       </c>
       <c r="DM27">
-        <v>3.014886393911024</v>
+        <v>3.4102333384871542</v>
       </c>
       <c r="DN27">
-        <v>2.8559934798264348</v>
+        <v>1.8</v>
       </c>
       <c r="DO27">
-        <v>2.8556954952311591</v>
+        <v>1.8</v>
       </c>
       <c r="DP27">
-        <v>2.8564363482234931</v>
+        <v>1.8</v>
       </c>
       <c r="DQ27">
-        <v>2.8556954952311591</v>
+        <v>1.8</v>
       </c>
       <c r="DR27">
         <v>1.1000000000000001</v>
@@ -51695,438 +51692,438 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="DV27">
-        <v>3.288277561424334</v>
+        <v>3.3663608242812222</v>
       </c>
       <c r="DW27">
-        <v>3.2882763856671779</v>
+        <v>3.273969729922837</v>
       </c>
       <c r="DX27">
-        <v>3.2882788927922388</v>
+        <v>3.4409222097383081</v>
       </c>
       <c r="DY27">
-        <v>3.2882788927922388</v>
+        <v>3.4409222097383081</v>
       </c>
       <c r="DZ27">
-        <v>4.8668155664950534</v>
+        <v>6.1766452345065934</v>
       </c>
       <c r="EA27">
-        <v>4.8668129096919071</v>
+        <v>6.1535504511330146</v>
       </c>
       <c r="EB27">
-        <v>4.8668172929640967</v>
+        <v>6.2052626253554131</v>
       </c>
       <c r="EC27">
-        <v>4.8668164964189158</v>
+        <v>6.1535504511330146</v>
       </c>
       <c r="ED27">
-        <v>4.0658621007396683</v>
+        <v>3.9786519784208672</v>
       </c>
       <c r="EE27">
-        <v>4.0658607087842578</v>
+        <v>3.9777630036932878</v>
       </c>
       <c r="EF27">
-        <v>4.0658631537936891</v>
+        <v>3.9793693980789522</v>
       </c>
       <c r="EG27">
-        <v>4.0658631537936891</v>
+        <v>3.9793693980789522</v>
       </c>
       <c r="EH27">
-        <v>3.0149096834755449</v>
+        <v>3.3914947221367568</v>
       </c>
       <c r="EI27">
-        <v>3.014886393911024</v>
+        <v>3.3682751794638079</v>
       </c>
       <c r="EJ27">
-        <v>3.014954256414577</v>
+        <v>3.4102333384871542</v>
       </c>
       <c r="EK27">
-        <v>3.014886393911024</v>
+        <v>3.4102333384871542</v>
       </c>
       <c r="EL27">
-        <v>1.999994522014634</v>
+        <v>1.999999977614362</v>
       </c>
       <c r="EM27">
-        <v>1.9999859579208961</v>
+        <v>1.9999999719250481</v>
       </c>
       <c r="EN27">
-        <v>1.999999451642501</v>
+        <v>1.9999999846641501</v>
       </c>
       <c r="EO27">
-        <v>1.999999451642501</v>
+        <v>1.9999999719250481</v>
       </c>
       <c r="EP27">
-        <v>10.054864090303271</v>
+        <v>11.70469533868067</v>
       </c>
       <c r="EQ27">
-        <v>10.054825584130381</v>
+        <v>10.558503045158339</v>
       </c>
       <c r="ER27">
-        <v>10.054937592745951</v>
+        <v>13.1249742094995</v>
       </c>
       <c r="ES27">
-        <v>10.05482910968078</v>
+        <v>10.558503045158339</v>
       </c>
       <c r="ET27">
-        <v>1.0533333435620729E-2</v>
+        <v>0.11682766055453241</v>
       </c>
       <c r="EU27">
-        <v>1.0533000000000001E-2</v>
+        <v>0.116507</v>
       </c>
       <c r="EV27">
-        <v>1.0534E-2</v>
+        <v>0.117225</v>
       </c>
       <c r="EW27">
-        <v>1.0534E-2</v>
+        <v>0.116507</v>
       </c>
       <c r="EX27">
-        <v>-0.19999200015478941</v>
+        <v>-0.12807600870294861</v>
       </c>
       <c r="EY27">
-        <v>-0.199993</v>
+        <v>-0.128971</v>
       </c>
       <c r="EZ27">
-        <v>-0.199991</v>
+        <v>-0.126967</v>
       </c>
       <c r="FA27">
-        <v>-0.199993</v>
+        <v>-0.128971</v>
       </c>
       <c r="FB27">
-        <v>2.3608204672472911E-2</v>
+        <v>0.11721964613607359</v>
       </c>
       <c r="FC27">
-        <v>2.3607307745695999E-2</v>
+        <v>0.11657297804379881</v>
       </c>
       <c r="FD27">
-        <v>2.36097297104392E-2</v>
+        <v>0.1180209506231838</v>
       </c>
       <c r="FE27">
-        <v>2.36097297104392E-2</v>
+        <v>0.11657297804379881</v>
       </c>
       <c r="FF27">
-        <v>0.30366651303835179</v>
+        <v>0.16312638149570219</v>
       </c>
       <c r="FG27">
-        <v>0.30366527801676629</v>
+        <v>0.14764984224509009</v>
       </c>
       <c r="FH27">
-        <v>0.30366836745864723</v>
+        <v>0.17561624555262531</v>
       </c>
       <c r="FI27">
-        <v>0.30366836745864723</v>
+        <v>0.17561624555262531</v>
       </c>
       <c r="FJ27">
-        <v>3.132433343562073E-2</v>
+        <v>3.4131961672962091E-2</v>
       </c>
       <c r="FK27">
-        <v>3.1323999999999998E-2</v>
+        <v>3.3680000000000002E-2</v>
       </c>
       <c r="FL27">
-        <v>3.1324999999999999E-2</v>
+        <v>3.4692000000000001E-2</v>
       </c>
       <c r="FM27">
-        <v>3.1324999999999999E-2</v>
+        <v>3.3680000000000002E-2</v>
       </c>
       <c r="FN27">
-        <v>-0.1159663334356207</v>
+        <v>-5.5623493373956327E-2</v>
       </c>
       <c r="FO27">
-        <v>-0.115967</v>
+        <v>-5.7200000000000001E-2</v>
       </c>
       <c r="FP27">
-        <v>-0.115966</v>
+        <v>-5.3670000000000002E-2</v>
       </c>
       <c r="FQ27">
-        <v>-0.115967</v>
+        <v>-5.7200000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="B28">
-        <v>-0.23550854360901791</v>
+        <v>-0.2252473453885111</v>
       </c>
       <c r="C28">
-        <v>-0.23558000000000001</v>
+        <v>-0.23018</v>
       </c>
       <c r="D28">
-        <v>-0.23541999999999999</v>
+        <v>-0.22387000000000001</v>
       </c>
       <c r="E28">
-        <v>-0.23558000000000001</v>
+        <v>-0.22387000000000001</v>
       </c>
       <c r="F28">
-        <v>-3.8371844830837047E-2</v>
+        <v>-5.9772807002745572E-2</v>
       </c>
       <c r="G28">
-        <v>-3.8559999999999997E-2</v>
+        <v>-6.1859999999999998E-2</v>
       </c>
       <c r="H28">
-        <v>-3.8219999999999997E-2</v>
+        <v>-5.919E-2</v>
       </c>
       <c r="I28">
-        <v>-3.8219999999999997E-2</v>
+        <v>-5.919E-2</v>
       </c>
       <c r="J28">
-        <v>0.1971366987781808</v>
+        <v>0.16547453838576551</v>
       </c>
       <c r="K28">
-        <v>0.19686000000000001</v>
+        <v>0.16467999999999999</v>
       </c>
       <c r="L28">
-        <v>0.19736000000000001</v>
+        <v>0.16832</v>
       </c>
       <c r="M28">
-        <v>0.19736000000000001</v>
+        <v>0.16467999999999999</v>
       </c>
       <c r="N28">
-        <v>-0.13694019421992751</v>
+        <v>-0.1425100761956283</v>
       </c>
       <c r="O28">
-        <v>-0.13699</v>
+        <v>-0.14602000000000001</v>
       </c>
       <c r="P28">
-        <v>-0.13689999999999999</v>
+        <v>-0.14152999999999999</v>
       </c>
       <c r="Q28">
-        <v>-0.13689999999999999</v>
+        <v>-0.14152999999999999</v>
       </c>
       <c r="R28">
-        <v>4.7560388439854911E-2</v>
+        <v>6.1370065036299187E-2</v>
       </c>
       <c r="S28">
-        <v>4.7480000000000001E-2</v>
+        <v>6.0819999999999999E-2</v>
       </c>
       <c r="T28">
-        <v>4.7660000000000001E-2</v>
+        <v>6.3339999999999994E-2</v>
       </c>
       <c r="U28">
-        <v>4.7480000000000001E-2</v>
+        <v>6.0819999999999999E-2</v>
       </c>
       <c r="V28">
-        <v>88.042200901311702</v>
+        <v>126.595379874814</v>
       </c>
       <c r="W28">
-        <v>87.965500000000006</v>
+        <v>123.678</v>
       </c>
       <c r="X28">
-        <v>88.104100000000003</v>
+        <v>127.41</v>
       </c>
       <c r="Y28">
-        <v>88.104100000000003</v>
+        <v>127.41</v>
       </c>
       <c r="Z28">
-        <v>117.99644670583309</v>
+        <v>147.17196432601921</v>
       </c>
       <c r="AA28">
-        <v>117.904</v>
+        <v>146.452</v>
       </c>
       <c r="AB28">
-        <v>118.111</v>
+        <v>147.37299999999999</v>
       </c>
       <c r="AC28">
-        <v>117.904</v>
+        <v>147.37299999999999</v>
       </c>
       <c r="AD28">
-        <v>3.7341565168724862</v>
+        <v>3.4761560320488649</v>
       </c>
       <c r="AE28">
-        <v>2.891</v>
+        <v>3.3513000000000002</v>
       </c>
       <c r="AF28">
-        <v>4.4146000000000001</v>
+        <v>3.9232999999999998</v>
       </c>
       <c r="AG28">
-        <v>4.4146000000000001</v>
+        <v>3.3513000000000002</v>
       </c>
       <c r="AH28">
-        <v>854.02572150891046</v>
+        <v>1230.043998187942</v>
       </c>
       <c r="AI28">
-        <v>704.43399999999997</v>
+        <v>1228.549</v>
       </c>
       <c r="AJ28">
-        <v>1039.3889999999999</v>
+        <v>1235.3979999999999</v>
       </c>
       <c r="AK28">
-        <v>704.43399999999997</v>
+        <v>1228.549</v>
       </c>
       <c r="AL28">
-        <v>0.9291162252175138</v>
+        <v>0.90885531183837143</v>
       </c>
       <c r="AM28">
-        <v>0.92858397421392558</v>
+        <v>0.90860009375131068</v>
       </c>
       <c r="AN28">
-        <v>0.92954576198741645</v>
+        <v>0.90976931836467689</v>
       </c>
       <c r="AO28">
-        <v>0.92954576198741645</v>
+        <v>0.90860009375131068</v>
       </c>
       <c r="AP28">
-        <v>261.59187673914198</v>
+        <v>298.89204784293321</v>
       </c>
       <c r="AQ28">
-        <v>261.43109552232949</v>
+        <v>298.46990507578761</v>
       </c>
       <c r="AR28">
-        <v>261.79110523365711</v>
+        <v>299.00992278845791</v>
       </c>
       <c r="AS28">
-        <v>261.43109552232949</v>
+        <v>299.00992278845791</v>
       </c>
       <c r="AT28">
-        <v>356.29935438942817</v>
+        <v>421.00497515417129</v>
       </c>
       <c r="AU28">
-        <v>356.2179830005702</v>
+        <v>420.74751916524423</v>
       </c>
       <c r="AV28">
-        <v>356.40018394912551</v>
+        <v>421.07686460255633</v>
       </c>
       <c r="AW28">
-        <v>356.2179830005702</v>
+        <v>421.07686460255633</v>
       </c>
       <c r="AX28">
-        <v>6.3744466541383965E-2</v>
+        <v>1.6524279442795299E-3</v>
       </c>
       <c r="AY28">
-        <v>6.3280000000000003E-2</v>
+        <v>-6.5399999999999998E-3</v>
       </c>
       <c r="AZ28">
-        <v>6.4320000000000002E-2</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="BA28">
-        <v>6.3280000000000003E-2</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="BB28">
-        <v>9.2375668229571321E-3</v>
+        <v>-3.8407227192690839E-3</v>
       </c>
       <c r="BC28">
-        <v>2.63E-3</v>
+        <v>-1.251E-2</v>
       </c>
       <c r="BD28">
-        <v>1.457E-2</v>
+        <v>-1.42E-3</v>
       </c>
       <c r="BE28">
-        <v>1.457E-2</v>
+        <v>-1.42E-3</v>
       </c>
       <c r="BF28">
-        <v>12.29306962269084</v>
+        <v>37.374437343032369</v>
       </c>
       <c r="BG28">
-        <v>11.6785</v>
+        <v>36.659199999999998</v>
       </c>
       <c r="BH28">
-        <v>13.054600000000001</v>
+        <v>39.935899999999997</v>
       </c>
       <c r="BI28">
-        <v>11.6785</v>
+        <v>36.659199999999998</v>
       </c>
       <c r="BJ28">
-        <v>1.778650970065742</v>
+        <v>1.783774464109813</v>
       </c>
       <c r="BK28">
-        <v>1.77776</v>
+        <v>1.78193</v>
       </c>
       <c r="BL28">
-        <v>1.7793699999999999</v>
+        <v>1.7903800000000001</v>
       </c>
       <c r="BM28">
-        <v>1.7793699999999999</v>
+        <v>1.78193</v>
       </c>
       <c r="BN28">
-        <v>1.352007475140943</v>
+        <v>1.3520539903764111</v>
       </c>
       <c r="BO28">
-        <v>1.3513599999999999</v>
+        <v>1.3508599999999999</v>
       </c>
       <c r="BP28">
-        <v>1.35253</v>
+        <v>1.35633</v>
       </c>
       <c r="BQ28">
-        <v>1.35253</v>
+        <v>1.3508599999999999</v>
       </c>
       <c r="BR28">
-        <v>95.358853016838054</v>
+        <v>94.317471309568049</v>
       </c>
       <c r="BS28">
-        <v>93.867999999999995</v>
+        <v>93.956000000000003</v>
       </c>
       <c r="BT28">
-        <v>96.561999999999998</v>
+        <v>95.611999999999995</v>
       </c>
       <c r="BU28">
-        <v>96.561999999999998</v>
+        <v>93.956000000000003</v>
       </c>
       <c r="BV28">
-        <v>54.354169402422187</v>
+        <v>55.873954245568292</v>
       </c>
       <c r="BW28">
-        <v>54.145144628099168</v>
+        <v>55.116864669421481</v>
       </c>
       <c r="BX28">
-        <v>54.522856404958667</v>
+        <v>56.085356404958667</v>
       </c>
       <c r="BY28">
-        <v>54.522856404958667</v>
+        <v>56.085356404958667</v>
       </c>
       <c r="BZ28">
-        <v>45.148222892942812</v>
+        <v>47.866598035445158</v>
       </c>
       <c r="CA28">
-        <v>45.106784737596037</v>
+        <v>47.268524547467123</v>
       </c>
       <c r="CB28">
-        <v>45.181664279203019</v>
+        <v>48.033598124755827</v>
       </c>
       <c r="CC28">
-        <v>45.181664279203019</v>
+        <v>48.033598124755827</v>
       </c>
       <c r="CD28">
-        <v>36.203796027359587</v>
+        <v>39.309695967825427</v>
       </c>
       <c r="CE28">
-        <v>36.164705005959483</v>
+        <v>38.874404052443381</v>
       </c>
       <c r="CF28">
-        <v>36.252234803337309</v>
+        <v>39.43124255065554</v>
       </c>
       <c r="CG28">
-        <v>36.164705005959483</v>
+        <v>39.43124255065554</v>
       </c>
       <c r="CH28">
-        <v>29.57525520799329</v>
+        <v>32.721851754470528</v>
       </c>
       <c r="CI28">
-        <v>29.53025997018263</v>
+        <v>32.386787178531492</v>
       </c>
       <c r="CJ28">
-        <v>29.631010063361909</v>
+        <v>32.815411852404033</v>
       </c>
       <c r="CK28">
-        <v>29.53025997018263</v>
+        <v>32.815411852404033</v>
       </c>
       <c r="CL28">
-        <v>24.4571301111156</v>
+        <v>27.37077546698222</v>
       </c>
       <c r="CM28">
-        <v>24.434780584693691</v>
+        <v>27.14333374712929</v>
       </c>
       <c r="CN28">
-        <v>24.484824033269199</v>
+        <v>27.434284029545029</v>
       </c>
       <c r="CO28">
-        <v>24.434780584693691</v>
+        <v>27.434284029545029</v>
       </c>
       <c r="CP28">
-        <v>1.8</v>
+        <v>1.803021538601673</v>
       </c>
       <c r="CQ28">
         <v>1.8</v>
       </c>
       <c r="CR28">
-        <v>1.8</v>
+        <v>1.813842503656377</v>
       </c>
       <c r="CS28">
         <v>1.8</v>
@@ -52144,61 +52141,61 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CX28">
-        <v>3.3663608242812222</v>
+        <v>4.3673926027215266</v>
       </c>
       <c r="CY28">
-        <v>3.273969729922837</v>
+        <v>4.3456231289442631</v>
       </c>
       <c r="CZ28">
-        <v>3.4409222097383081</v>
+        <v>4.3734712939494891</v>
       </c>
       <c r="DA28">
-        <v>3.4409222097383081</v>
+        <v>4.3734712939494891</v>
       </c>
       <c r="DB28">
-        <v>6.6504269828667271</v>
+        <v>7.9140090891365151</v>
       </c>
       <c r="DC28">
-        <v>6.6132278303291567</v>
+        <v>7.9137483021059012</v>
       </c>
       <c r="DD28">
-        <v>6.696521491318812</v>
+        <v>7.9149430395892519</v>
       </c>
       <c r="DE28">
-        <v>6.6132278303291567</v>
+        <v>7.9137483021059012</v>
       </c>
       <c r="DF28">
-        <v>3.9786519784208672</v>
+        <v>3.9837766030291539</v>
       </c>
       <c r="DG28">
-        <v>3.9777630036932878</v>
+        <v>3.9819313821479279</v>
       </c>
       <c r="DH28">
-        <v>3.9793693980789522</v>
+        <v>3.990384849126988</v>
       </c>
       <c r="DI28">
-        <v>3.9793693980789522</v>
+        <v>3.9819313821479279</v>
       </c>
       <c r="DJ28">
-        <v>3.3914947221367568</v>
+        <v>3.2654587021999628</v>
       </c>
       <c r="DK28">
-        <v>3.3682751794638079</v>
+        <v>3.2201218741345361</v>
       </c>
       <c r="DL28">
-        <v>3.4102333384871542</v>
+        <v>3.427822417134931</v>
       </c>
       <c r="DM28">
-        <v>3.4102333384871542</v>
+        <v>3.2201218741345361</v>
       </c>
       <c r="DN28">
-        <v>1.8</v>
+        <v>1.803021538601673</v>
       </c>
       <c r="DO28">
         <v>1.8</v>
       </c>
       <c r="DP28">
-        <v>1.8</v>
+        <v>1.813842503656377</v>
       </c>
       <c r="DQ28">
         <v>1.8</v>
@@ -52216,438 +52213,438 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="DV28">
-        <v>3.3663608242812222</v>
+        <v>4.3673926027215266</v>
       </c>
       <c r="DW28">
-        <v>3.273969729922837</v>
+        <v>4.3456231289442631</v>
       </c>
       <c r="DX28">
-        <v>3.4409222097383081</v>
+        <v>4.3734712939494891</v>
       </c>
       <c r="DY28">
-        <v>3.4409222097383081</v>
+        <v>4.3734712939494891</v>
       </c>
       <c r="DZ28">
-        <v>6.1766452345065934</v>
+        <v>6.1258670170063763</v>
       </c>
       <c r="EA28">
-        <v>6.1535504511330146</v>
+        <v>6.124543739315941</v>
       </c>
       <c r="EB28">
-        <v>6.2052626253554131</v>
+        <v>6.1306060402437224</v>
       </c>
       <c r="EC28">
-        <v>6.1535504511330146</v>
+        <v>6.124543739315941</v>
       </c>
       <c r="ED28">
-        <v>3.9786519784208672</v>
+        <v>3.9837766030291539</v>
       </c>
       <c r="EE28">
-        <v>3.9777630036932878</v>
+        <v>3.9819313821479279</v>
       </c>
       <c r="EF28">
-        <v>3.9793693980789522</v>
+        <v>3.990384849126988</v>
       </c>
       <c r="EG28">
-        <v>3.9793693980789522</v>
+        <v>3.9819313821479279</v>
       </c>
       <c r="EH28">
-        <v>3.3914947221367568</v>
+        <v>3.2654587021999628</v>
       </c>
       <c r="EI28">
-        <v>3.3682751794638079</v>
+        <v>3.2201218741345361</v>
       </c>
       <c r="EJ28">
-        <v>3.4102333384871542</v>
+        <v>3.427822417134931</v>
       </c>
       <c r="EK28">
-        <v>3.4102333384871542</v>
+        <v>3.2201218741345361</v>
       </c>
       <c r="EL28">
-        <v>1.999999977614362</v>
+        <v>0.60702163232679562</v>
       </c>
       <c r="EM28">
-        <v>1.9999999719250481</v>
+        <v>0.30296570340352252</v>
       </c>
       <c r="EN28">
-        <v>1.9999999846641501</v>
+        <v>1.6959299718502769</v>
       </c>
       <c r="EO28">
-        <v>1.9999999719250481</v>
+        <v>0.30296570340352252</v>
       </c>
       <c r="EP28">
-        <v>11.70469533868067</v>
+        <v>7.3071964464852037</v>
       </c>
       <c r="EQ28">
-        <v>10.558503045158339</v>
+        <v>6.2215298825067862</v>
       </c>
       <c r="ER28">
-        <v>13.1249742094995</v>
+        <v>11.19526855099668</v>
       </c>
       <c r="ES28">
-        <v>10.558503045158339</v>
+        <v>6.2215298825067862</v>
       </c>
       <c r="ET28">
-        <v>0.11682766055453241</v>
+        <v>0.1190829338477679</v>
       </c>
       <c r="EU28">
-        <v>0.116507</v>
+        <v>0.11695899999999999</v>
       </c>
       <c r="EV28">
-        <v>0.117225</v>
+        <v>0.119676</v>
       </c>
       <c r="EW28">
-        <v>0.116507</v>
+        <v>0.119676</v>
       </c>
       <c r="EX28">
-        <v>-0.12807600870294861</v>
+        <v>-0.10454555496866411</v>
       </c>
       <c r="EY28">
-        <v>-0.128971</v>
+        <v>-0.113182</v>
       </c>
       <c r="EZ28">
-        <v>-0.126967</v>
+        <v>-0.102134</v>
       </c>
       <c r="FA28">
-        <v>-0.128971</v>
+        <v>-0.102134</v>
       </c>
       <c r="FB28">
-        <v>0.11721964613607359</v>
+        <v>0.119606217657452</v>
       </c>
       <c r="FC28">
-        <v>0.11657297804379881</v>
+        <v>0.1182346737340616</v>
       </c>
       <c r="FD28">
-        <v>0.1180209506231838</v>
+        <v>0.1199891939342872</v>
       </c>
       <c r="FE28">
-        <v>0.11657297804379881</v>
+        <v>0.1199891939342872</v>
       </c>
       <c r="FF28">
-        <v>0.16312638149570219</v>
+        <v>0.1233948762927214</v>
       </c>
       <c r="FG28">
-        <v>0.14764984224509009</v>
+        <v>0.1158924397145905</v>
       </c>
       <c r="FH28">
-        <v>0.17561624555262531</v>
+        <v>0.15026317577171061</v>
       </c>
       <c r="FI28">
-        <v>0.17561624555262531</v>
+        <v>0.1158924397145905</v>
       </c>
       <c r="FJ28">
-        <v>3.4131961672962091E-2</v>
+        <v>2.1233605966120749E-2</v>
       </c>
       <c r="FK28">
-        <v>3.3680000000000002E-2</v>
+        <v>1.9394999999999999E-2</v>
       </c>
       <c r="FL28">
-        <v>3.4692000000000001E-2</v>
+        <v>2.1746999999999999E-2</v>
       </c>
       <c r="FM28">
-        <v>3.3680000000000002E-2</v>
+        <v>2.1746999999999999E-2</v>
       </c>
       <c r="FN28">
-        <v>-5.5623493373956327E-2</v>
+        <v>-3.2537253101536628E-2</v>
       </c>
       <c r="FO28">
-        <v>-5.7200000000000001E-2</v>
+        <v>-4.2247E-2</v>
       </c>
       <c r="FP28">
-        <v>-5.3670000000000002E-2</v>
+        <v>-2.9825999999999998E-2</v>
       </c>
       <c r="FQ28">
-        <v>-5.7200000000000001E-2</v>
+        <v>-2.9825999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B29">
-        <v>-0.2252473453885111</v>
+        <v>-0.22528000000000001</v>
       </c>
       <c r="C29">
-        <v>-0.23018</v>
+        <v>-0.22528000000000001</v>
       </c>
       <c r="D29">
-        <v>-0.22387000000000001</v>
+        <v>-0.22528000000000001</v>
       </c>
       <c r="E29">
-        <v>-0.22387000000000001</v>
+        <v>-0.22528000000000001</v>
       </c>
       <c r="F29">
-        <v>-5.9772807002745572E-2</v>
+        <v>-2.034E-2</v>
       </c>
       <c r="G29">
-        <v>-6.1859999999999998E-2</v>
+        <v>-2.034E-2</v>
       </c>
       <c r="H29">
-        <v>-5.919E-2</v>
+        <v>-2.034E-2</v>
       </c>
       <c r="I29">
-        <v>-5.919E-2</v>
+        <v>-2.034E-2</v>
       </c>
       <c r="J29">
-        <v>0.16547453838576551</v>
+        <v>0.20494000000000001</v>
       </c>
       <c r="K29">
-        <v>0.16467999999999999</v>
+        <v>0.20494000000000001</v>
       </c>
       <c r="L29">
-        <v>0.16832</v>
+        <v>0.20494000000000001</v>
       </c>
       <c r="M29">
-        <v>0.16467999999999999</v>
+        <v>0.20494000000000001</v>
       </c>
       <c r="N29">
-        <v>-0.1425100761956283</v>
+        <v>-0.12281</v>
       </c>
       <c r="O29">
-        <v>-0.14602000000000001</v>
+        <v>-0.12281</v>
       </c>
       <c r="P29">
-        <v>-0.14152999999999999</v>
+        <v>-0.12281</v>
       </c>
       <c r="Q29">
-        <v>-0.14152999999999999</v>
+        <v>-0.12281</v>
       </c>
       <c r="R29">
-        <v>6.1370065036299187E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="S29">
-        <v>6.0819999999999999E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="T29">
-        <v>6.3339999999999994E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="U29">
-        <v>6.0819999999999999E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="V29">
-        <v>126.595379874814</v>
+        <v>90.615899999999996</v>
       </c>
       <c r="W29">
-        <v>123.678</v>
+        <v>90.615899999999996</v>
       </c>
       <c r="X29">
-        <v>127.41</v>
+        <v>90.615899999999996</v>
       </c>
       <c r="Y29">
-        <v>127.41</v>
+        <v>90.615899999999996</v>
       </c>
       <c r="Z29">
-        <v>147.17196432601921</v>
+        <v>126.798</v>
       </c>
       <c r="AA29">
-        <v>146.452</v>
+        <v>126.798</v>
       </c>
       <c r="AB29">
-        <v>147.37299999999999</v>
+        <v>126.798</v>
       </c>
       <c r="AC29">
-        <v>147.37299999999999</v>
+        <v>126.798</v>
       </c>
       <c r="AD29">
-        <v>3.4761560320488649</v>
+        <v>1.4826999999999999</v>
       </c>
       <c r="AE29">
-        <v>3.3513000000000002</v>
+        <v>1.4826999999999999</v>
       </c>
       <c r="AF29">
-        <v>3.9232999999999998</v>
+        <v>1.4826999999999999</v>
       </c>
       <c r="AG29">
-        <v>3.3513000000000002</v>
+        <v>1.4826999999999999</v>
       </c>
       <c r="AH29">
-        <v>1230.043998187942</v>
+        <v>1117.2940000000001</v>
       </c>
       <c r="AI29">
-        <v>1228.549</v>
+        <v>1117.2940000000001</v>
       </c>
       <c r="AJ29">
-        <v>1235.3979999999999</v>
+        <v>1117.2940000000001</v>
       </c>
       <c r="AK29">
-        <v>1228.549</v>
+        <v>1117.2940000000001</v>
       </c>
       <c r="AL29">
-        <v>0.90885531183837143</v>
+        <v>0.92899905903705116</v>
       </c>
       <c r="AM29">
-        <v>0.90860009375131068</v>
+        <v>0.92899905903705116</v>
       </c>
       <c r="AN29">
-        <v>0.90976931836467689</v>
+        <v>0.92899905903705116</v>
       </c>
       <c r="AO29">
-        <v>0.90860009375131068</v>
+        <v>0.92899905903705116</v>
       </c>
       <c r="AP29">
-        <v>298.89204784293321</v>
+        <v>266.87150036534553</v>
       </c>
       <c r="AQ29">
-        <v>298.46990507578761</v>
+        <v>266.87150036534553</v>
       </c>
       <c r="AR29">
-        <v>299.00992278845791</v>
+        <v>266.87150036534553</v>
       </c>
       <c r="AS29">
-        <v>299.00992278845791</v>
+        <v>266.87150036534553</v>
       </c>
       <c r="AT29">
-        <v>421.00497515417129</v>
+        <v>367.07095382683599</v>
       </c>
       <c r="AU29">
-        <v>420.74751916524423</v>
+        <v>367.07095382683599</v>
       </c>
       <c r="AV29">
-        <v>421.07686460255633</v>
+        <v>367.07095382683599</v>
       </c>
       <c r="AW29">
-        <v>421.07686460255633</v>
+        <v>367.07095382683599</v>
       </c>
       <c r="AX29">
-        <v>1.6524279442795299E-3</v>
+        <v>-0.16408</v>
       </c>
       <c r="AY29">
-        <v>-6.5399999999999998E-3</v>
+        <v>-0.16408</v>
       </c>
       <c r="AZ29">
-        <v>3.9399999999999999E-3</v>
+        <v>-0.16408</v>
       </c>
       <c r="BA29">
-        <v>3.9399999999999999E-3</v>
+        <v>-0.16408</v>
       </c>
       <c r="BB29">
-        <v>-3.8407227192690839E-3</v>
+        <v>5.6299999999999996E-3</v>
       </c>
       <c r="BC29">
-        <v>-1.251E-2</v>
+        <v>5.6299999999999996E-3</v>
       </c>
       <c r="BD29">
-        <v>-1.42E-3</v>
+        <v>5.6299999999999996E-3</v>
       </c>
       <c r="BE29">
-        <v>-1.42E-3</v>
+        <v>5.6299999999999996E-3</v>
       </c>
       <c r="BF29">
-        <v>37.374437343032369</v>
+        <v>35.457900000000002</v>
       </c>
       <c r="BG29">
-        <v>36.659199999999998</v>
+        <v>35.457900000000002</v>
       </c>
       <c r="BH29">
-        <v>39.935899999999997</v>
+        <v>35.457900000000002</v>
       </c>
       <c r="BI29">
-        <v>36.659199999999998</v>
+        <v>35.457900000000002</v>
       </c>
       <c r="BJ29">
-        <v>1.783774464109813</v>
+        <v>1.7786599999999999</v>
       </c>
       <c r="BK29">
-        <v>1.78193</v>
+        <v>1.7786599999999999</v>
       </c>
       <c r="BL29">
-        <v>1.7903800000000001</v>
+        <v>1.7786599999999999</v>
       </c>
       <c r="BM29">
-        <v>1.78193</v>
+        <v>1.7786599999999999</v>
       </c>
       <c r="BN29">
-        <v>1.3520539903764111</v>
+        <v>1.35121</v>
       </c>
       <c r="BO29">
-        <v>1.3508599999999999</v>
+        <v>1.35121</v>
       </c>
       <c r="BP29">
-        <v>1.35633</v>
+        <v>1.35121</v>
       </c>
       <c r="BQ29">
-        <v>1.3508599999999999</v>
+        <v>1.35121</v>
       </c>
       <c r="BR29">
-        <v>94.317471309568049</v>
+        <v>96.741</v>
       </c>
       <c r="BS29">
-        <v>93.956000000000003</v>
+        <v>96.741</v>
       </c>
       <c r="BT29">
-        <v>95.611999999999995</v>
+        <v>96.741</v>
       </c>
       <c r="BU29">
-        <v>93.956000000000003</v>
+        <v>96.741</v>
       </c>
       <c r="BV29">
-        <v>55.873954245568292</v>
+        <v>54.752066115702483</v>
       </c>
       <c r="BW29">
-        <v>55.116864669421481</v>
+        <v>54.752066115702483</v>
       </c>
       <c r="BX29">
-        <v>56.085356404958667</v>
+        <v>54.752066115702483</v>
       </c>
       <c r="BY29">
-        <v>56.085356404958667</v>
+        <v>54.752066115702483</v>
       </c>
       <c r="BZ29">
-        <v>47.866598035445158</v>
+        <v>45.862091418153398</v>
       </c>
       <c r="CA29">
-        <v>47.268524547467123</v>
+        <v>45.862091418153398</v>
       </c>
       <c r="CB29">
-        <v>48.033598124755827</v>
+        <v>45.862091418153398</v>
       </c>
       <c r="CC29">
-        <v>48.033598124755827</v>
+        <v>45.862091418153398</v>
       </c>
       <c r="CD29">
-        <v>39.309695967825427</v>
+        <v>37.31562872467223</v>
       </c>
       <c r="CE29">
-        <v>38.874404052443381</v>
+        <v>37.31562872467223</v>
       </c>
       <c r="CF29">
-        <v>39.43124255065554</v>
+        <v>37.31562872467223</v>
       </c>
       <c r="CG29">
-        <v>39.43124255065554</v>
+        <v>37.31562872467223</v>
       </c>
       <c r="CH29">
-        <v>32.721851754470528</v>
+        <v>31.008316250465899</v>
       </c>
       <c r="CI29">
-        <v>32.386787178531492</v>
+        <v>31.008316250465899</v>
       </c>
       <c r="CJ29">
-        <v>32.815411852404033</v>
+        <v>31.008316250465899</v>
       </c>
       <c r="CK29">
-        <v>32.815411852404033</v>
+        <v>31.008316250465899</v>
       </c>
       <c r="CL29">
-        <v>27.37077546698222</v>
+        <v>25.932592638569918</v>
       </c>
       <c r="CM29">
-        <v>27.14333374712929</v>
+        <v>25.932592638569918</v>
       </c>
       <c r="CN29">
-        <v>27.434284029545029</v>
+        <v>25.932592638569918</v>
       </c>
       <c r="CO29">
-        <v>27.434284029545029</v>
+        <v>25.932592638569918</v>
       </c>
       <c r="CP29">
-        <v>1.803021538601673</v>
+        <v>1.8</v>
       </c>
       <c r="CQ29">
         <v>1.8</v>
       </c>
       <c r="CR29">
-        <v>1.813842503656377</v>
+        <v>1.8</v>
       </c>
       <c r="CS29">
         <v>1.8</v>
@@ -52665,61 +52662,61 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CX29">
-        <v>4.3673926027215266</v>
+        <v>3.3782250123956779</v>
       </c>
       <c r="CY29">
-        <v>4.3456231289442631</v>
+        <v>3.3782250123956779</v>
       </c>
       <c r="CZ29">
-        <v>4.3734712939494891</v>
+        <v>3.3782250123956779</v>
       </c>
       <c r="DA29">
-        <v>4.3734712939494891</v>
+        <v>3.3782250123956779</v>
       </c>
       <c r="DB29">
-        <v>7.9140090891365151</v>
+        <v>6.7173083460505278</v>
       </c>
       <c r="DC29">
-        <v>7.9137483021059012</v>
+        <v>6.7173083460505278</v>
       </c>
       <c r="DD29">
-        <v>7.9149430395892519</v>
+        <v>6.7173083460505278</v>
       </c>
       <c r="DE29">
-        <v>7.9137483021059012</v>
+        <v>6.7173083460505278</v>
       </c>
       <c r="DF29">
-        <v>3.9837766030291539</v>
+        <v>3.9786617101449382</v>
       </c>
       <c r="DG29">
-        <v>3.9819313821479279</v>
+        <v>3.9786617101449382</v>
       </c>
       <c r="DH29">
-        <v>3.990384849126988</v>
+        <v>3.9786617101449382</v>
       </c>
       <c r="DI29">
-        <v>3.9819313821479279</v>
+        <v>3.9786617101449382</v>
       </c>
       <c r="DJ29">
-        <v>3.2654587021999628</v>
+        <v>3.3959731094721519</v>
       </c>
       <c r="DK29">
-        <v>3.2201218741345361</v>
+        <v>3.3959731094721519</v>
       </c>
       <c r="DL29">
-        <v>3.427822417134931</v>
+        <v>3.3959731094721519</v>
       </c>
       <c r="DM29">
-        <v>3.2201218741345361</v>
+        <v>3.3959731094721519</v>
       </c>
       <c r="DN29">
-        <v>1.803021538601673</v>
+        <v>1.8</v>
       </c>
       <c r="DO29">
         <v>1.8</v>
       </c>
       <c r="DP29">
-        <v>1.813842503656377</v>
+        <v>1.8</v>
       </c>
       <c r="DQ29">
         <v>1.8</v>
@@ -52737,441 +52734,441 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="DV29">
-        <v>4.3673926027215266</v>
+        <v>3.3782250123956779</v>
       </c>
       <c r="DW29">
-        <v>4.3456231289442631</v>
+        <v>3.3782250123956779</v>
       </c>
       <c r="DX29">
-        <v>4.3734712939494891</v>
+        <v>3.3782250123956779</v>
       </c>
       <c r="DY29">
-        <v>4.3734712939494891</v>
+        <v>3.3782250123956779</v>
       </c>
       <c r="DZ29">
-        <v>6.1258670170063763</v>
+        <v>6.239909397629237</v>
       </c>
       <c r="EA29">
-        <v>6.124543739315941</v>
+        <v>6.239909397629237</v>
       </c>
       <c r="EB29">
-        <v>6.1306060402437224</v>
+        <v>6.239909397629237</v>
       </c>
       <c r="EC29">
-        <v>6.124543739315941</v>
+        <v>6.239909397629237</v>
       </c>
       <c r="ED29">
-        <v>3.9837766030291539</v>
+        <v>3.9786617101449382</v>
       </c>
       <c r="EE29">
-        <v>3.9819313821479279</v>
+        <v>3.9786617101449382</v>
       </c>
       <c r="EF29">
-        <v>3.990384849126988</v>
+        <v>3.9786617101449382</v>
       </c>
       <c r="EG29">
-        <v>3.9819313821479279</v>
+        <v>3.9786617101449382</v>
       </c>
       <c r="EH29">
-        <v>3.2654587021999628</v>
+        <v>3.3959731094721519</v>
       </c>
       <c r="EI29">
-        <v>3.2201218741345361</v>
+        <v>3.3959731094721519</v>
       </c>
       <c r="EJ29">
-        <v>3.427822417134931</v>
+        <v>3.3959731094721519</v>
       </c>
       <c r="EK29">
-        <v>3.2201218741345361</v>
+        <v>3.3959731094721519</v>
       </c>
       <c r="EL29">
-        <v>0.60702163232679562</v>
+        <v>1.999998604095331</v>
       </c>
       <c r="EM29">
-        <v>0.30296570340352252</v>
+        <v>1.999998604095331</v>
       </c>
       <c r="EN29">
-        <v>1.6959299718502769</v>
+        <v>1.999998604095331</v>
       </c>
       <c r="EO29">
-        <v>0.30296570340352252</v>
+        <v>1.999998604095331</v>
       </c>
       <c r="EP29">
-        <v>7.3071964464852037</v>
+        <v>10.59870226440232</v>
       </c>
       <c r="EQ29">
-        <v>6.2215298825067862</v>
+        <v>10.59870226440232</v>
       </c>
       <c r="ER29">
-        <v>11.19526855099668</v>
+        <v>10.59870226440232</v>
       </c>
       <c r="ES29">
-        <v>6.2215298825067862</v>
+        <v>10.59870226440232</v>
       </c>
       <c r="ET29">
-        <v>0.1190829338477679</v>
+        <v>-1.8121999999999999E-2</v>
       </c>
       <c r="EU29">
-        <v>0.11695899999999999</v>
+        <v>-1.8121999999999999E-2</v>
       </c>
       <c r="EV29">
-        <v>0.119676</v>
+        <v>-1.8121999999999999E-2</v>
       </c>
       <c r="EW29">
-        <v>0.119676</v>
+        <v>-1.8121999999999999E-2</v>
       </c>
       <c r="EX29">
-        <v>-0.10454555496866411</v>
+        <v>-0.138159</v>
       </c>
       <c r="EY29">
-        <v>-0.113182</v>
+        <v>-0.138159</v>
       </c>
       <c r="EZ29">
-        <v>-0.102134</v>
+        <v>-0.138159</v>
       </c>
       <c r="FA29">
-        <v>-0.102134</v>
+        <v>-0.138159</v>
       </c>
       <c r="FB29">
-        <v>0.119606217657452</v>
+        <v>4.2273753535734197E-2</v>
       </c>
       <c r="FC29">
-        <v>0.1182346737340616</v>
+        <v>4.2273753535734197E-2</v>
       </c>
       <c r="FD29">
-        <v>0.1199891939342872</v>
+        <v>4.2273753535734197E-2</v>
       </c>
       <c r="FE29">
-        <v>0.1199891939342872</v>
+        <v>4.2273753535734197E-2</v>
       </c>
       <c r="FF29">
-        <v>0.1233948762927214</v>
+        <v>0.1827588155438746</v>
       </c>
       <c r="FG29">
-        <v>0.1158924397145905</v>
+        <v>0.1827588155438746</v>
       </c>
       <c r="FH29">
-        <v>0.15026317577171061</v>
+        <v>0.1827588155438746</v>
       </c>
       <c r="FI29">
-        <v>0.1158924397145905</v>
+        <v>0.1827588155438746</v>
       </c>
       <c r="FJ29">
-        <v>2.1233605966120749E-2</v>
+        <v>-2.1284000000000001E-2</v>
       </c>
       <c r="FK29">
-        <v>1.9394999999999999E-2</v>
+        <v>-2.1284000000000001E-2</v>
       </c>
       <c r="FL29">
-        <v>2.1746999999999999E-2</v>
+        <v>-2.1284000000000001E-2</v>
       </c>
       <c r="FM29">
-        <v>2.1746999999999999E-2</v>
+        <v>-2.1284000000000001E-2</v>
       </c>
       <c r="FN29">
-        <v>-3.2537253101536628E-2</v>
+        <v>-5.7475999999999999E-2</v>
       </c>
       <c r="FO29">
-        <v>-4.2247E-2</v>
+        <v>-5.7475999999999999E-2</v>
       </c>
       <c r="FP29">
-        <v>-2.9825999999999998E-2</v>
+        <v>-5.7475999999999999E-2</v>
       </c>
       <c r="FQ29">
-        <v>-2.9825999999999998E-2</v>
+        <v>-5.7475999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B30">
-        <v>-0.22528000000000001</v>
+        <v>-0.21864</v>
       </c>
       <c r="C30">
-        <v>-0.22528000000000001</v>
+        <v>-0.21864</v>
       </c>
       <c r="D30">
-        <v>-0.22528000000000001</v>
+        <v>-0.21864</v>
       </c>
       <c r="E30">
-        <v>-0.22528000000000001</v>
+        <v>-0.21864</v>
       </c>
       <c r="F30">
-        <v>-2.034E-2</v>
+        <v>-1.9859999999999999E-2</v>
       </c>
       <c r="G30">
-        <v>-2.034E-2</v>
+        <v>-1.9859999999999999E-2</v>
       </c>
       <c r="H30">
-        <v>-2.034E-2</v>
+        <v>-1.9859999999999999E-2</v>
       </c>
       <c r="I30">
-        <v>-2.034E-2</v>
+        <v>-1.9859999999999999E-2</v>
       </c>
       <c r="J30">
-        <v>0.20494000000000001</v>
+        <v>0.19878000000000001</v>
       </c>
       <c r="K30">
-        <v>0.20494000000000001</v>
+        <v>0.19878000000000001</v>
       </c>
       <c r="L30">
-        <v>0.20494000000000001</v>
+        <v>0.19878000000000001</v>
       </c>
       <c r="M30">
-        <v>0.20494000000000001</v>
+        <v>0.19878000000000001</v>
       </c>
       <c r="N30">
-        <v>-0.12281</v>
+        <v>-0.11924999999999999</v>
       </c>
       <c r="O30">
-        <v>-0.12281</v>
+        <v>-0.11924999999999999</v>
       </c>
       <c r="P30">
-        <v>-0.12281</v>
+        <v>-0.11924999999999999</v>
       </c>
       <c r="Q30">
-        <v>-0.12281</v>
+        <v>-0.11924999999999999</v>
       </c>
       <c r="R30">
-        <v>3.6799999999999999E-2</v>
+        <v>3.5770000000000003E-2</v>
       </c>
       <c r="S30">
-        <v>3.6799999999999999E-2</v>
+        <v>3.5770000000000003E-2</v>
       </c>
       <c r="T30">
-        <v>3.6799999999999999E-2</v>
+        <v>3.5770000000000003E-2</v>
       </c>
       <c r="U30">
-        <v>3.6799999999999999E-2</v>
+        <v>3.5770000000000003E-2</v>
       </c>
       <c r="V30">
-        <v>90.615899999999996</v>
+        <v>101.874</v>
       </c>
       <c r="W30">
-        <v>90.615899999999996</v>
+        <v>101.874</v>
       </c>
       <c r="X30">
-        <v>90.615899999999996</v>
+        <v>101.874</v>
       </c>
       <c r="Y30">
-        <v>90.615899999999996</v>
+        <v>101.874</v>
       </c>
       <c r="Z30">
-        <v>126.798</v>
+        <v>146.83600000000001</v>
       </c>
       <c r="AA30">
-        <v>126.798</v>
+        <v>146.83600000000001</v>
       </c>
       <c r="AB30">
-        <v>126.798</v>
+        <v>146.83600000000001</v>
       </c>
       <c r="AC30">
-        <v>126.798</v>
+        <v>146.83600000000001</v>
       </c>
       <c r="AD30">
-        <v>1.4826999999999999</v>
+        <v>1.9374</v>
       </c>
       <c r="AE30">
-        <v>1.4826999999999999</v>
+        <v>1.9374</v>
       </c>
       <c r="AF30">
-        <v>1.4826999999999999</v>
+        <v>1.9374</v>
       </c>
       <c r="AG30">
-        <v>1.4826999999999999</v>
+        <v>1.9374</v>
       </c>
       <c r="AH30">
-        <v>1117.2940000000001</v>
+        <v>1105.0050000000001</v>
       </c>
       <c r="AI30">
-        <v>1117.2940000000001</v>
+        <v>1105.0050000000001</v>
       </c>
       <c r="AJ30">
-        <v>1117.2940000000001</v>
+        <v>1105.0050000000001</v>
       </c>
       <c r="AK30">
-        <v>1117.2940000000001</v>
+        <v>1105.0050000000001</v>
       </c>
       <c r="AL30">
-        <v>0.92899905903705116</v>
+        <v>0.9114977550664185</v>
       </c>
       <c r="AM30">
-        <v>0.92899905903705116</v>
+        <v>0.9114977550664185</v>
       </c>
       <c r="AN30">
-        <v>0.92899905903705116</v>
+        <v>0.9114977550664185</v>
       </c>
       <c r="AO30">
-        <v>0.92899905903705116</v>
+        <v>0.9114977550664185</v>
       </c>
       <c r="AP30">
-        <v>266.87150036534553</v>
+        <v>296.29144541896773</v>
       </c>
       <c r="AQ30">
-        <v>266.87150036534553</v>
+        <v>296.29144541896773</v>
       </c>
       <c r="AR30">
-        <v>266.87150036534553</v>
+        <v>296.29144541896773</v>
       </c>
       <c r="AS30">
-        <v>266.87150036534553</v>
+        <v>296.29144541896773</v>
       </c>
       <c r="AT30">
-        <v>367.07095382683599</v>
+        <v>417.33603658712701</v>
       </c>
       <c r="AU30">
-        <v>367.07095382683599</v>
+        <v>417.33603658712701</v>
       </c>
       <c r="AV30">
-        <v>367.07095382683599</v>
+        <v>417.33603658712701</v>
       </c>
       <c r="AW30">
-        <v>367.07095382683599</v>
+        <v>417.33603658712701</v>
       </c>
       <c r="AX30">
-        <v>-0.16408</v>
+        <v>-0.17476</v>
       </c>
       <c r="AY30">
-        <v>-0.16408</v>
+        <v>-0.17476</v>
       </c>
       <c r="AZ30">
-        <v>-0.16408</v>
+        <v>-0.17476</v>
       </c>
       <c r="BA30">
-        <v>-0.16408</v>
+        <v>-0.17476</v>
       </c>
       <c r="BB30">
-        <v>5.6299999999999996E-3</v>
+        <v>-3.3E-4</v>
       </c>
       <c r="BC30">
-        <v>5.6299999999999996E-3</v>
+        <v>-3.3E-4</v>
       </c>
       <c r="BD30">
-        <v>5.6299999999999996E-3</v>
+        <v>-3.3E-4</v>
       </c>
       <c r="BE30">
-        <v>5.6299999999999996E-3</v>
+        <v>-3.3E-4</v>
       </c>
       <c r="BF30">
-        <v>35.457900000000002</v>
+        <v>40.319299999999998</v>
       </c>
       <c r="BG30">
-        <v>35.457900000000002</v>
+        <v>40.319299999999998</v>
       </c>
       <c r="BH30">
-        <v>35.457900000000002</v>
+        <v>40.319299999999998</v>
       </c>
       <c r="BI30">
-        <v>35.457900000000002</v>
+        <v>40.319299999999998</v>
       </c>
       <c r="BJ30">
-        <v>1.7786599999999999</v>
+        <v>1.7794099999999999</v>
       </c>
       <c r="BK30">
-        <v>1.7786599999999999</v>
+        <v>1.7794099999999999</v>
       </c>
       <c r="BL30">
-        <v>1.7786599999999999</v>
+        <v>1.7794099999999999</v>
       </c>
       <c r="BM30">
-        <v>1.7786599999999999</v>
+        <v>1.7794099999999999</v>
       </c>
       <c r="BN30">
-        <v>1.35121</v>
+        <v>1.3512</v>
       </c>
       <c r="BO30">
-        <v>1.35121</v>
+        <v>1.3512</v>
       </c>
       <c r="BP30">
-        <v>1.35121</v>
+        <v>1.3512</v>
       </c>
       <c r="BQ30">
-        <v>1.35121</v>
+        <v>1.3512</v>
       </c>
       <c r="BR30">
-        <v>96.741</v>
+        <v>96.716999999999999</v>
       </c>
       <c r="BS30">
-        <v>96.741</v>
+        <v>96.716999999999999</v>
       </c>
       <c r="BT30">
-        <v>96.741</v>
+        <v>96.716999999999999</v>
       </c>
       <c r="BU30">
-        <v>96.741</v>
+        <v>96.716999999999999</v>
       </c>
       <c r="BV30">
-        <v>54.752066115702483</v>
+        <v>54.729467975206617</v>
       </c>
       <c r="BW30">
-        <v>54.752066115702483</v>
+        <v>54.729467975206617</v>
       </c>
       <c r="BX30">
-        <v>54.752066115702483</v>
+        <v>54.729467975206617</v>
       </c>
       <c r="BY30">
-        <v>54.752066115702483</v>
+        <v>54.729467975206617</v>
       </c>
       <c r="BZ30">
-        <v>45.862091418153398</v>
+        <v>45.770933715327523</v>
       </c>
       <c r="CA30">
-        <v>45.862091418153398</v>
+        <v>45.770933715327523</v>
       </c>
       <c r="CB30">
-        <v>45.862091418153398</v>
+        <v>45.770933715327523</v>
       </c>
       <c r="CC30">
-        <v>45.862091418153398</v>
+        <v>45.770933715327523</v>
       </c>
       <c r="CD30">
-        <v>37.31562872467223</v>
+        <v>37.232754767580452</v>
       </c>
       <c r="CE30">
-        <v>37.31562872467223</v>
+        <v>37.232754767580452</v>
       </c>
       <c r="CF30">
-        <v>37.31562872467223</v>
+        <v>37.232754767580452</v>
       </c>
       <c r="CG30">
-        <v>37.31562872467223</v>
+        <v>37.232754767580452</v>
       </c>
       <c r="CH30">
-        <v>31.008316250465899</v>
+        <v>30.945420238538951</v>
       </c>
       <c r="CI30">
-        <v>31.008316250465899</v>
+        <v>30.945420238538951</v>
       </c>
       <c r="CJ30">
-        <v>31.008316250465899</v>
+        <v>30.945420238538951</v>
       </c>
       <c r="CK30">
-        <v>31.008316250465899</v>
+        <v>30.945420238538951</v>
       </c>
       <c r="CL30">
-        <v>25.932592638569918</v>
+        <v>25.870911178697789</v>
       </c>
       <c r="CM30">
-        <v>25.932592638569918</v>
+        <v>25.870911178697789</v>
       </c>
       <c r="CN30">
-        <v>25.932592638569918</v>
+        <v>25.870911178697789</v>
       </c>
       <c r="CO30">
-        <v>25.932592638569918</v>
+        <v>25.870911178697789</v>
       </c>
       <c r="CP30">
-        <v>1.8</v>
+        <v>1.868333360134526</v>
       </c>
       <c r="CQ30">
-        <v>1.8</v>
+        <v>1.868333360134526</v>
       </c>
       <c r="CR30">
-        <v>1.8</v>
+        <v>1.868333360134526</v>
       </c>
       <c r="CS30">
-        <v>1.8</v>
+        <v>1.868333360134526</v>
       </c>
       <c r="CT30">
         <v>1.1000000000000001</v>
@@ -53186,64 +53183,64 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CX30">
-        <v>3.3782250123956779</v>
+        <v>3.3783054210237871</v>
       </c>
       <c r="CY30">
-        <v>3.3782250123956779</v>
+        <v>3.3783054210237871</v>
       </c>
       <c r="CZ30">
-        <v>3.3782250123956779</v>
+        <v>3.3783054210237871</v>
       </c>
       <c r="DA30">
-        <v>3.3782250123956779</v>
+        <v>3.3783054210237871</v>
       </c>
       <c r="DB30">
-        <v>6.7173083460505278</v>
+        <v>7.750270947179505</v>
       </c>
       <c r="DC30">
-        <v>6.7173083460505278</v>
+        <v>7.750270947179505</v>
       </c>
       <c r="DD30">
-        <v>6.7173083460505278</v>
+        <v>7.750270947179505</v>
       </c>
       <c r="DE30">
-        <v>6.7173083460505278</v>
+        <v>7.750270947179505</v>
       </c>
       <c r="DF30">
-        <v>3.9786617101449382</v>
+        <v>3.9794113448621902</v>
       </c>
       <c r="DG30">
-        <v>3.9786617101449382</v>
+        <v>3.9794113448621902</v>
       </c>
       <c r="DH30">
-        <v>3.9786617101449382</v>
+        <v>3.9794113448621902</v>
       </c>
       <c r="DI30">
-        <v>3.9786617101449382</v>
+        <v>3.9794113448621902</v>
       </c>
       <c r="DJ30">
-        <v>3.3959731094721519</v>
+        <v>3.392653293398769</v>
       </c>
       <c r="DK30">
-        <v>3.3959731094721519</v>
+        <v>3.392653293398769</v>
       </c>
       <c r="DL30">
-        <v>3.3959731094721519</v>
+        <v>3.392653293398769</v>
       </c>
       <c r="DM30">
-        <v>3.3959731094721519</v>
+        <v>3.392653293398769</v>
       </c>
       <c r="DN30">
-        <v>1.8</v>
+        <v>1.868333360134526</v>
       </c>
       <c r="DO30">
-        <v>1.8</v>
+        <v>1.868333360134526</v>
       </c>
       <c r="DP30">
-        <v>1.8</v>
+        <v>1.868333360134526</v>
       </c>
       <c r="DQ30">
-        <v>1.8</v>
+        <v>1.868333360134526</v>
       </c>
       <c r="DR30">
         <v>1.1000000000000001</v>
@@ -53258,441 +53255,441 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="DV30">
-        <v>3.3782250123956779</v>
+        <v>3.3783054210237871</v>
       </c>
       <c r="DW30">
-        <v>3.3782250123956779</v>
+        <v>3.3783054210237871</v>
       </c>
       <c r="DX30">
-        <v>3.3782250123956779</v>
+        <v>3.3783054210237871</v>
       </c>
       <c r="DY30">
-        <v>3.3782250123956779</v>
+        <v>3.3783054210237871</v>
       </c>
       <c r="DZ30">
-        <v>6.239909397629237</v>
+        <v>6.2650633545317884</v>
       </c>
       <c r="EA30">
-        <v>6.239909397629237</v>
+        <v>6.2650633545317884</v>
       </c>
       <c r="EB30">
-        <v>6.239909397629237</v>
+        <v>6.2650633545317884</v>
       </c>
       <c r="EC30">
-        <v>6.239909397629237</v>
+        <v>6.2650633545317884</v>
       </c>
       <c r="ED30">
-        <v>3.9786617101449382</v>
+        <v>3.9794113448621902</v>
       </c>
       <c r="EE30">
-        <v>3.9786617101449382</v>
+        <v>3.9794113448621902</v>
       </c>
       <c r="EF30">
-        <v>3.9786617101449382</v>
+        <v>3.9794113448621902</v>
       </c>
       <c r="EG30">
-        <v>3.9786617101449382</v>
+        <v>3.9794113448621902</v>
       </c>
       <c r="EH30">
-        <v>3.3959731094721519</v>
+        <v>3.392653293398769</v>
       </c>
       <c r="EI30">
-        <v>3.3959731094721519</v>
+        <v>3.392653293398769</v>
       </c>
       <c r="EJ30">
-        <v>3.3959731094721519</v>
+        <v>3.392653293398769</v>
       </c>
       <c r="EK30">
-        <v>3.3959731094721519</v>
+        <v>3.392653293398769</v>
       </c>
       <c r="EL30">
-        <v>1.999998604095331</v>
+        <v>1.999990317519297</v>
       </c>
       <c r="EM30">
-        <v>1.999998604095331</v>
+        <v>1.999990317519297</v>
       </c>
       <c r="EN30">
-        <v>1.999998604095331</v>
+        <v>1.999990317519297</v>
       </c>
       <c r="EO30">
-        <v>1.999998604095331</v>
+        <v>1.999990317519297</v>
       </c>
       <c r="EP30">
-        <v>10.59870226440232</v>
+        <v>10.60913794578663</v>
       </c>
       <c r="EQ30">
-        <v>10.59870226440232</v>
+        <v>10.60913794578663</v>
       </c>
       <c r="ER30">
-        <v>10.59870226440232</v>
+        <v>10.60913794578663</v>
       </c>
       <c r="ES30">
-        <v>10.59870226440232</v>
+        <v>10.60913794578663</v>
       </c>
       <c r="ET30">
-        <v>-1.8121999999999999E-2</v>
+        <v>-2.4809000000000001E-2</v>
       </c>
       <c r="EU30">
-        <v>-1.8121999999999999E-2</v>
+        <v>-2.4809000000000001E-2</v>
       </c>
       <c r="EV30">
-        <v>-1.8121999999999999E-2</v>
+        <v>-2.4809000000000001E-2</v>
       </c>
       <c r="EW30">
-        <v>-1.8121999999999999E-2</v>
+        <v>-2.4809000000000001E-2</v>
       </c>
       <c r="EX30">
-        <v>-0.138159</v>
+        <v>-0.14452200000000001</v>
       </c>
       <c r="EY30">
-        <v>-0.138159</v>
+        <v>-0.14452200000000001</v>
       </c>
       <c r="EZ30">
-        <v>-0.138159</v>
+        <v>-0.14452200000000001</v>
       </c>
       <c r="FA30">
-        <v>-0.138159</v>
+        <v>-0.14452200000000001</v>
       </c>
       <c r="FB30">
-        <v>4.2273753535734197E-2</v>
+        <v>4.6829611219825401E-2</v>
       </c>
       <c r="FC30">
-        <v>4.2273753535734197E-2</v>
+        <v>4.6829611219825401E-2</v>
       </c>
       <c r="FD30">
-        <v>4.2273753535734197E-2</v>
+        <v>4.6829611219825401E-2</v>
       </c>
       <c r="FE30">
-        <v>4.2273753535734197E-2</v>
+        <v>4.6829611219825401E-2</v>
       </c>
       <c r="FF30">
-        <v>0.1827588155438746</v>
+        <v>0.19128364385644689</v>
       </c>
       <c r="FG30">
-        <v>0.1827588155438746</v>
+        <v>0.19128364385644689</v>
       </c>
       <c r="FH30">
-        <v>0.1827588155438746</v>
+        <v>0.19128364385644689</v>
       </c>
       <c r="FI30">
-        <v>0.1827588155438746</v>
+        <v>0.19128364385644689</v>
       </c>
       <c r="FJ30">
-        <v>-2.1284000000000001E-2</v>
+        <v>-2.7975E-2</v>
       </c>
       <c r="FK30">
-        <v>-2.1284000000000001E-2</v>
+        <v>-2.7975E-2</v>
       </c>
       <c r="FL30">
-        <v>-2.1284000000000001E-2</v>
+        <v>-2.7975E-2</v>
       </c>
       <c r="FM30">
-        <v>-2.1284000000000001E-2</v>
+        <v>-2.7975E-2</v>
       </c>
       <c r="FN30">
-        <v>-5.7475999999999999E-2</v>
+        <v>-6.3920000000000005E-2</v>
       </c>
       <c r="FO30">
-        <v>-5.7475999999999999E-2</v>
+        <v>-6.3920000000000005E-2</v>
       </c>
       <c r="FP30">
-        <v>-5.7475999999999999E-2</v>
+        <v>-6.3920000000000005E-2</v>
       </c>
       <c r="FQ30">
-        <v>-5.7475999999999999E-2</v>
+        <v>-6.3920000000000005E-2</v>
       </c>
     </row>
     <row r="31" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B31">
-        <v>-0.21864</v>
+        <v>-0.22313</v>
       </c>
       <c r="C31">
-        <v>-0.21864</v>
+        <v>-0.22313</v>
       </c>
       <c r="D31">
-        <v>-0.21864</v>
+        <v>-0.22313</v>
       </c>
       <c r="E31">
-        <v>-0.21864</v>
+        <v>-0.22313</v>
       </c>
       <c r="F31">
-        <v>-1.9859999999999999E-2</v>
+        <v>-1.745E-2</v>
       </c>
       <c r="G31">
-        <v>-1.9859999999999999E-2</v>
+        <v>-1.745E-2</v>
       </c>
       <c r="H31">
-        <v>-1.9859999999999999E-2</v>
+        <v>-1.745E-2</v>
       </c>
       <c r="I31">
-        <v>-1.9859999999999999E-2</v>
+        <v>-1.745E-2</v>
       </c>
       <c r="J31">
-        <v>0.19878000000000001</v>
+        <v>0.20568</v>
       </c>
       <c r="K31">
-        <v>0.19878000000000001</v>
+        <v>0.20568</v>
       </c>
       <c r="L31">
-        <v>0.19878000000000001</v>
+        <v>0.20568</v>
       </c>
       <c r="M31">
-        <v>0.19878000000000001</v>
+        <v>0.20568</v>
       </c>
       <c r="N31">
-        <v>-0.11924999999999999</v>
+        <v>-0.12028999999999999</v>
       </c>
       <c r="O31">
-        <v>-0.11924999999999999</v>
+        <v>-0.12028999999999999</v>
       </c>
       <c r="P31">
-        <v>-0.11924999999999999</v>
+        <v>-0.12028999999999999</v>
       </c>
       <c r="Q31">
-        <v>-0.11924999999999999</v>
+        <v>-0.12028999999999999</v>
       </c>
       <c r="R31">
-        <v>3.5770000000000003E-2</v>
+        <v>3.5180000000000003E-2</v>
       </c>
       <c r="S31">
-        <v>3.5770000000000003E-2</v>
+        <v>3.5180000000000003E-2</v>
       </c>
       <c r="T31">
-        <v>3.5770000000000003E-2</v>
+        <v>3.5180000000000003E-2</v>
       </c>
       <c r="U31">
-        <v>3.5770000000000003E-2</v>
+        <v>3.5180000000000003E-2</v>
       </c>
       <c r="V31">
-        <v>101.874</v>
+        <v>94.683199999999999</v>
       </c>
       <c r="W31">
-        <v>101.874</v>
+        <v>94.683199999999999</v>
       </c>
       <c r="X31">
-        <v>101.874</v>
+        <v>94.683199999999999</v>
       </c>
       <c r="Y31">
-        <v>101.874</v>
+        <v>94.683199999999999</v>
       </c>
       <c r="Z31">
-        <v>146.83600000000001</v>
+        <v>146.87299999999999</v>
       </c>
       <c r="AA31">
-        <v>146.83600000000001</v>
+        <v>146.87299999999999</v>
       </c>
       <c r="AB31">
-        <v>146.83600000000001</v>
+        <v>146.87299999999999</v>
       </c>
       <c r="AC31">
-        <v>146.83600000000001</v>
+        <v>146.87299999999999</v>
       </c>
       <c r="AD31">
-        <v>1.9374</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="AE31">
-        <v>1.9374</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="AF31">
-        <v>1.9374</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="AG31">
-        <v>1.9374</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="AH31">
-        <v>1105.0050000000001</v>
+        <v>1078.6130000000001</v>
       </c>
       <c r="AI31">
-        <v>1105.0050000000001</v>
+        <v>1078.6130000000001</v>
       </c>
       <c r="AJ31">
-        <v>1105.0050000000001</v>
+        <v>1078.6130000000001</v>
       </c>
       <c r="AK31">
-        <v>1105.0050000000001</v>
+        <v>1078.6130000000001</v>
       </c>
       <c r="AL31">
-        <v>0.9114977550664185</v>
+        <v>0.92297579361754989</v>
       </c>
       <c r="AM31">
-        <v>0.9114977550664185</v>
+        <v>0.92297579361754989</v>
       </c>
       <c r="AN31">
-        <v>0.9114977550664185</v>
+        <v>0.92297579361754989</v>
       </c>
       <c r="AO31">
-        <v>0.9114977550664185</v>
+        <v>0.92297579361754989</v>
       </c>
       <c r="AP31">
-        <v>296.29144541896773</v>
+        <v>289.26156597879083</v>
       </c>
       <c r="AQ31">
-        <v>296.29144541896773</v>
+        <v>289.26156597879083</v>
       </c>
       <c r="AR31">
-        <v>296.29144541896773</v>
+        <v>289.26156597879083</v>
       </c>
       <c r="AS31">
-        <v>296.29144541896773</v>
+        <v>289.26156597879083</v>
       </c>
       <c r="AT31">
-        <v>417.33603658712701</v>
+        <v>410.19973885968261</v>
       </c>
       <c r="AU31">
-        <v>417.33603658712701</v>
+        <v>410.19973885968261</v>
       </c>
       <c r="AV31">
-        <v>417.33603658712701</v>
+        <v>410.19973885968261</v>
       </c>
       <c r="AW31">
-        <v>417.33603658712701</v>
+        <v>410.19973885968261</v>
       </c>
       <c r="AX31">
-        <v>-0.17476</v>
+        <v>-0.15833</v>
       </c>
       <c r="AY31">
-        <v>-0.17476</v>
+        <v>-0.15833</v>
       </c>
       <c r="AZ31">
-        <v>-0.17476</v>
+        <v>-0.15833</v>
       </c>
       <c r="BA31">
-        <v>-0.17476</v>
+        <v>-0.15833</v>
       </c>
       <c r="BB31">
-        <v>-3.3E-4</v>
+        <v>-1.6900000000000001E-3</v>
       </c>
       <c r="BC31">
-        <v>-3.3E-4</v>
+        <v>-1.6900000000000001E-3</v>
       </c>
       <c r="BD31">
-        <v>-3.3E-4</v>
+        <v>-1.6900000000000001E-3</v>
       </c>
       <c r="BE31">
-        <v>-3.3E-4</v>
+        <v>-1.6900000000000001E-3</v>
       </c>
       <c r="BF31">
-        <v>40.319299999999998</v>
+        <v>35.825800000000001</v>
       </c>
       <c r="BG31">
-        <v>40.319299999999998</v>
+        <v>35.825800000000001</v>
       </c>
       <c r="BH31">
-        <v>40.319299999999998</v>
+        <v>35.825800000000001</v>
       </c>
       <c r="BI31">
-        <v>40.319299999999998</v>
+        <v>35.825800000000001</v>
       </c>
       <c r="BJ31">
-        <v>1.7794099999999999</v>
+        <v>1.7824</v>
       </c>
       <c r="BK31">
-        <v>1.7794099999999999</v>
+        <v>1.7824</v>
       </c>
       <c r="BL31">
-        <v>1.7794099999999999</v>
+        <v>1.7824</v>
       </c>
       <c r="BM31">
-        <v>1.7794099999999999</v>
+        <v>1.7824</v>
       </c>
       <c r="BN31">
-        <v>1.3512</v>
+        <v>1.3510800000000001</v>
       </c>
       <c r="BO31">
-        <v>1.3512</v>
+        <v>1.3510800000000001</v>
       </c>
       <c r="BP31">
-        <v>1.3512</v>
+        <v>1.3510800000000001</v>
       </c>
       <c r="BQ31">
-        <v>1.3512</v>
+        <v>1.3510800000000001</v>
       </c>
       <c r="BR31">
-        <v>96.716999999999999</v>
+        <v>96.248999999999995</v>
       </c>
       <c r="BS31">
-        <v>96.716999999999999</v>
+        <v>96.248999999999995</v>
       </c>
       <c r="BT31">
-        <v>96.716999999999999</v>
+        <v>96.248999999999995</v>
       </c>
       <c r="BU31">
-        <v>96.716999999999999</v>
+        <v>96.248999999999995</v>
       </c>
       <c r="BV31">
-        <v>54.729467975206617</v>
+        <v>56.882747933884289</v>
       </c>
       <c r="BW31">
-        <v>54.729467975206617</v>
+        <v>56.882747933884289</v>
       </c>
       <c r="BX31">
-        <v>54.729467975206617</v>
+        <v>56.882747933884289</v>
       </c>
       <c r="BY31">
-        <v>54.729467975206617</v>
+        <v>56.882747933884289</v>
       </c>
       <c r="BZ31">
-        <v>45.770933715327523</v>
+        <v>49.505143898945178</v>
       </c>
       <c r="CA31">
-        <v>45.770933715327523</v>
+        <v>49.505143898945178</v>
       </c>
       <c r="CB31">
-        <v>45.770933715327523</v>
+        <v>49.505143898945178</v>
       </c>
       <c r="CC31">
-        <v>45.770933715327523</v>
+        <v>49.505143898945178</v>
       </c>
       <c r="CD31">
-        <v>37.232754767580452</v>
+        <v>41.876489868891539</v>
       </c>
       <c r="CE31">
-        <v>37.232754767580452</v>
+        <v>41.876489868891539</v>
       </c>
       <c r="CF31">
-        <v>37.232754767580452</v>
+        <v>41.876489868891539</v>
       </c>
       <c r="CG31">
-        <v>37.232754767580452</v>
+        <v>41.876489868891539</v>
       </c>
       <c r="CH31">
-        <v>30.945420238538951</v>
+        <v>35.964289042117031</v>
       </c>
       <c r="CI31">
-        <v>30.945420238538951</v>
+        <v>35.964289042117031</v>
       </c>
       <c r="CJ31">
-        <v>30.945420238538951</v>
+        <v>35.964289042117031</v>
       </c>
       <c r="CK31">
-        <v>30.945420238538951</v>
+        <v>35.964289042117031</v>
       </c>
       <c r="CL31">
-        <v>25.870911178697789</v>
+        <v>30.87641983737819</v>
       </c>
       <c r="CM31">
-        <v>25.870911178697789</v>
+        <v>30.87641983737819</v>
       </c>
       <c r="CN31">
-        <v>25.870911178697789</v>
+        <v>30.87641983737819</v>
       </c>
       <c r="CO31">
-        <v>25.870911178697789</v>
+        <v>30.87641983737819</v>
       </c>
       <c r="CP31">
-        <v>1.868333360134526</v>
+        <v>1.8</v>
       </c>
       <c r="CQ31">
-        <v>1.868333360134526</v>
+        <v>1.8</v>
       </c>
       <c r="CR31">
-        <v>1.868333360134526</v>
+        <v>1.8</v>
       </c>
       <c r="CS31">
-        <v>1.868333360134526</v>
+        <v>1.8</v>
       </c>
       <c r="CT31">
         <v>1.1000000000000001</v>
@@ -53707,64 +53704,64 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CX31">
-        <v>3.3783054210237871</v>
+        <v>4.5096418727072667</v>
       </c>
       <c r="CY31">
-        <v>3.3783054210237871</v>
+        <v>4.5096418727072667</v>
       </c>
       <c r="CZ31">
-        <v>3.3783054210237871</v>
+        <v>4.5096418727072667</v>
       </c>
       <c r="DA31">
-        <v>3.3783054210237871</v>
+        <v>4.5096418727072667</v>
       </c>
       <c r="DB31">
-        <v>7.750270947179505</v>
+        <v>6.7284039075165349</v>
       </c>
       <c r="DC31">
-        <v>7.750270947179505</v>
+        <v>6.7284039075165349</v>
       </c>
       <c r="DD31">
-        <v>7.750270947179505</v>
+        <v>6.7284039075165349</v>
       </c>
       <c r="DE31">
-        <v>7.750270947179505</v>
+        <v>6.7284039075165349</v>
       </c>
       <c r="DF31">
-        <v>3.9794113448621902</v>
+        <v>3.9823969772242109</v>
       </c>
       <c r="DG31">
-        <v>3.9794113448621902</v>
+        <v>3.9823969772242109</v>
       </c>
       <c r="DH31">
-        <v>3.9794113448621902</v>
+        <v>3.9823969772242109</v>
       </c>
       <c r="DI31">
-        <v>3.9794113448621902</v>
+        <v>3.9823969772242109</v>
       </c>
       <c r="DJ31">
-        <v>3.392653293398769</v>
+        <v>3.4205239599798931</v>
       </c>
       <c r="DK31">
-        <v>3.392653293398769</v>
+        <v>3.4205239599798931</v>
       </c>
       <c r="DL31">
-        <v>3.392653293398769</v>
+        <v>3.4205239599798931</v>
       </c>
       <c r="DM31">
-        <v>3.392653293398769</v>
+        <v>3.4205239599798931</v>
       </c>
       <c r="DN31">
-        <v>1.868333360134526</v>
+        <v>1.8</v>
       </c>
       <c r="DO31">
-        <v>1.868333360134526</v>
+        <v>1.8</v>
       </c>
       <c r="DP31">
-        <v>1.868333360134526</v>
+        <v>1.8</v>
       </c>
       <c r="DQ31">
-        <v>1.868333360134526</v>
+        <v>1.8</v>
       </c>
       <c r="DR31">
         <v>1.1000000000000001</v>
@@ -53779,441 +53776,441 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="DV31">
-        <v>3.3783054210237871</v>
+        <v>4.5096418727072667</v>
       </c>
       <c r="DW31">
-        <v>3.3783054210237871</v>
+        <v>4.5096418727072667</v>
       </c>
       <c r="DX31">
-        <v>3.3783054210237871</v>
+        <v>4.5096418727072667</v>
       </c>
       <c r="DY31">
-        <v>3.3783054210237871</v>
+        <v>4.5096418727072667</v>
       </c>
       <c r="DZ31">
-        <v>6.2650633545317884</v>
+        <v>6.247897926856699</v>
       </c>
       <c r="EA31">
-        <v>6.2650633545317884</v>
+        <v>6.247897926856699</v>
       </c>
       <c r="EB31">
-        <v>6.2650633545317884</v>
+        <v>6.247897926856699</v>
       </c>
       <c r="EC31">
-        <v>6.2650633545317884</v>
+        <v>6.247897926856699</v>
       </c>
       <c r="ED31">
-        <v>3.9794113448621902</v>
+        <v>3.9823969772242109</v>
       </c>
       <c r="EE31">
-        <v>3.9794113448621902</v>
+        <v>3.9823969772242109</v>
       </c>
       <c r="EF31">
-        <v>3.9794113448621902</v>
+        <v>3.9823969772242109</v>
       </c>
       <c r="EG31">
-        <v>3.9794113448621902</v>
+        <v>3.9823969772242109</v>
       </c>
       <c r="EH31">
-        <v>3.392653293398769</v>
+        <v>3.4205239599798931</v>
       </c>
       <c r="EI31">
-        <v>3.392653293398769</v>
+        <v>3.4205239599798931</v>
       </c>
       <c r="EJ31">
-        <v>3.392653293398769</v>
+        <v>3.4205239599798931</v>
       </c>
       <c r="EK31">
-        <v>3.392653293398769</v>
+        <v>3.4205239599798931</v>
       </c>
       <c r="EL31">
-        <v>1.999990317519297</v>
+        <v>1.999998974271562</v>
       </c>
       <c r="EM31">
-        <v>1.999990317519297</v>
+        <v>1.999998974271562</v>
       </c>
       <c r="EN31">
-        <v>1.999990317519297</v>
+        <v>1.999998974271562</v>
       </c>
       <c r="EO31">
-        <v>1.999990317519297</v>
+        <v>1.999998974271562</v>
       </c>
       <c r="EP31">
-        <v>10.60913794578663</v>
+        <v>10.63755256997926</v>
       </c>
       <c r="EQ31">
-        <v>10.60913794578663</v>
+        <v>10.63755256997926</v>
       </c>
       <c r="ER31">
-        <v>10.60913794578663</v>
+        <v>10.63755256997926</v>
       </c>
       <c r="ES31">
-        <v>10.60913794578663</v>
+        <v>10.63755256997926</v>
       </c>
       <c r="ET31">
-        <v>-2.4809000000000001E-2</v>
+        <v>-1.9737000000000001E-2</v>
       </c>
       <c r="EU31">
-        <v>-2.4809000000000001E-2</v>
+        <v>-1.9737000000000001E-2</v>
       </c>
       <c r="EV31">
-        <v>-2.4809000000000001E-2</v>
+        <v>-1.9737000000000001E-2</v>
       </c>
       <c r="EW31">
-        <v>-2.4809000000000001E-2</v>
+        <v>-1.9737000000000001E-2</v>
       </c>
       <c r="EX31">
-        <v>-0.14452200000000001</v>
+        <v>-0.13089200000000001</v>
       </c>
       <c r="EY31">
-        <v>-0.14452200000000001</v>
+        <v>-0.13089200000000001</v>
       </c>
       <c r="EZ31">
-        <v>-0.14452200000000001</v>
+        <v>-0.13089200000000001</v>
       </c>
       <c r="FA31">
-        <v>-0.14452200000000001</v>
+        <v>-0.13089200000000001</v>
       </c>
       <c r="FB31">
-        <v>4.6829611219825401E-2</v>
+        <v>4.2330596038799101E-2</v>
       </c>
       <c r="FC31">
-        <v>4.6829611219825401E-2</v>
+        <v>4.2330596038799101E-2</v>
       </c>
       <c r="FD31">
-        <v>4.6829611219825401E-2</v>
+        <v>4.2330596038799101E-2</v>
       </c>
       <c r="FE31">
-        <v>4.6829611219825401E-2</v>
+        <v>4.2330596038799101E-2</v>
       </c>
       <c r="FF31">
-        <v>0.19128364385644689</v>
+        <v>0.1703040355863594</v>
       </c>
       <c r="FG31">
-        <v>0.19128364385644689</v>
+        <v>0.1703040355863594</v>
       </c>
       <c r="FH31">
-        <v>0.19128364385644689</v>
+        <v>0.1703040355863594</v>
       </c>
       <c r="FI31">
-        <v>0.19128364385644689</v>
+        <v>0.1703040355863594</v>
       </c>
       <c r="FJ31">
-        <v>-2.7975E-2</v>
+        <v>-2.4705999999999999E-2</v>
       </c>
       <c r="FK31">
-        <v>-2.7975E-2</v>
+        <v>-2.4705999999999999E-2</v>
       </c>
       <c r="FL31">
-        <v>-2.7975E-2</v>
+        <v>-2.4705999999999999E-2</v>
       </c>
       <c r="FM31">
-        <v>-2.7975E-2</v>
+        <v>-2.4705999999999999E-2</v>
       </c>
       <c r="FN31">
-        <v>-6.3920000000000005E-2</v>
+        <v>-4.8559999999999999E-2</v>
       </c>
       <c r="FO31">
-        <v>-6.3920000000000005E-2</v>
+        <v>-4.8559999999999999E-2</v>
       </c>
       <c r="FP31">
-        <v>-6.3920000000000005E-2</v>
+        <v>-4.8559999999999999E-2</v>
       </c>
       <c r="FQ31">
-        <v>-6.3920000000000005E-2</v>
+        <v>-4.8559999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B32">
-        <v>-0.22313</v>
+        <v>-0.22098000000000001</v>
       </c>
       <c r="C32">
-        <v>-0.22313</v>
+        <v>-0.22098000000000001</v>
       </c>
       <c r="D32">
-        <v>-0.22313</v>
+        <v>-0.22098000000000001</v>
       </c>
       <c r="E32">
-        <v>-0.22313</v>
+        <v>-0.22098000000000001</v>
       </c>
       <c r="F32">
-        <v>-1.745E-2</v>
+        <v>-1.44E-2</v>
       </c>
       <c r="G32">
-        <v>-1.745E-2</v>
+        <v>-1.44E-2</v>
       </c>
       <c r="H32">
-        <v>-1.745E-2</v>
+        <v>-1.44E-2</v>
       </c>
       <c r="I32">
-        <v>-1.745E-2</v>
+        <v>-1.44E-2</v>
       </c>
       <c r="J32">
-        <v>0.20568</v>
+        <v>0.20658000000000001</v>
       </c>
       <c r="K32">
-        <v>0.20568</v>
+        <v>0.20658000000000001</v>
       </c>
       <c r="L32">
-        <v>0.20568</v>
+        <v>0.20658000000000001</v>
       </c>
       <c r="M32">
-        <v>0.20568</v>
+        <v>0.20658000000000001</v>
       </c>
       <c r="N32">
-        <v>-0.12028999999999999</v>
+        <v>-0.11769</v>
       </c>
       <c r="O32">
-        <v>-0.12028999999999999</v>
+        <v>-0.11769</v>
       </c>
       <c r="P32">
-        <v>-0.12028999999999999</v>
+        <v>-0.11769</v>
       </c>
       <c r="Q32">
-        <v>-0.12028999999999999</v>
+        <v>-0.11769</v>
       </c>
       <c r="R32">
-        <v>3.5180000000000003E-2</v>
+        <v>3.3520000000000001E-2</v>
       </c>
       <c r="S32">
-        <v>3.5180000000000003E-2</v>
+        <v>3.3520000000000001E-2</v>
       </c>
       <c r="T32">
-        <v>3.5180000000000003E-2</v>
+        <v>3.3520000000000001E-2</v>
       </c>
       <c r="U32">
-        <v>3.5180000000000003E-2</v>
+        <v>3.3520000000000001E-2</v>
       </c>
       <c r="V32">
-        <v>94.683199999999999</v>
+        <v>99.535700000000006</v>
       </c>
       <c r="W32">
-        <v>94.683199999999999</v>
+        <v>99.535700000000006</v>
       </c>
       <c r="X32">
-        <v>94.683199999999999</v>
+        <v>99.535700000000006</v>
       </c>
       <c r="Y32">
-        <v>94.683199999999999</v>
+        <v>99.535700000000006</v>
       </c>
       <c r="Z32">
-        <v>146.87299999999999</v>
+        <v>166.89400000000001</v>
       </c>
       <c r="AA32">
-        <v>146.87299999999999</v>
+        <v>166.89400000000001</v>
       </c>
       <c r="AB32">
-        <v>146.87299999999999</v>
+        <v>166.89400000000001</v>
       </c>
       <c r="AC32">
-        <v>146.87299999999999</v>
+        <v>166.89400000000001</v>
       </c>
       <c r="AD32">
-        <v>0.86270000000000002</v>
+        <v>1.1942999999999999</v>
       </c>
       <c r="AE32">
-        <v>0.86270000000000002</v>
+        <v>1.1942999999999999</v>
       </c>
       <c r="AF32">
-        <v>0.86270000000000002</v>
+        <v>1.1942999999999999</v>
       </c>
       <c r="AG32">
-        <v>0.86270000000000002</v>
+        <v>1.1942999999999999</v>
       </c>
       <c r="AH32">
-        <v>1078.6130000000001</v>
+        <v>1297.679686604808</v>
       </c>
       <c r="AI32">
-        <v>1078.6130000000001</v>
+        <v>1155.9079999999999</v>
       </c>
       <c r="AJ32">
-        <v>1078.6130000000001</v>
+        <v>1439.432</v>
       </c>
       <c r="AK32">
-        <v>1078.6130000000001</v>
+        <v>1439.432</v>
       </c>
       <c r="AL32">
-        <v>0.92297579361754989</v>
+        <v>0.91695379017691803</v>
       </c>
       <c r="AM32">
-        <v>0.92297579361754989</v>
+        <v>0.9169457786401024</v>
       </c>
       <c r="AN32">
-        <v>0.92297579361754989</v>
+        <v>0.91696180061895105</v>
       </c>
       <c r="AO32">
-        <v>0.92297579361754989</v>
+        <v>0.91696180061895105</v>
       </c>
       <c r="AP32">
-        <v>289.26156597879083</v>
+        <v>310.48660122470483</v>
       </c>
       <c r="AQ32">
-        <v>289.26156597879083</v>
+        <v>310.44160516340793</v>
       </c>
       <c r="AR32">
-        <v>289.26156597879083</v>
+        <v>310.53160343558818</v>
       </c>
       <c r="AS32">
-        <v>289.26156597879083</v>
+        <v>310.44160516340793</v>
       </c>
       <c r="AT32">
-        <v>410.19973885968261</v>
+        <v>451.70956346805349</v>
       </c>
       <c r="AU32">
-        <v>410.19973885968261</v>
+        <v>451.61728924795551</v>
       </c>
       <c r="AV32">
-        <v>410.19973885968261</v>
+        <v>451.80185029921768</v>
       </c>
       <c r="AW32">
-        <v>410.19973885968261</v>
+        <v>451.61728924795551</v>
       </c>
       <c r="AX32">
-        <v>-0.15833</v>
+        <v>-0.15642</v>
       </c>
       <c r="AY32">
-        <v>-0.15833</v>
+        <v>-0.15642</v>
       </c>
       <c r="AZ32">
-        <v>-0.15833</v>
+        <v>-0.15642</v>
       </c>
       <c r="BA32">
-        <v>-0.15833</v>
+        <v>-0.15642</v>
       </c>
       <c r="BB32">
-        <v>-1.6900000000000001E-3</v>
+        <v>-9.1900000000000003E-3</v>
       </c>
       <c r="BC32">
-        <v>-1.6900000000000001E-3</v>
+        <v>-9.1900000000000003E-3</v>
       </c>
       <c r="BD32">
-        <v>-1.6900000000000001E-3</v>
+        <v>-9.1900000000000003E-3</v>
       </c>
       <c r="BE32">
-        <v>-1.6900000000000001E-3</v>
+        <v>-9.1900000000000003E-3</v>
       </c>
       <c r="BF32">
-        <v>35.825800000000001</v>
+        <v>36.892099999999999</v>
       </c>
       <c r="BG32">
-        <v>35.825800000000001</v>
+        <v>36.892099999999999</v>
       </c>
       <c r="BH32">
-        <v>35.825800000000001</v>
+        <v>36.892099999999999</v>
       </c>
       <c r="BI32">
-        <v>35.825800000000001</v>
+        <v>36.892099999999999</v>
       </c>
       <c r="BJ32">
-        <v>1.7824</v>
+        <v>1.7865200000000001</v>
       </c>
       <c r="BK32">
-        <v>1.7824</v>
+        <v>1.7865200000000001</v>
       </c>
       <c r="BL32">
-        <v>1.7824</v>
+        <v>1.7865200000000001</v>
       </c>
       <c r="BM32">
-        <v>1.7824</v>
+        <v>1.7865200000000001</v>
       </c>
       <c r="BN32">
-        <v>1.3510800000000001</v>
+        <v>1.3465199999999999</v>
       </c>
       <c r="BO32">
-        <v>1.3510800000000001</v>
+        <v>1.3465199999999999</v>
       </c>
       <c r="BP32">
-        <v>1.3510800000000001</v>
+        <v>1.3465199999999999</v>
       </c>
       <c r="BQ32">
-        <v>1.3510800000000001</v>
+        <v>1.3465199999999999</v>
       </c>
       <c r="BR32">
-        <v>96.248999999999995</v>
+        <v>97.632999999999996</v>
       </c>
       <c r="BS32">
-        <v>96.248999999999995</v>
+        <v>97.632999999999996</v>
       </c>
       <c r="BT32">
-        <v>96.248999999999995</v>
+        <v>97.632999999999996</v>
       </c>
       <c r="BU32">
-        <v>96.248999999999995</v>
+        <v>97.632999999999996</v>
       </c>
       <c r="BV32">
-        <v>56.882747933884289</v>
+        <v>57.526796813034103</v>
       </c>
       <c r="BW32">
-        <v>56.882747933884289</v>
+        <v>57.499354338842977</v>
       </c>
       <c r="BX32">
-        <v>56.882747933884289</v>
+        <v>57.554235537190081</v>
       </c>
       <c r="BY32">
-        <v>56.882747933884289</v>
+        <v>57.554235537190081</v>
       </c>
       <c r="BZ32">
-        <v>49.505143898945178</v>
+        <v>50.81228046728107</v>
       </c>
       <c r="CA32">
-        <v>49.505143898945178</v>
+        <v>50.809024612579769</v>
       </c>
       <c r="CB32">
-        <v>49.505143898945178</v>
+        <v>50.815535877067333</v>
       </c>
       <c r="CC32">
-        <v>49.505143898945178</v>
+        <v>50.815535877067333</v>
       </c>
       <c r="CD32">
-        <v>41.876489868891539</v>
+        <v>44.663476182257767</v>
       </c>
       <c r="CE32">
-        <v>41.876489868891539</v>
+        <v>44.658820023837897</v>
       </c>
       <c r="CF32">
-        <v>41.876489868891539</v>
+        <v>44.668131704410023</v>
       </c>
       <c r="CG32">
-        <v>41.876489868891539</v>
+        <v>44.668131704410023</v>
       </c>
       <c r="CH32">
-        <v>35.964289042117031</v>
+        <v>39.660595359241718</v>
       </c>
       <c r="CI32">
-        <v>35.964289042117031</v>
+        <v>39.647782333209094</v>
       </c>
       <c r="CJ32">
-        <v>35.964289042117031</v>
+        <v>39.673406634364518</v>
       </c>
       <c r="CK32">
-        <v>35.964289042117031</v>
+        <v>39.673406634364518</v>
       </c>
       <c r="CL32">
-        <v>30.87641983737819</v>
+        <v>34.946814619718538</v>
       </c>
       <c r="CM32">
-        <v>30.87641983737819</v>
+        <v>34.941965117000812</v>
       </c>
       <c r="CN32">
-        <v>30.87641983737819</v>
+        <v>34.951663459747998</v>
       </c>
       <c r="CO32">
-        <v>30.87641983737819</v>
+        <v>34.951663459747998</v>
       </c>
       <c r="CP32">
-        <v>1.8</v>
+        <v>1.9872308223375199</v>
       </c>
       <c r="CQ32">
-        <v>1.8</v>
+        <v>1.9868750060168321</v>
       </c>
       <c r="CR32">
-        <v>1.8</v>
+        <v>1.9875866872874259</v>
       </c>
       <c r="CS32">
-        <v>1.8</v>
+        <v>1.9868750060168321</v>
       </c>
       <c r="CT32">
         <v>1.1000000000000001</v>
@@ -54228,64 +54225,64 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CX32">
-        <v>4.5096418727072667</v>
+        <v>4.5237702471546548</v>
       </c>
       <c r="CY32">
-        <v>4.5096418727072667</v>
+        <v>4.5237697562579804</v>
       </c>
       <c r="CZ32">
-        <v>4.5096418727072667</v>
+        <v>4.5237707379842478</v>
       </c>
       <c r="DA32">
-        <v>4.5096418727072667</v>
+        <v>4.5237707379842478</v>
       </c>
       <c r="DB32">
-        <v>6.7284039075165349</v>
+        <v>6.6859202996149332</v>
       </c>
       <c r="DC32">
-        <v>6.7284039075165349</v>
+        <v>6.6859202602195182</v>
       </c>
       <c r="DD32">
-        <v>6.7284039075165349</v>
+        <v>6.685920339004964</v>
       </c>
       <c r="DE32">
-        <v>6.7284039075165349</v>
+        <v>6.685920339004964</v>
       </c>
       <c r="DF32">
-        <v>3.9823969772242109</v>
+        <v>3.9865227209677041</v>
       </c>
       <c r="DG32">
-        <v>3.9823969772242109</v>
+        <v>3.9865226987530979</v>
       </c>
       <c r="DH32">
-        <v>3.9823969772242109</v>
+        <v>3.9865227431853469</v>
       </c>
       <c r="DI32">
-        <v>3.9823969772242109</v>
+        <v>3.9865226987530979</v>
       </c>
       <c r="DJ32">
-        <v>3.4205239599798931</v>
+        <v>4.4503979737846491</v>
       </c>
       <c r="DK32">
-        <v>3.4205239599798931</v>
+        <v>4.4503976711884574</v>
       </c>
       <c r="DL32">
-        <v>3.4205239599798931</v>
+        <v>4.4503982763394907</v>
       </c>
       <c r="DM32">
-        <v>3.4205239599798931</v>
+        <v>4.4503982763394907</v>
       </c>
       <c r="DN32">
-        <v>1.8</v>
+        <v>1.9872308223375199</v>
       </c>
       <c r="DO32">
-        <v>1.8</v>
+        <v>1.9868750060168321</v>
       </c>
       <c r="DP32">
-        <v>1.8</v>
+        <v>1.9875866872874259</v>
       </c>
       <c r="DQ32">
-        <v>1.8</v>
+        <v>1.9868750060168321</v>
       </c>
       <c r="DR32">
         <v>1.1000000000000001</v>
@@ -54300,441 +54297,441 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="DV32">
-        <v>4.5096418727072667</v>
+        <v>4.5237702471546548</v>
       </c>
       <c r="DW32">
-        <v>4.5096418727072667</v>
+        <v>4.5237697562579804</v>
       </c>
       <c r="DX32">
-        <v>4.5096418727072667</v>
+        <v>4.5237707379842478</v>
       </c>
       <c r="DY32">
-        <v>4.5096418727072667</v>
+        <v>4.5237707379842478</v>
       </c>
       <c r="DZ32">
-        <v>6.247897926856699</v>
+        <v>6.2144644878480761</v>
       </c>
       <c r="EA32">
-        <v>6.247897926856699</v>
+        <v>6.2144644508533213</v>
       </c>
       <c r="EB32">
-        <v>6.247897926856699</v>
+        <v>6.2144645248377746</v>
       </c>
       <c r="EC32">
-        <v>6.247897926856699</v>
+        <v>6.2144645248377746</v>
       </c>
       <c r="ED32">
-        <v>3.9823969772242109</v>
+        <v>3.9865227209677041</v>
       </c>
       <c r="EE32">
-        <v>3.9823969772242109</v>
+        <v>3.9865226987530979</v>
       </c>
       <c r="EF32">
-        <v>3.9823969772242109</v>
+        <v>3.9865227431853469</v>
       </c>
       <c r="EG32">
-        <v>3.9823969772242109</v>
+        <v>3.9865226987530979</v>
       </c>
       <c r="EH32">
-        <v>3.4205239599798931</v>
+        <v>4.4503979737846491</v>
       </c>
       <c r="EI32">
-        <v>3.4205239599798931</v>
+        <v>4.4503976711884574</v>
       </c>
       <c r="EJ32">
-        <v>3.4205239599798931</v>
+        <v>4.4503982763394907</v>
       </c>
       <c r="EK32">
-        <v>3.4205239599798931</v>
+        <v>4.4503982763394907</v>
       </c>
       <c r="EL32">
-        <v>1.999998974271562</v>
+        <v>1.999959961587215</v>
       </c>
       <c r="EM32">
-        <v>1.999998974271562</v>
+        <v>1.99994048228948</v>
       </c>
       <c r="EN32">
-        <v>1.999998974271562</v>
+        <v>1.9999794382230891</v>
       </c>
       <c r="EO32">
-        <v>1.999998974271562</v>
+        <v>1.9999794382230891</v>
       </c>
       <c r="EP32">
-        <v>10.63755256997926</v>
+        <v>10.43948538014614</v>
       </c>
       <c r="EQ32">
-        <v>10.63755256997926</v>
+        <v>10.43948483354264</v>
       </c>
       <c r="ER32">
-        <v>10.63755256997926</v>
+        <v>10.439485926674941</v>
       </c>
       <c r="ES32">
-        <v>10.63755256997926</v>
+        <v>10.439485926674941</v>
       </c>
       <c r="ET32">
-        <v>-1.9737000000000001E-2</v>
+        <v>-2.111E-2</v>
       </c>
       <c r="EU32">
-        <v>-1.9737000000000001E-2</v>
+        <v>-2.111E-2</v>
       </c>
       <c r="EV32">
-        <v>-1.9737000000000001E-2</v>
+        <v>-2.111E-2</v>
       </c>
       <c r="EW32">
-        <v>-1.9737000000000001E-2</v>
+        <v>-2.111E-2</v>
       </c>
       <c r="EX32">
-        <v>-0.13089200000000001</v>
+        <v>-0.13319500000000001</v>
       </c>
       <c r="EY32">
-        <v>-0.13089200000000001</v>
+        <v>-0.13319500000000001</v>
       </c>
       <c r="EZ32">
-        <v>-0.13089200000000001</v>
+        <v>-0.13319500000000001</v>
       </c>
       <c r="FA32">
-        <v>-0.13089200000000001</v>
+        <v>-0.13319500000000001</v>
       </c>
       <c r="FB32">
-        <v>4.2330596038799101E-2</v>
+        <v>4.126921509430112E-2</v>
       </c>
       <c r="FC32">
-        <v>4.2330596038799101E-2</v>
+        <v>4.1269215039784798E-2</v>
       </c>
       <c r="FD32">
-        <v>4.2330596038799101E-2</v>
+        <v>4.1269215148824902E-2</v>
       </c>
       <c r="FE32">
-        <v>4.2330596038799101E-2</v>
+        <v>4.1269215039784798E-2</v>
       </c>
       <c r="FF32">
-        <v>0.1703040355863594</v>
+        <v>0.1743242289141119</v>
       </c>
       <c r="FG32">
-        <v>0.1703040355863594</v>
+        <v>0.1743242289012058</v>
       </c>
       <c r="FH32">
-        <v>0.1703040355863594</v>
+        <v>0.17432422892701979</v>
       </c>
       <c r="FI32">
-        <v>0.1703040355863594</v>
+        <v>0.1743242289012058</v>
       </c>
       <c r="FJ32">
-        <v>-2.4705999999999999E-2</v>
+        <v>-2.8195000000000001E-2</v>
       </c>
       <c r="FK32">
-        <v>-2.4705999999999999E-2</v>
+        <v>-2.8195000000000001E-2</v>
       </c>
       <c r="FL32">
-        <v>-2.4705999999999999E-2</v>
+        <v>-2.8195000000000001E-2</v>
       </c>
       <c r="FM32">
-        <v>-2.4705999999999999E-2</v>
+        <v>-2.8195000000000001E-2</v>
       </c>
       <c r="FN32">
-        <v>-4.8559999999999999E-2</v>
+        <v>-4.9139000000000002E-2</v>
       </c>
       <c r="FO32">
-        <v>-4.8559999999999999E-2</v>
+        <v>-4.9139000000000002E-2</v>
       </c>
       <c r="FP32">
-        <v>-4.8559999999999999E-2</v>
+        <v>-4.9139000000000002E-2</v>
       </c>
       <c r="FQ32">
-        <v>-4.8559999999999999E-2</v>
+        <v>-4.9139000000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B33">
-        <v>-0.22098000000000001</v>
+        <v>-0.22281999999999999</v>
       </c>
       <c r="C33">
-        <v>-0.22098000000000001</v>
+        <v>-0.22281999999999999</v>
       </c>
       <c r="D33">
-        <v>-0.22098000000000001</v>
+        <v>-0.22281999999999999</v>
       </c>
       <c r="E33">
-        <v>-0.22098000000000001</v>
+        <v>-0.22281999999999999</v>
       </c>
       <c r="F33">
-        <v>-1.44E-2</v>
+        <v>-2.528E-2</v>
       </c>
       <c r="G33">
-        <v>-1.44E-2</v>
+        <v>-2.528E-2</v>
       </c>
       <c r="H33">
-        <v>-1.44E-2</v>
+        <v>-2.528E-2</v>
       </c>
       <c r="I33">
-        <v>-1.44E-2</v>
+        <v>-2.528E-2</v>
       </c>
       <c r="J33">
-        <v>0.20658000000000001</v>
+        <v>0.19753999999999999</v>
       </c>
       <c r="K33">
-        <v>0.20658000000000001</v>
+        <v>0.19753999999999999</v>
       </c>
       <c r="L33">
-        <v>0.20658000000000001</v>
+        <v>0.19753999999999999</v>
       </c>
       <c r="M33">
-        <v>0.20658000000000001</v>
+        <v>0.19753999999999999</v>
       </c>
       <c r="N33">
-        <v>-0.11769</v>
+        <v>-0.12404999999999999</v>
       </c>
       <c r="O33">
-        <v>-0.11769</v>
+        <v>-0.12404999999999999</v>
       </c>
       <c r="P33">
-        <v>-0.11769</v>
+        <v>-0.12404999999999999</v>
       </c>
       <c r="Q33">
-        <v>-0.11769</v>
+        <v>-0.12404999999999999</v>
       </c>
       <c r="R33">
-        <v>3.3520000000000001E-2</v>
+        <v>3.8949999999999999E-2</v>
       </c>
       <c r="S33">
-        <v>3.3520000000000001E-2</v>
+        <v>3.8949999999999999E-2</v>
       </c>
       <c r="T33">
-        <v>3.3520000000000001E-2</v>
+        <v>3.8949999999999999E-2</v>
       </c>
       <c r="U33">
-        <v>3.3520000000000001E-2</v>
+        <v>3.8949999999999999E-2</v>
       </c>
       <c r="V33">
-        <v>99.535700000000006</v>
+        <v>89.620300033586318</v>
       </c>
       <c r="W33">
-        <v>99.535700000000006</v>
+        <v>89.620199999999997</v>
       </c>
       <c r="X33">
-        <v>99.535700000000006</v>
+        <v>89.620400000000004</v>
       </c>
       <c r="Y33">
-        <v>99.535700000000006</v>
+        <v>89.620400000000004</v>
       </c>
       <c r="Z33">
-        <v>166.89400000000001</v>
+        <v>130.714</v>
       </c>
       <c r="AA33">
-        <v>166.89400000000001</v>
+        <v>130.714</v>
       </c>
       <c r="AB33">
-        <v>166.89400000000001</v>
+        <v>130.714</v>
       </c>
       <c r="AC33">
-        <v>166.89400000000001</v>
+        <v>130.714</v>
       </c>
       <c r="AD33">
-        <v>1.1942999999999999</v>
+        <v>2.4565000000000001</v>
       </c>
       <c r="AE33">
-        <v>1.1942999999999999</v>
+        <v>2.4565000000000001</v>
       </c>
       <c r="AF33">
-        <v>1.1942999999999999</v>
+        <v>2.4565000000000001</v>
       </c>
       <c r="AG33">
-        <v>1.1942999999999999</v>
+        <v>2.4565000000000001</v>
       </c>
       <c r="AH33">
-        <v>1297.679686604808</v>
+        <v>1025.1621535443689</v>
       </c>
       <c r="AI33">
-        <v>1155.9079999999999</v>
+        <v>996.41</v>
       </c>
       <c r="AJ33">
-        <v>1439.432</v>
+        <v>1053.895</v>
       </c>
       <c r="AK33">
-        <v>1439.432</v>
+        <v>1053.895</v>
       </c>
       <c r="AL33">
-        <v>0.91695379017691803</v>
+        <v>0.9180717717070378</v>
       </c>
       <c r="AM33">
-        <v>0.9169457786401024</v>
+        <v>0.9178072869940912</v>
       </c>
       <c r="AN33">
-        <v>0.91696180061895105</v>
+        <v>0.91833607881833723</v>
       </c>
       <c r="AO33">
-        <v>0.91696180061895105</v>
+        <v>0.91833607881833723</v>
       </c>
       <c r="AP33">
-        <v>310.48660122470483</v>
+        <v>283.51480782106182</v>
       </c>
       <c r="AQ33">
-        <v>310.44160516340793</v>
+        <v>283.3598546053712</v>
       </c>
       <c r="AR33">
-        <v>310.53160343558818</v>
+        <v>283.66986515784919</v>
       </c>
       <c r="AS33">
-        <v>310.44160516340793</v>
+        <v>283.3598546053712</v>
       </c>
       <c r="AT33">
-        <v>451.70956346805349</v>
+        <v>394.8683209514341</v>
       </c>
       <c r="AU33">
-        <v>451.61728924795551</v>
+        <v>394.71512200564842</v>
       </c>
       <c r="AV33">
-        <v>451.80185029921768</v>
+        <v>395.02162283953157</v>
       </c>
       <c r="AW33">
-        <v>451.61728924795551</v>
+        <v>394.71512200564842</v>
       </c>
       <c r="AX33">
-        <v>-0.15642</v>
+        <v>-0.20563999999999999</v>
       </c>
       <c r="AY33">
-        <v>-0.15642</v>
+        <v>-0.20563999999999999</v>
       </c>
       <c r="AZ33">
-        <v>-0.15642</v>
+        <v>-0.20563999999999999</v>
       </c>
       <c r="BA33">
-        <v>-0.15642</v>
+        <v>-0.20563999999999999</v>
       </c>
       <c r="BB33">
-        <v>-9.1900000000000003E-3</v>
+        <v>-4.1419999999999998E-2</v>
       </c>
       <c r="BC33">
-        <v>-9.1900000000000003E-3</v>
+        <v>-4.1419999999999998E-2</v>
       </c>
       <c r="BD33">
-        <v>-9.1900000000000003E-3</v>
+        <v>-4.1419999999999998E-2</v>
       </c>
       <c r="BE33">
-        <v>-9.1900000000000003E-3</v>
+        <v>-4.1419999999999998E-2</v>
       </c>
       <c r="BF33">
-        <v>36.892099999999999</v>
+        <v>54.458549983206851</v>
       </c>
       <c r="BG33">
-        <v>36.892099999999999</v>
+        <v>54.458500000000001</v>
       </c>
       <c r="BH33">
-        <v>36.892099999999999</v>
+        <v>54.458599999999997</v>
       </c>
       <c r="BI33">
-        <v>36.892099999999999</v>
+        <v>54.458500000000001</v>
       </c>
       <c r="BJ33">
-        <v>1.7865200000000001</v>
+        <v>1.7920400000000001</v>
       </c>
       <c r="BK33">
-        <v>1.7865200000000001</v>
+        <v>1.7920400000000001</v>
       </c>
       <c r="BL33">
-        <v>1.7865200000000001</v>
+        <v>1.7920400000000001</v>
       </c>
       <c r="BM33">
-        <v>1.7865200000000001</v>
+        <v>1.7920400000000001</v>
       </c>
       <c r="BN33">
-        <v>1.3465199999999999</v>
+        <v>1.3540700000000001</v>
       </c>
       <c r="BO33">
-        <v>1.3465199999999999</v>
+        <v>1.3540700000000001</v>
       </c>
       <c r="BP33">
-        <v>1.3465199999999999</v>
+        <v>1.3540700000000001</v>
       </c>
       <c r="BQ33">
-        <v>1.3465199999999999</v>
+        <v>1.3540700000000001</v>
       </c>
       <c r="BR33">
-        <v>97.632999999999996</v>
+        <v>97.048000000000002</v>
       </c>
       <c r="BS33">
-        <v>97.632999999999996</v>
+        <v>97.048000000000002</v>
       </c>
       <c r="BT33">
-        <v>97.632999999999996</v>
+        <v>97.048000000000002</v>
       </c>
       <c r="BU33">
-        <v>97.632999999999996</v>
+        <v>97.048000000000002</v>
       </c>
       <c r="BV33">
-        <v>57.526796813034103</v>
+        <v>54.551916578368314</v>
       </c>
       <c r="BW33">
-        <v>57.499354338842977</v>
+        <v>54.535769628099168</v>
       </c>
       <c r="BX33">
-        <v>57.554235537190081</v>
+        <v>54.568052685950413</v>
       </c>
       <c r="BY33">
-        <v>57.554235537190081</v>
+        <v>54.568052685950413</v>
       </c>
       <c r="BZ33">
-        <v>50.81228046728107</v>
+        <v>45.95243384611004</v>
       </c>
       <c r="CA33">
-        <v>50.809024612579769</v>
+        <v>45.948365672613619</v>
       </c>
       <c r="CB33">
-        <v>50.815535877067333</v>
+        <v>45.956504753223079</v>
       </c>
       <c r="CC33">
-        <v>50.815535877067333</v>
+        <v>45.948365672613619</v>
       </c>
       <c r="CD33">
-        <v>44.663476182257767</v>
+        <v>37.303987716604752</v>
       </c>
       <c r="CE33">
-        <v>44.658820023837897</v>
+        <v>37.299798867699643</v>
       </c>
       <c r="CF33">
-        <v>44.668131704410023</v>
+        <v>37.30817938021454</v>
       </c>
       <c r="CG33">
-        <v>44.668131704410023</v>
+        <v>37.299798867699643</v>
       </c>
       <c r="CH33">
-        <v>39.660595359241718</v>
+        <v>31.003367959548079</v>
       </c>
       <c r="CI33">
-        <v>39.647782333209094</v>
+        <v>30.99783358181141</v>
       </c>
       <c r="CJ33">
-        <v>39.673406634364518</v>
+        <v>31.008898620946699</v>
       </c>
       <c r="CK33">
-        <v>39.673406634364518</v>
+        <v>31.008898620946699</v>
       </c>
       <c r="CL33">
-        <v>34.946814619718538</v>
+        <v>25.899812044645511</v>
       </c>
       <c r="CM33">
-        <v>34.941965117000812</v>
+        <v>25.89923033951959</v>
       </c>
       <c r="CN33">
-        <v>34.951663459747998</v>
+        <v>25.900394140649251</v>
       </c>
       <c r="CO33">
-        <v>34.951663459747998</v>
+        <v>25.89923033951959</v>
       </c>
       <c r="CP33">
-        <v>1.9872308223375199</v>
+        <v>1.807275499718658</v>
       </c>
       <c r="CQ33">
-        <v>1.9868750060168321</v>
+        <v>1.807267122430954</v>
       </c>
       <c r="CR33">
-        <v>1.9875866872874259</v>
+        <v>1.8072838826354951</v>
       </c>
       <c r="CS33">
-        <v>1.9868750060168321</v>
+        <v>1.807267122430954</v>
       </c>
       <c r="CT33">
         <v>1.1000000000000001</v>
@@ -54749,64 +54746,64 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="CX33">
-        <v>4.5237702471546548</v>
+        <v>3.3108908323995729</v>
       </c>
       <c r="CY33">
-        <v>4.5237697562579804</v>
+        <v>3.3108892088368669</v>
       </c>
       <c r="CZ33">
-        <v>4.5237707379842478</v>
+        <v>3.3108924548720542</v>
       </c>
       <c r="DA33">
-        <v>4.5237707379842478</v>
+        <v>3.3108924548720542</v>
       </c>
       <c r="DB33">
-        <v>6.6859202996149332</v>
+        <v>7.4172289887962606</v>
       </c>
       <c r="DC33">
-        <v>6.6859202602195182</v>
+        <v>7.4172268457289139</v>
       </c>
       <c r="DD33">
-        <v>6.685920339004964</v>
+        <v>7.4172311304245344</v>
       </c>
       <c r="DE33">
-        <v>6.685920339004964</v>
+        <v>7.4172311304245344</v>
       </c>
       <c r="DF33">
-        <v>3.9865227209677041</v>
+        <v>3.9920376686013208</v>
       </c>
       <c r="DG33">
-        <v>3.9865226987530979</v>
+        <v>3.9920371020258729</v>
       </c>
       <c r="DH33">
-        <v>3.9865227431853469</v>
+        <v>3.9920382355574802</v>
       </c>
       <c r="DI33">
-        <v>3.9865226987530979</v>
+        <v>3.9920371020258729</v>
       </c>
       <c r="DJ33">
-        <v>4.4503979737846491</v>
+        <v>2.8540671460351441</v>
       </c>
       <c r="DK33">
-        <v>4.4503976711884574</v>
+        <v>2.8540667192483169</v>
       </c>
       <c r="DL33">
-        <v>4.4503982763394907</v>
+        <v>2.8540675731087499</v>
       </c>
       <c r="DM33">
-        <v>4.4503982763394907</v>
+        <v>2.8540667192483169</v>
       </c>
       <c r="DN33">
-        <v>1.9872308223375199</v>
+        <v>1.807275499718658</v>
       </c>
       <c r="DO33">
-        <v>1.9868750060168321</v>
+        <v>1.807267122430954</v>
       </c>
       <c r="DP33">
-        <v>1.9875866872874259</v>
+        <v>1.8072838826354951</v>
       </c>
       <c r="DQ33">
-        <v>1.9868750060168321</v>
+        <v>1.807267122430954</v>
       </c>
       <c r="DR33">
         <v>1.1000000000000001</v>
@@ -54821,674 +54818,153 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="DV33">
-        <v>4.5237702471546548</v>
+        <v>3.3108908323995729</v>
       </c>
       <c r="DW33">
-        <v>4.5237697562579804</v>
+        <v>3.3108892088368669</v>
       </c>
       <c r="DX33">
-        <v>4.5237707379842478</v>
+        <v>3.3108924548720542</v>
       </c>
       <c r="DY33">
-        <v>4.5237707379842478</v>
+        <v>3.3108924548720542</v>
       </c>
       <c r="DZ33">
-        <v>6.2144644878480761</v>
+        <v>6.2541670192743313</v>
       </c>
       <c r="EA33">
-        <v>6.2144644508533213</v>
+        <v>6.2541663799547953</v>
       </c>
       <c r="EB33">
-        <v>6.2144645248377746</v>
+        <v>6.2541676581645627</v>
       </c>
       <c r="EC33">
-        <v>6.2144645248377746</v>
+        <v>6.2541676581645627</v>
       </c>
       <c r="ED33">
-        <v>3.9865227209677041</v>
+        <v>3.9920376686013208</v>
       </c>
       <c r="EE33">
-        <v>3.9865226987530979</v>
+        <v>3.9920371020258729</v>
       </c>
       <c r="EF33">
-        <v>3.9865227431853469</v>
+        <v>3.9920382355574802</v>
       </c>
       <c r="EG33">
-        <v>3.9865226987530979</v>
+        <v>3.9920371020258729</v>
       </c>
       <c r="EH33">
-        <v>4.4503979737846491</v>
+        <v>2.8540671460351441</v>
       </c>
       <c r="EI33">
-        <v>4.4503976711884574</v>
+        <v>2.8540667192483169</v>
       </c>
       <c r="EJ33">
-        <v>4.4503982763394907</v>
+        <v>2.8540675731087499</v>
       </c>
       <c r="EK33">
-        <v>4.4503982763394907</v>
+        <v>2.8540667192483169</v>
       </c>
       <c r="EL33">
-        <v>1.999959961587215</v>
+        <v>1.643299900694752</v>
       </c>
       <c r="EM33">
-        <v>1.99994048228948</v>
+        <v>1.643297248355482</v>
       </c>
       <c r="EN33">
-        <v>1.9999794382230891</v>
+        <v>1.643302551252974</v>
       </c>
       <c r="EO33">
-        <v>1.9999794382230891</v>
+        <v>1.643302551252974</v>
       </c>
       <c r="EP33">
-        <v>10.43948538014614</v>
+        <v>11.19753580801291</v>
       </c>
       <c r="EQ33">
-        <v>10.43948483354264</v>
+        <v>11.197529584622799</v>
       </c>
       <c r="ER33">
-        <v>10.439485926674941</v>
+        <v>11.19754203558484</v>
       </c>
       <c r="ES33">
-        <v>10.439485926674941</v>
+        <v>11.197529584622799</v>
       </c>
       <c r="ET33">
-        <v>-2.111E-2</v>
+        <v>-3.5349000000000012E-2</v>
       </c>
       <c r="EU33">
-        <v>-2.111E-2</v>
+        <v>-3.5348999999999998E-2</v>
       </c>
       <c r="EV33">
-        <v>-2.111E-2</v>
+        <v>-3.5348999999999998E-2</v>
       </c>
       <c r="EW33">
-        <v>-2.111E-2</v>
+        <v>-3.5348999999999998E-2</v>
       </c>
       <c r="EX33">
-        <v>-0.13319500000000001</v>
+        <v>-0.16353049983206849</v>
       </c>
       <c r="EY33">
-        <v>-0.13319500000000001</v>
+        <v>-0.16353100000000001</v>
       </c>
       <c r="EZ33">
-        <v>-0.13319500000000001</v>
+        <v>-0.16353000000000001</v>
       </c>
       <c r="FA33">
-        <v>-0.13319500000000001</v>
+        <v>-0.16353000000000001</v>
       </c>
       <c r="FB33">
-        <v>4.126921509430112E-2</v>
+        <v>5.6778142308462308E-2</v>
       </c>
       <c r="FC33">
-        <v>4.1269215039784798E-2</v>
+        <v>5.6778142308462301E-2</v>
       </c>
       <c r="FD33">
-        <v>4.1269215148824902E-2</v>
+        <v>5.6778142308462301E-2</v>
       </c>
       <c r="FE33">
-        <v>4.1269215039784798E-2</v>
+        <v>5.6778142308462301E-2</v>
       </c>
       <c r="FF33">
-        <v>0.1743242289141119</v>
+        <v>0.22647066298859039</v>
       </c>
       <c r="FG33">
-        <v>0.1743242289012058</v>
+        <v>0.2264699467523229</v>
       </c>
       <c r="FH33">
-        <v>0.17432422892701979</v>
+        <v>0.2264713797061341</v>
       </c>
       <c r="FI33">
-        <v>0.1743242289012058</v>
+        <v>0.2264699467523229</v>
       </c>
       <c r="FJ33">
-        <v>-2.8195000000000001E-2</v>
+        <v>-3.8157999999999997E-2</v>
       </c>
       <c r="FK33">
-        <v>-2.8195000000000001E-2</v>
+        <v>-3.8157999999999997E-2</v>
       </c>
       <c r="FL33">
-        <v>-2.8195000000000001E-2</v>
+        <v>-3.8157999999999997E-2</v>
       </c>
       <c r="FM33">
-        <v>-2.8195000000000001E-2</v>
+        <v>-3.8157999999999997E-2</v>
       </c>
       <c r="FN33">
-        <v>-4.9139000000000002E-2</v>
+        <v>-8.3832000000000018E-2</v>
       </c>
       <c r="FO33">
-        <v>-4.9139000000000002E-2</v>
+        <v>-8.3832000000000004E-2</v>
       </c>
       <c r="FP33">
-        <v>-4.9139000000000002E-2</v>
+        <v>-8.3832000000000004E-2</v>
       </c>
       <c r="FQ33">
-        <v>-4.9139000000000002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:173" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>747</v>
-      </c>
-      <c r="B34">
-        <v>-0.22281999999999999</v>
-      </c>
-      <c r="C34">
-        <v>-0.22281999999999999</v>
-      </c>
-      <c r="D34">
-        <v>-0.22281999999999999</v>
-      </c>
-      <c r="E34">
-        <v>-0.22281999999999999</v>
-      </c>
-      <c r="F34">
-        <v>-2.528E-2</v>
-      </c>
-      <c r="G34">
-        <v>-2.528E-2</v>
-      </c>
-      <c r="H34">
-        <v>-2.528E-2</v>
-      </c>
-      <c r="I34">
-        <v>-2.528E-2</v>
-      </c>
-      <c r="J34">
-        <v>0.19753999999999999</v>
-      </c>
-      <c r="K34">
-        <v>0.19753999999999999</v>
-      </c>
-      <c r="L34">
-        <v>0.19753999999999999</v>
-      </c>
-      <c r="M34">
-        <v>0.19753999999999999</v>
-      </c>
-      <c r="N34">
-        <v>-0.12404999999999999</v>
-      </c>
-      <c r="O34">
-        <v>-0.12404999999999999</v>
-      </c>
-      <c r="P34">
-        <v>-0.12404999999999999</v>
-      </c>
-      <c r="Q34">
-        <v>-0.12404999999999999</v>
-      </c>
-      <c r="R34">
-        <v>3.8949999999999999E-2</v>
-      </c>
-      <c r="S34">
-        <v>3.8949999999999999E-2</v>
-      </c>
-      <c r="T34">
-        <v>3.8949999999999999E-2</v>
-      </c>
-      <c r="U34">
-        <v>3.8949999999999999E-2</v>
-      </c>
-      <c r="V34">
-        <v>89.620300033586318</v>
-      </c>
-      <c r="W34">
-        <v>89.620199999999997</v>
-      </c>
-      <c r="X34">
-        <v>89.620400000000004</v>
-      </c>
-      <c r="Y34">
-        <v>89.620400000000004</v>
-      </c>
-      <c r="Z34">
-        <v>130.714</v>
-      </c>
-      <c r="AA34">
-        <v>130.714</v>
-      </c>
-      <c r="AB34">
-        <v>130.714</v>
-      </c>
-      <c r="AC34">
-        <v>130.714</v>
-      </c>
-      <c r="AD34">
-        <v>2.4565000000000001</v>
-      </c>
-      <c r="AE34">
-        <v>2.4565000000000001</v>
-      </c>
-      <c r="AF34">
-        <v>2.4565000000000001</v>
-      </c>
-      <c r="AG34">
-        <v>2.4565000000000001</v>
-      </c>
-      <c r="AH34">
-        <v>1025.1621535443689</v>
-      </c>
-      <c r="AI34">
-        <v>996.41</v>
-      </c>
-      <c r="AJ34">
-        <v>1053.895</v>
-      </c>
-      <c r="AK34">
-        <v>1053.895</v>
-      </c>
-      <c r="AL34">
-        <v>0.9180717717070378</v>
-      </c>
-      <c r="AM34">
-        <v>0.9178072869940912</v>
-      </c>
-      <c r="AN34">
-        <v>0.91833607881833723</v>
-      </c>
-      <c r="AO34">
-        <v>0.91833607881833723</v>
-      </c>
-      <c r="AP34">
-        <v>283.51480782106182</v>
-      </c>
-      <c r="AQ34">
-        <v>283.3598546053712</v>
-      </c>
-      <c r="AR34">
-        <v>283.66986515784919</v>
-      </c>
-      <c r="AS34">
-        <v>283.3598546053712</v>
-      </c>
-      <c r="AT34">
-        <v>394.8683209514341</v>
-      </c>
-      <c r="AU34">
-        <v>394.71512200564842</v>
-      </c>
-      <c r="AV34">
-        <v>395.02162283953157</v>
-      </c>
-      <c r="AW34">
-        <v>394.71512200564842</v>
-      </c>
-      <c r="AX34">
-        <v>-0.20563999999999999</v>
-      </c>
-      <c r="AY34">
-        <v>-0.20563999999999999</v>
-      </c>
-      <c r="AZ34">
-        <v>-0.20563999999999999</v>
-      </c>
-      <c r="BA34">
-        <v>-0.20563999999999999</v>
-      </c>
-      <c r="BB34">
-        <v>-4.1419999999999998E-2</v>
-      </c>
-      <c r="BC34">
-        <v>-4.1419999999999998E-2</v>
-      </c>
-      <c r="BD34">
-        <v>-4.1419999999999998E-2</v>
-      </c>
-      <c r="BE34">
-        <v>-4.1419999999999998E-2</v>
-      </c>
-      <c r="BF34">
-        <v>54.458549983206851</v>
-      </c>
-      <c r="BG34">
-        <v>54.458500000000001</v>
-      </c>
-      <c r="BH34">
-        <v>54.458599999999997</v>
-      </c>
-      <c r="BI34">
-        <v>54.458500000000001</v>
-      </c>
-      <c r="BJ34">
-        <v>1.7920400000000001</v>
-      </c>
-      <c r="BK34">
-        <v>1.7920400000000001</v>
-      </c>
-      <c r="BL34">
-        <v>1.7920400000000001</v>
-      </c>
-      <c r="BM34">
-        <v>1.7920400000000001</v>
-      </c>
-      <c r="BN34">
-        <v>1.3540700000000001</v>
-      </c>
-      <c r="BO34">
-        <v>1.3540700000000001</v>
-      </c>
-      <c r="BP34">
-        <v>1.3540700000000001</v>
-      </c>
-      <c r="BQ34">
-        <v>1.3540700000000001</v>
-      </c>
-      <c r="BR34">
-        <v>97.048000000000002</v>
-      </c>
-      <c r="BS34">
-        <v>97.048000000000002</v>
-      </c>
-      <c r="BT34">
-        <v>97.048000000000002</v>
-      </c>
-      <c r="BU34">
-        <v>97.048000000000002</v>
-      </c>
-      <c r="BV34">
-        <v>54.551916578368314</v>
-      </c>
-      <c r="BW34">
-        <v>54.535769628099168</v>
-      </c>
-      <c r="BX34">
-        <v>54.568052685950413</v>
-      </c>
-      <c r="BY34">
-        <v>54.568052685950413</v>
-      </c>
-      <c r="BZ34">
-        <v>45.95243384611004</v>
-      </c>
-      <c r="CA34">
-        <v>45.948365672613619</v>
-      </c>
-      <c r="CB34">
-        <v>45.956504753223079</v>
-      </c>
-      <c r="CC34">
-        <v>45.948365672613619</v>
-      </c>
-      <c r="CD34">
-        <v>37.303987716604752</v>
-      </c>
-      <c r="CE34">
-        <v>37.299798867699643</v>
-      </c>
-      <c r="CF34">
-        <v>37.30817938021454</v>
-      </c>
-      <c r="CG34">
-        <v>37.299798867699643</v>
-      </c>
-      <c r="CH34">
-        <v>31.003367959548079</v>
-      </c>
-      <c r="CI34">
-        <v>30.99783358181141</v>
-      </c>
-      <c r="CJ34">
-        <v>31.008898620946699</v>
-      </c>
-      <c r="CK34">
-        <v>31.008898620946699</v>
-      </c>
-      <c r="CL34">
-        <v>25.899812044645511</v>
-      </c>
-      <c r="CM34">
-        <v>25.89923033951959</v>
-      </c>
-      <c r="CN34">
-        <v>25.900394140649251</v>
-      </c>
-      <c r="CO34">
-        <v>25.89923033951959</v>
-      </c>
-      <c r="CP34">
-        <v>1.807275499718658</v>
-      </c>
-      <c r="CQ34">
-        <v>1.807267122430954</v>
-      </c>
-      <c r="CR34">
-        <v>1.8072838826354951</v>
-      </c>
-      <c r="CS34">
-        <v>1.807267122430954</v>
-      </c>
-      <c r="CT34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CU34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CV34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CW34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CX34">
-        <v>3.3108908323995729</v>
-      </c>
-      <c r="CY34">
-        <v>3.3108892088368669</v>
-      </c>
-      <c r="CZ34">
-        <v>3.3108924548720542</v>
-      </c>
-      <c r="DA34">
-        <v>3.3108924548720542</v>
-      </c>
-      <c r="DB34">
-        <v>7.4172289887962606</v>
-      </c>
-      <c r="DC34">
-        <v>7.4172268457289139</v>
-      </c>
-      <c r="DD34">
-        <v>7.4172311304245344</v>
-      </c>
-      <c r="DE34">
-        <v>7.4172311304245344</v>
-      </c>
-      <c r="DF34">
-        <v>3.9920376686013208</v>
-      </c>
-      <c r="DG34">
-        <v>3.9920371020258729</v>
-      </c>
-      <c r="DH34">
-        <v>3.9920382355574802</v>
-      </c>
-      <c r="DI34">
-        <v>3.9920371020258729</v>
-      </c>
-      <c r="DJ34">
-        <v>2.8540671460351441</v>
-      </c>
-      <c r="DK34">
-        <v>2.8540667192483169</v>
-      </c>
-      <c r="DL34">
-        <v>2.8540675731087499</v>
-      </c>
-      <c r="DM34">
-        <v>2.8540667192483169</v>
-      </c>
-      <c r="DN34">
-        <v>1.807275499718658</v>
-      </c>
-      <c r="DO34">
-        <v>1.807267122430954</v>
-      </c>
-      <c r="DP34">
-        <v>1.8072838826354951</v>
-      </c>
-      <c r="DQ34">
-        <v>1.807267122430954</v>
-      </c>
-      <c r="DR34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DS34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DT34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DU34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DV34">
-        <v>3.3108908323995729</v>
-      </c>
-      <c r="DW34">
-        <v>3.3108892088368669</v>
-      </c>
-      <c r="DX34">
-        <v>3.3108924548720542</v>
-      </c>
-      <c r="DY34">
-        <v>3.3108924548720542</v>
-      </c>
-      <c r="DZ34">
-        <v>6.2541670192743313</v>
-      </c>
-      <c r="EA34">
-        <v>6.2541663799547953</v>
-      </c>
-      <c r="EB34">
-        <v>6.2541676581645627</v>
-      </c>
-      <c r="EC34">
-        <v>6.2541676581645627</v>
-      </c>
-      <c r="ED34">
-        <v>3.9920376686013208</v>
-      </c>
-      <c r="EE34">
-        <v>3.9920371020258729</v>
-      </c>
-      <c r="EF34">
-        <v>3.9920382355574802</v>
-      </c>
-      <c r="EG34">
-        <v>3.9920371020258729</v>
-      </c>
-      <c r="EH34">
-        <v>2.8540671460351441</v>
-      </c>
-      <c r="EI34">
-        <v>2.8540667192483169</v>
-      </c>
-      <c r="EJ34">
-        <v>2.8540675731087499</v>
-      </c>
-      <c r="EK34">
-        <v>2.8540667192483169</v>
-      </c>
-      <c r="EL34">
-        <v>1.643299900694752</v>
-      </c>
-      <c r="EM34">
-        <v>1.643297248355482</v>
-      </c>
-      <c r="EN34">
-        <v>1.643302551252974</v>
-      </c>
-      <c r="EO34">
-        <v>1.643302551252974</v>
-      </c>
-      <c r="EP34">
-        <v>11.19753580801291</v>
-      </c>
-      <c r="EQ34">
-        <v>11.197529584622799</v>
-      </c>
-      <c r="ER34">
-        <v>11.19754203558484</v>
-      </c>
-      <c r="ES34">
-        <v>11.197529584622799</v>
-      </c>
-      <c r="ET34">
-        <v>-3.5349000000000012E-2</v>
-      </c>
-      <c r="EU34">
-        <v>-3.5348999999999998E-2</v>
-      </c>
-      <c r="EV34">
-        <v>-3.5348999999999998E-2</v>
-      </c>
-      <c r="EW34">
-        <v>-3.5348999999999998E-2</v>
-      </c>
-      <c r="EX34">
-        <v>-0.16353049983206849</v>
-      </c>
-      <c r="EY34">
-        <v>-0.16353100000000001</v>
-      </c>
-      <c r="EZ34">
-        <v>-0.16353000000000001</v>
-      </c>
-      <c r="FA34">
-        <v>-0.16353000000000001</v>
-      </c>
-      <c r="FB34">
-        <v>5.6778142308462308E-2</v>
-      </c>
-      <c r="FC34">
-        <v>5.6778142308462301E-2</v>
-      </c>
-      <c r="FD34">
-        <v>5.6778142308462301E-2</v>
-      </c>
-      <c r="FE34">
-        <v>5.6778142308462301E-2</v>
-      </c>
-      <c r="FF34">
-        <v>0.22647066298859039</v>
-      </c>
-      <c r="FG34">
-        <v>0.2264699467523229</v>
-      </c>
-      <c r="FH34">
-        <v>0.2264713797061341</v>
-      </c>
-      <c r="FI34">
-        <v>0.2264699467523229</v>
-      </c>
-      <c r="FJ34">
-        <v>-3.8157999999999997E-2</v>
-      </c>
-      <c r="FK34">
-        <v>-3.8157999999999997E-2</v>
-      </c>
-      <c r="FL34">
-        <v>-3.8157999999999997E-2</v>
-      </c>
-      <c r="FM34">
-        <v>-3.8157999999999997E-2</v>
-      </c>
-      <c r="FN34">
-        <v>-8.3832000000000018E-2</v>
-      </c>
-      <c r="FO34">
-        <v>-8.3832000000000004E-2</v>
-      </c>
-      <c r="FP34">
-        <v>-8.3832000000000004E-2</v>
-      </c>
-      <c r="FQ34">
         <v>-8.3832000000000004E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FQ34">
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FQ33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
